--- a/Dataset/Buoys/4N90E/EXCEL/w4n90e_dy.xlsx
+++ b/Dataset/Buoys/4N90E/EXCEL/w4n90e_dy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -38,39 +38,6 @@
   </si>
   <si>
     <t>WDIR</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>Oktober</t>
-  </si>
-  <si>
-    <t>Desember</t>
-  </si>
-  <si>
-    <t>Januari</t>
-  </si>
-  <si>
-    <t>Juli</t>
-  </si>
-  <si>
-    <t>Agustus</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>Juni</t>
-  </si>
-  <si>
-    <t>Mei</t>
-  </si>
-  <si>
-    <t>Maret</t>
-  </si>
-  <si>
-    <t>April</t>
   </si>
 </sst>
 </file>
@@ -442,7 +409,7 @@
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" customWidth="1"/>
     <col min="5" max="7" width="6.7109375" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" customWidth="1"/>
@@ -481,8 +448,8 @@
       <c r="B2">
         <v>2006</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="C2">
+        <v>11</v>
       </c>
       <c r="D2">
         <v>16</v>
@@ -501,8 +468,8 @@
       <c r="B3">
         <v>2006</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="C3">
+        <v>11</v>
       </c>
       <c r="D3">
         <v>17</v>
@@ -521,8 +488,8 @@
       <c r="B4">
         <v>2006</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
+      <c r="C4">
+        <v>11</v>
       </c>
       <c r="D4">
         <v>18</v>
@@ -547,8 +514,8 @@
       <c r="B5">
         <v>2006</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
+      <c r="C5">
+        <v>11</v>
       </c>
       <c r="D5">
         <v>19</v>
@@ -570,8 +537,8 @@
       <c r="B6">
         <v>2006</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
+      <c r="C6">
+        <v>11</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -596,8 +563,8 @@
       <c r="B7">
         <v>2006</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
+      <c r="C7">
+        <v>11</v>
       </c>
       <c r="D7">
         <v>21</v>
@@ -619,8 +586,8 @@
       <c r="B8">
         <v>2006</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
+      <c r="C8">
+        <v>11</v>
       </c>
       <c r="D8">
         <v>22</v>
@@ -642,8 +609,8 @@
       <c r="B9">
         <v>2006</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
+      <c r="C9">
+        <v>11</v>
       </c>
       <c r="D9">
         <v>23</v>
@@ -665,8 +632,8 @@
       <c r="B10">
         <v>2006</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
+      <c r="C10">
+        <v>11</v>
       </c>
       <c r="D10">
         <v>24</v>
@@ -688,8 +655,8 @@
       <c r="B11">
         <v>2006</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
+      <c r="C11">
+        <v>11</v>
       </c>
       <c r="D11">
         <v>25</v>
@@ -714,8 +681,8 @@
       <c r="B12">
         <v>2006</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
+      <c r="C12">
+        <v>11</v>
       </c>
       <c r="D12">
         <v>26</v>
@@ -737,8 +704,8 @@
       <c r="B13">
         <v>2007</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
+      <c r="C13">
+        <v>10</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -760,8 +727,8 @@
       <c r="B14">
         <v>2007</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
+      <c r="C14">
+        <v>10</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -786,8 +753,8 @@
       <c r="B15">
         <v>2007</v>
       </c>
-      <c r="C15" t="s">
-        <v>9</v>
+      <c r="C15">
+        <v>10</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -812,8 +779,8 @@
       <c r="B16">
         <v>2007</v>
       </c>
-      <c r="C16" t="s">
-        <v>9</v>
+      <c r="C16">
+        <v>10</v>
       </c>
       <c r="D16">
         <v>11</v>
@@ -835,8 +802,8 @@
       <c r="B17">
         <v>2007</v>
       </c>
-      <c r="C17" t="s">
-        <v>9</v>
+      <c r="C17">
+        <v>10</v>
       </c>
       <c r="D17">
         <v>12</v>
@@ -858,8 +825,8 @@
       <c r="B18">
         <v>2007</v>
       </c>
-      <c r="C18" t="s">
-        <v>9</v>
+      <c r="C18">
+        <v>10</v>
       </c>
       <c r="D18">
         <v>13</v>
@@ -884,8 +851,8 @@
       <c r="B19">
         <v>2007</v>
       </c>
-      <c r="C19" t="s">
-        <v>9</v>
+      <c r="C19">
+        <v>10</v>
       </c>
       <c r="D19">
         <v>14</v>
@@ -910,8 +877,8 @@
       <c r="B20">
         <v>2007</v>
       </c>
-      <c r="C20" t="s">
-        <v>9</v>
+      <c r="C20">
+        <v>10</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -933,8 +900,8 @@
       <c r="B21">
         <v>2007</v>
       </c>
-      <c r="C21" t="s">
-        <v>9</v>
+      <c r="C21">
+        <v>10</v>
       </c>
       <c r="D21">
         <v>16</v>
@@ -959,8 +926,8 @@
       <c r="B22">
         <v>2007</v>
       </c>
-      <c r="C22" t="s">
-        <v>9</v>
+      <c r="C22">
+        <v>10</v>
       </c>
       <c r="D22">
         <v>17</v>
@@ -985,8 +952,8 @@
       <c r="B23">
         <v>2007</v>
       </c>
-      <c r="C23" t="s">
-        <v>9</v>
+      <c r="C23">
+        <v>10</v>
       </c>
       <c r="D23">
         <v>18</v>
@@ -1008,8 +975,8 @@
       <c r="B24">
         <v>2007</v>
       </c>
-      <c r="C24" t="s">
-        <v>9</v>
+      <c r="C24">
+        <v>10</v>
       </c>
       <c r="D24">
         <v>19</v>
@@ -1031,8 +998,8 @@
       <c r="B25">
         <v>2007</v>
       </c>
-      <c r="C25" t="s">
-        <v>9</v>
+      <c r="C25">
+        <v>10</v>
       </c>
       <c r="D25">
         <v>20</v>
@@ -1054,8 +1021,8 @@
       <c r="B26">
         <v>2007</v>
       </c>
-      <c r="C26" t="s">
-        <v>9</v>
+      <c r="C26">
+        <v>10</v>
       </c>
       <c r="D26">
         <v>21</v>
@@ -1077,8 +1044,8 @@
       <c r="B27">
         <v>2007</v>
       </c>
-      <c r="C27" t="s">
-        <v>9</v>
+      <c r="C27">
+        <v>10</v>
       </c>
       <c r="D27">
         <v>22</v>
@@ -1100,8 +1067,8 @@
       <c r="B28">
         <v>2007</v>
       </c>
-      <c r="C28" t="s">
-        <v>9</v>
+      <c r="C28">
+        <v>10</v>
       </c>
       <c r="D28">
         <v>23</v>
@@ -1126,8 +1093,8 @@
       <c r="B29">
         <v>2007</v>
       </c>
-      <c r="C29" t="s">
-        <v>9</v>
+      <c r="C29">
+        <v>10</v>
       </c>
       <c r="D29">
         <v>24</v>
@@ -1152,8 +1119,8 @@
       <c r="B30">
         <v>2007</v>
       </c>
-      <c r="C30" t="s">
-        <v>9</v>
+      <c r="C30">
+        <v>10</v>
       </c>
       <c r="D30">
         <v>25</v>
@@ -1178,8 +1145,8 @@
       <c r="B31">
         <v>2007</v>
       </c>
-      <c r="C31" t="s">
-        <v>9</v>
+      <c r="C31">
+        <v>10</v>
       </c>
       <c r="D31">
         <v>26</v>
@@ -1204,8 +1171,8 @@
       <c r="B32">
         <v>2007</v>
       </c>
-      <c r="C32" t="s">
-        <v>9</v>
+      <c r="C32">
+        <v>10</v>
       </c>
       <c r="D32">
         <v>27</v>
@@ -1230,8 +1197,8 @@
       <c r="B33">
         <v>2007</v>
       </c>
-      <c r="C33" t="s">
-        <v>9</v>
+      <c r="C33">
+        <v>10</v>
       </c>
       <c r="D33">
         <v>28</v>
@@ -1256,8 +1223,8 @@
       <c r="B34">
         <v>2007</v>
       </c>
-      <c r="C34" t="s">
-        <v>9</v>
+      <c r="C34">
+        <v>10</v>
       </c>
       <c r="D34">
         <v>29</v>
@@ -1282,8 +1249,8 @@
       <c r="B35">
         <v>2007</v>
       </c>
-      <c r="C35" t="s">
-        <v>9</v>
+      <c r="C35">
+        <v>10</v>
       </c>
       <c r="D35">
         <v>30</v>
@@ -1308,8 +1275,8 @@
       <c r="B36">
         <v>2007</v>
       </c>
-      <c r="C36" t="s">
-        <v>9</v>
+      <c r="C36">
+        <v>10</v>
       </c>
       <c r="D36">
         <v>31</v>
@@ -1331,8 +1298,8 @@
       <c r="B37">
         <v>2007</v>
       </c>
-      <c r="C37" t="s">
-        <v>8</v>
+      <c r="C37">
+        <v>11</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1357,8 +1324,8 @@
       <c r="B38">
         <v>2007</v>
       </c>
-      <c r="C38" t="s">
-        <v>8</v>
+      <c r="C38">
+        <v>11</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -1383,8 +1350,8 @@
       <c r="B39">
         <v>2007</v>
       </c>
-      <c r="C39" t="s">
-        <v>8</v>
+      <c r="C39">
+        <v>11</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -1409,8 +1376,8 @@
       <c r="B40">
         <v>2007</v>
       </c>
-      <c r="C40" t="s">
-        <v>8</v>
+      <c r="C40">
+        <v>11</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -1435,8 +1402,8 @@
       <c r="B41">
         <v>2007</v>
       </c>
-      <c r="C41" t="s">
-        <v>8</v>
+      <c r="C41">
+        <v>11</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -1458,8 +1425,8 @@
       <c r="B42">
         <v>2007</v>
       </c>
-      <c r="C42" t="s">
-        <v>8</v>
+      <c r="C42">
+        <v>11</v>
       </c>
       <c r="D42">
         <v>6</v>
@@ -1484,8 +1451,8 @@
       <c r="B43">
         <v>2007</v>
       </c>
-      <c r="C43" t="s">
-        <v>8</v>
+      <c r="C43">
+        <v>11</v>
       </c>
       <c r="D43">
         <v>7</v>
@@ -1507,8 +1474,8 @@
       <c r="B44">
         <v>2007</v>
       </c>
-      <c r="C44" t="s">
-        <v>8</v>
+      <c r="C44">
+        <v>11</v>
       </c>
       <c r="D44">
         <v>8</v>
@@ -1533,8 +1500,8 @@
       <c r="B45">
         <v>2007</v>
       </c>
-      <c r="C45" t="s">
-        <v>8</v>
+      <c r="C45">
+        <v>11</v>
       </c>
       <c r="D45">
         <v>9</v>
@@ -1559,8 +1526,8 @@
       <c r="B46">
         <v>2007</v>
       </c>
-      <c r="C46" t="s">
-        <v>8</v>
+      <c r="C46">
+        <v>11</v>
       </c>
       <c r="D46">
         <v>10</v>
@@ -1585,8 +1552,8 @@
       <c r="B47">
         <v>2007</v>
       </c>
-      <c r="C47" t="s">
-        <v>8</v>
+      <c r="C47">
+        <v>11</v>
       </c>
       <c r="D47">
         <v>11</v>
@@ -1611,8 +1578,8 @@
       <c r="B48">
         <v>2007</v>
       </c>
-      <c r="C48" t="s">
-        <v>8</v>
+      <c r="C48">
+        <v>11</v>
       </c>
       <c r="D48">
         <v>12</v>
@@ -1637,8 +1604,8 @@
       <c r="B49">
         <v>2007</v>
       </c>
-      <c r="C49" t="s">
-        <v>8</v>
+      <c r="C49">
+        <v>11</v>
       </c>
       <c r="D49">
         <v>13</v>
@@ -1663,8 +1630,8 @@
       <c r="B50">
         <v>2007</v>
       </c>
-      <c r="C50" t="s">
-        <v>8</v>
+      <c r="C50">
+        <v>11</v>
       </c>
       <c r="D50">
         <v>14</v>
@@ -1689,8 +1656,8 @@
       <c r="B51">
         <v>2007</v>
       </c>
-      <c r="C51" t="s">
-        <v>8</v>
+      <c r="C51">
+        <v>11</v>
       </c>
       <c r="D51">
         <v>15</v>
@@ -1712,8 +1679,8 @@
       <c r="B52">
         <v>2007</v>
       </c>
-      <c r="C52" t="s">
-        <v>8</v>
+      <c r="C52">
+        <v>11</v>
       </c>
       <c r="D52">
         <v>16</v>
@@ -1732,8 +1699,8 @@
       <c r="B53">
         <v>2007</v>
       </c>
-      <c r="C53" t="s">
-        <v>8</v>
+      <c r="C53">
+        <v>11</v>
       </c>
       <c r="D53">
         <v>17</v>
@@ -1752,8 +1719,8 @@
       <c r="B54">
         <v>2007</v>
       </c>
-      <c r="C54" t="s">
-        <v>8</v>
+      <c r="C54">
+        <v>11</v>
       </c>
       <c r="D54">
         <v>18</v>
@@ -1775,8 +1742,8 @@
       <c r="B55">
         <v>2007</v>
       </c>
-      <c r="C55" t="s">
-        <v>8</v>
+      <c r="C55">
+        <v>11</v>
       </c>
       <c r="D55">
         <v>19</v>
@@ -1798,8 +1765,8 @@
       <c r="B56">
         <v>2007</v>
       </c>
-      <c r="C56" t="s">
-        <v>8</v>
+      <c r="C56">
+        <v>11</v>
       </c>
       <c r="D56">
         <v>20</v>
@@ -1821,8 +1788,8 @@
       <c r="B57">
         <v>2007</v>
       </c>
-      <c r="C57" t="s">
-        <v>8</v>
+      <c r="C57">
+        <v>11</v>
       </c>
       <c r="D57">
         <v>21</v>
@@ -1844,8 +1811,8 @@
       <c r="B58">
         <v>2007</v>
       </c>
-      <c r="C58" t="s">
-        <v>8</v>
+      <c r="C58">
+        <v>11</v>
       </c>
       <c r="D58">
         <v>22</v>
@@ -1867,8 +1834,8 @@
       <c r="B59">
         <v>2007</v>
       </c>
-      <c r="C59" t="s">
-        <v>8</v>
+      <c r="C59">
+        <v>11</v>
       </c>
       <c r="D59">
         <v>23</v>
@@ -1890,8 +1857,8 @@
       <c r="B60">
         <v>2007</v>
       </c>
-      <c r="C60" t="s">
-        <v>8</v>
+      <c r="C60">
+        <v>11</v>
       </c>
       <c r="D60">
         <v>24</v>
@@ -1913,8 +1880,8 @@
       <c r="B61">
         <v>2007</v>
       </c>
-      <c r="C61" t="s">
-        <v>8</v>
+      <c r="C61">
+        <v>11</v>
       </c>
       <c r="D61">
         <v>25</v>
@@ -1939,8 +1906,8 @@
       <c r="B62">
         <v>2007</v>
       </c>
-      <c r="C62" t="s">
-        <v>8</v>
+      <c r="C62">
+        <v>11</v>
       </c>
       <c r="D62">
         <v>26</v>
@@ -1965,8 +1932,8 @@
       <c r="B63">
         <v>2007</v>
       </c>
-      <c r="C63" t="s">
-        <v>8</v>
+      <c r="C63">
+        <v>11</v>
       </c>
       <c r="D63">
         <v>27</v>
@@ -1991,8 +1958,8 @@
       <c r="B64">
         <v>2007</v>
       </c>
-      <c r="C64" t="s">
-        <v>8</v>
+      <c r="C64">
+        <v>11</v>
       </c>
       <c r="D64">
         <v>28</v>
@@ -2011,8 +1978,8 @@
       <c r="B65">
         <v>2007</v>
       </c>
-      <c r="C65" t="s">
-        <v>8</v>
+      <c r="C65">
+        <v>11</v>
       </c>
       <c r="D65">
         <v>29</v>
@@ -2031,8 +1998,8 @@
       <c r="B66">
         <v>2007</v>
       </c>
-      <c r="C66" t="s">
-        <v>8</v>
+      <c r="C66">
+        <v>11</v>
       </c>
       <c r="D66">
         <v>30</v>
@@ -2054,8 +2021,8 @@
       <c r="B67">
         <v>2007</v>
       </c>
-      <c r="C67" t="s">
-        <v>10</v>
+      <c r="C67">
+        <v>12</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2074,8 +2041,8 @@
       <c r="B68">
         <v>2007</v>
       </c>
-      <c r="C68" t="s">
-        <v>10</v>
+      <c r="C68">
+        <v>12</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -2094,8 +2061,8 @@
       <c r="B69">
         <v>2007</v>
       </c>
-      <c r="C69" t="s">
-        <v>10</v>
+      <c r="C69">
+        <v>12</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -2114,8 +2081,8 @@
       <c r="B70">
         <v>2007</v>
       </c>
-      <c r="C70" t="s">
-        <v>10</v>
+      <c r="C70">
+        <v>12</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -2134,8 +2101,8 @@
       <c r="B71">
         <v>2007</v>
       </c>
-      <c r="C71" t="s">
-        <v>10</v>
+      <c r="C71">
+        <v>12</v>
       </c>
       <c r="D71">
         <v>5</v>
@@ -2154,8 +2121,8 @@
       <c r="B72">
         <v>2007</v>
       </c>
-      <c r="C72" t="s">
-        <v>10</v>
+      <c r="C72">
+        <v>12</v>
       </c>
       <c r="D72">
         <v>6</v>
@@ -2174,8 +2141,8 @@
       <c r="B73">
         <v>2007</v>
       </c>
-      <c r="C73" t="s">
-        <v>10</v>
+      <c r="C73">
+        <v>12</v>
       </c>
       <c r="D73">
         <v>7</v>
@@ -2194,8 +2161,8 @@
       <c r="B74">
         <v>2007</v>
       </c>
-      <c r="C74" t="s">
-        <v>10</v>
+      <c r="C74">
+        <v>12</v>
       </c>
       <c r="D74">
         <v>8</v>
@@ -2220,8 +2187,8 @@
       <c r="B75">
         <v>2007</v>
       </c>
-      <c r="C75" t="s">
-        <v>10</v>
+      <c r="C75">
+        <v>12</v>
       </c>
       <c r="D75">
         <v>9</v>
@@ -2240,8 +2207,8 @@
       <c r="B76">
         <v>2007</v>
       </c>
-      <c r="C76" t="s">
-        <v>10</v>
+      <c r="C76">
+        <v>12</v>
       </c>
       <c r="D76">
         <v>10</v>
@@ -2263,8 +2230,8 @@
       <c r="B77">
         <v>2007</v>
       </c>
-      <c r="C77" t="s">
-        <v>10</v>
+      <c r="C77">
+        <v>12</v>
       </c>
       <c r="D77">
         <v>11</v>
@@ -2286,8 +2253,8 @@
       <c r="B78">
         <v>2007</v>
       </c>
-      <c r="C78" t="s">
-        <v>10</v>
+      <c r="C78">
+        <v>12</v>
       </c>
       <c r="D78">
         <v>12</v>
@@ -2309,8 +2276,8 @@
       <c r="B79">
         <v>2007</v>
       </c>
-      <c r="C79" t="s">
-        <v>10</v>
+      <c r="C79">
+        <v>12</v>
       </c>
       <c r="D79">
         <v>13</v>
@@ -2332,8 +2299,8 @@
       <c r="B80">
         <v>2007</v>
       </c>
-      <c r="C80" t="s">
-        <v>10</v>
+      <c r="C80">
+        <v>12</v>
       </c>
       <c r="D80">
         <v>14</v>
@@ -2355,8 +2322,8 @@
       <c r="B81">
         <v>2007</v>
       </c>
-      <c r="C81" t="s">
-        <v>10</v>
+      <c r="C81">
+        <v>12</v>
       </c>
       <c r="D81">
         <v>15</v>
@@ -2375,8 +2342,8 @@
       <c r="B82">
         <v>2007</v>
       </c>
-      <c r="C82" t="s">
-        <v>10</v>
+      <c r="C82">
+        <v>12</v>
       </c>
       <c r="D82">
         <v>16</v>
@@ -2398,8 +2365,8 @@
       <c r="B83">
         <v>2007</v>
       </c>
-      <c r="C83" t="s">
-        <v>10</v>
+      <c r="C83">
+        <v>12</v>
       </c>
       <c r="D83">
         <v>17</v>
@@ -2421,8 +2388,8 @@
       <c r="B84">
         <v>2007</v>
       </c>
-      <c r="C84" t="s">
-        <v>10</v>
+      <c r="C84">
+        <v>12</v>
       </c>
       <c r="D84">
         <v>18</v>
@@ -2441,8 +2408,8 @@
       <c r="B85">
         <v>2007</v>
       </c>
-      <c r="C85" t="s">
-        <v>10</v>
+      <c r="C85">
+        <v>12</v>
       </c>
       <c r="D85">
         <v>19</v>
@@ -2461,8 +2428,8 @@
       <c r="B86">
         <v>2007</v>
       </c>
-      <c r="C86" t="s">
-        <v>10</v>
+      <c r="C86">
+        <v>12</v>
       </c>
       <c r="D86">
         <v>20</v>
@@ -2481,8 +2448,8 @@
       <c r="B87">
         <v>2007</v>
       </c>
-      <c r="C87" t="s">
-        <v>10</v>
+      <c r="C87">
+        <v>12</v>
       </c>
       <c r="D87">
         <v>21</v>
@@ -2501,8 +2468,8 @@
       <c r="B88">
         <v>2007</v>
       </c>
-      <c r="C88" t="s">
-        <v>10</v>
+      <c r="C88">
+        <v>12</v>
       </c>
       <c r="D88">
         <v>22</v>
@@ -2521,8 +2488,8 @@
       <c r="B89">
         <v>2007</v>
       </c>
-      <c r="C89" t="s">
-        <v>10</v>
+      <c r="C89">
+        <v>12</v>
       </c>
       <c r="D89">
         <v>23</v>
@@ -2547,8 +2514,8 @@
       <c r="B90">
         <v>2007</v>
       </c>
-      <c r="C90" t="s">
-        <v>10</v>
+      <c r="C90">
+        <v>12</v>
       </c>
       <c r="D90">
         <v>24</v>
@@ -2570,8 +2537,8 @@
       <c r="B91">
         <v>2007</v>
       </c>
-      <c r="C91" t="s">
-        <v>10</v>
+      <c r="C91">
+        <v>12</v>
       </c>
       <c r="D91">
         <v>25</v>
@@ -2590,8 +2557,8 @@
       <c r="B92">
         <v>2007</v>
       </c>
-      <c r="C92" t="s">
-        <v>10</v>
+      <c r="C92">
+        <v>12</v>
       </c>
       <c r="D92">
         <v>26</v>
@@ -2610,8 +2577,8 @@
       <c r="B93">
         <v>2007</v>
       </c>
-      <c r="C93" t="s">
-        <v>10</v>
+      <c r="C93">
+        <v>12</v>
       </c>
       <c r="D93">
         <v>27</v>
@@ -2633,8 +2600,8 @@
       <c r="B94">
         <v>2007</v>
       </c>
-      <c r="C94" t="s">
-        <v>10</v>
+      <c r="C94">
+        <v>12</v>
       </c>
       <c r="D94">
         <v>28</v>
@@ -2656,8 +2623,8 @@
       <c r="B95">
         <v>2007</v>
       </c>
-      <c r="C95" t="s">
-        <v>10</v>
+      <c r="C95">
+        <v>12</v>
       </c>
       <c r="D95">
         <v>29</v>
@@ -2679,8 +2646,8 @@
       <c r="B96">
         <v>2007</v>
       </c>
-      <c r="C96" t="s">
-        <v>10</v>
+      <c r="C96">
+        <v>12</v>
       </c>
       <c r="D96">
         <v>30</v>
@@ -2699,8 +2666,8 @@
       <c r="B97">
         <v>2007</v>
       </c>
-      <c r="C97" t="s">
-        <v>10</v>
+      <c r="C97">
+        <v>12</v>
       </c>
       <c r="D97">
         <v>31</v>
@@ -2719,8 +2686,8 @@
       <c r="B98">
         <v>2008</v>
       </c>
-      <c r="C98" t="s">
-        <v>11</v>
+      <c r="C98">
+        <v>1</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2739,8 +2706,8 @@
       <c r="B99">
         <v>2008</v>
       </c>
-      <c r="C99" t="s">
-        <v>11</v>
+      <c r="C99">
+        <v>1</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2762,8 +2729,8 @@
       <c r="B100">
         <v>2008</v>
       </c>
-      <c r="C100" t="s">
-        <v>11</v>
+      <c r="C100">
+        <v>1</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2785,8 +2752,8 @@
       <c r="B101">
         <v>2008</v>
       </c>
-      <c r="C101" t="s">
-        <v>11</v>
+      <c r="C101">
+        <v>1</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2811,8 +2778,8 @@
       <c r="B102">
         <v>2008</v>
       </c>
-      <c r="C102" t="s">
-        <v>11</v>
+      <c r="C102">
+        <v>1</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2831,8 +2798,8 @@
       <c r="B103">
         <v>2010</v>
       </c>
-      <c r="C103" t="s">
-        <v>12</v>
+      <c r="C103">
+        <v>7</v>
       </c>
       <c r="D103">
         <v>5</v>
@@ -2854,8 +2821,8 @@
       <c r="B104">
         <v>2010</v>
       </c>
-      <c r="C104" t="s">
-        <v>12</v>
+      <c r="C104">
+        <v>7</v>
       </c>
       <c r="D104">
         <v>6</v>
@@ -2880,8 +2847,8 @@
       <c r="B105">
         <v>2010</v>
       </c>
-      <c r="C105" t="s">
-        <v>12</v>
+      <c r="C105">
+        <v>7</v>
       </c>
       <c r="D105">
         <v>7</v>
@@ -2903,8 +2870,8 @@
       <c r="B106">
         <v>2010</v>
       </c>
-      <c r="C106" t="s">
-        <v>12</v>
+      <c r="C106">
+        <v>7</v>
       </c>
       <c r="D106">
         <v>8</v>
@@ -2926,8 +2893,8 @@
       <c r="B107">
         <v>2010</v>
       </c>
-      <c r="C107" t="s">
-        <v>12</v>
+      <c r="C107">
+        <v>7</v>
       </c>
       <c r="D107">
         <v>9</v>
@@ -2952,8 +2919,8 @@
       <c r="B108">
         <v>2010</v>
       </c>
-      <c r="C108" t="s">
-        <v>12</v>
+      <c r="C108">
+        <v>7</v>
       </c>
       <c r="D108">
         <v>10</v>
@@ -2978,8 +2945,8 @@
       <c r="B109">
         <v>2010</v>
       </c>
-      <c r="C109" t="s">
-        <v>12</v>
+      <c r="C109">
+        <v>7</v>
       </c>
       <c r="D109">
         <v>11</v>
@@ -3004,8 +2971,8 @@
       <c r="B110">
         <v>2010</v>
       </c>
-      <c r="C110" t="s">
-        <v>12</v>
+      <c r="C110">
+        <v>7</v>
       </c>
       <c r="D110">
         <v>12</v>
@@ -3027,8 +2994,8 @@
       <c r="B111">
         <v>2010</v>
       </c>
-      <c r="C111" t="s">
-        <v>12</v>
+      <c r="C111">
+        <v>7</v>
       </c>
       <c r="D111">
         <v>13</v>
@@ -3050,8 +3017,8 @@
       <c r="B112">
         <v>2010</v>
       </c>
-      <c r="C112" t="s">
-        <v>12</v>
+      <c r="C112">
+        <v>7</v>
       </c>
       <c r="D112">
         <v>14</v>
@@ -3076,8 +3043,8 @@
       <c r="B113">
         <v>2010</v>
       </c>
-      <c r="C113" t="s">
-        <v>12</v>
+      <c r="C113">
+        <v>7</v>
       </c>
       <c r="D113">
         <v>15</v>
@@ -3102,8 +3069,8 @@
       <c r="B114">
         <v>2010</v>
       </c>
-      <c r="C114" t="s">
-        <v>12</v>
+      <c r="C114">
+        <v>7</v>
       </c>
       <c r="D114">
         <v>16</v>
@@ -3128,8 +3095,8 @@
       <c r="B115">
         <v>2010</v>
       </c>
-      <c r="C115" t="s">
-        <v>12</v>
+      <c r="C115">
+        <v>7</v>
       </c>
       <c r="D115">
         <v>17</v>
@@ -3154,8 +3121,8 @@
       <c r="B116">
         <v>2010</v>
       </c>
-      <c r="C116" t="s">
-        <v>12</v>
+      <c r="C116">
+        <v>7</v>
       </c>
       <c r="D116">
         <v>18</v>
@@ -3180,8 +3147,8 @@
       <c r="B117">
         <v>2010</v>
       </c>
-      <c r="C117" t="s">
-        <v>12</v>
+      <c r="C117">
+        <v>7</v>
       </c>
       <c r="D117">
         <v>19</v>
@@ -3206,8 +3173,8 @@
       <c r="B118">
         <v>2010</v>
       </c>
-      <c r="C118" t="s">
-        <v>12</v>
+      <c r="C118">
+        <v>7</v>
       </c>
       <c r="D118">
         <v>20</v>
@@ -3232,8 +3199,8 @@
       <c r="B119">
         <v>2010</v>
       </c>
-      <c r="C119" t="s">
-        <v>12</v>
+      <c r="C119">
+        <v>7</v>
       </c>
       <c r="D119">
         <v>21</v>
@@ -3258,8 +3225,8 @@
       <c r="B120">
         <v>2010</v>
       </c>
-      <c r="C120" t="s">
-        <v>12</v>
+      <c r="C120">
+        <v>7</v>
       </c>
       <c r="D120">
         <v>22</v>
@@ -3284,8 +3251,8 @@
       <c r="B121">
         <v>2010</v>
       </c>
-      <c r="C121" t="s">
-        <v>12</v>
+      <c r="C121">
+        <v>7</v>
       </c>
       <c r="D121">
         <v>23</v>
@@ -3310,8 +3277,8 @@
       <c r="B122">
         <v>2010</v>
       </c>
-      <c r="C122" t="s">
-        <v>12</v>
+      <c r="C122">
+        <v>7</v>
       </c>
       <c r="D122">
         <v>24</v>
@@ -3336,8 +3303,8 @@
       <c r="B123">
         <v>2010</v>
       </c>
-      <c r="C123" t="s">
-        <v>12</v>
+      <c r="C123">
+        <v>7</v>
       </c>
       <c r="D123">
         <v>25</v>
@@ -3362,8 +3329,8 @@
       <c r="B124">
         <v>2010</v>
       </c>
-      <c r="C124" t="s">
-        <v>12</v>
+      <c r="C124">
+        <v>7</v>
       </c>
       <c r="D124">
         <v>26</v>
@@ -3388,8 +3355,8 @@
       <c r="B125">
         <v>2010</v>
       </c>
-      <c r="C125" t="s">
-        <v>12</v>
+      <c r="C125">
+        <v>7</v>
       </c>
       <c r="D125">
         <v>27</v>
@@ -3414,8 +3381,8 @@
       <c r="B126">
         <v>2010</v>
       </c>
-      <c r="C126" t="s">
-        <v>12</v>
+      <c r="C126">
+        <v>7</v>
       </c>
       <c r="D126">
         <v>28</v>
@@ -3440,8 +3407,8 @@
       <c r="B127">
         <v>2010</v>
       </c>
-      <c r="C127" t="s">
-        <v>12</v>
+      <c r="C127">
+        <v>7</v>
       </c>
       <c r="D127">
         <v>29</v>
@@ -3466,8 +3433,8 @@
       <c r="B128">
         <v>2010</v>
       </c>
-      <c r="C128" t="s">
-        <v>12</v>
+      <c r="C128">
+        <v>7</v>
       </c>
       <c r="D128">
         <v>30</v>
@@ -3492,8 +3459,8 @@
       <c r="B129">
         <v>2010</v>
       </c>
-      <c r="C129" t="s">
-        <v>12</v>
+      <c r="C129">
+        <v>7</v>
       </c>
       <c r="D129">
         <v>31</v>
@@ -3518,8 +3485,8 @@
       <c r="B130">
         <v>2010</v>
       </c>
-      <c r="C130" t="s">
-        <v>13</v>
+      <c r="C130">
+        <v>8</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -3544,8 +3511,8 @@
       <c r="B131">
         <v>2010</v>
       </c>
-      <c r="C131" t="s">
-        <v>13</v>
+      <c r="C131">
+        <v>8</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -3570,8 +3537,8 @@
       <c r="B132">
         <v>2010</v>
       </c>
-      <c r="C132" t="s">
-        <v>13</v>
+      <c r="C132">
+        <v>8</v>
       </c>
       <c r="D132">
         <v>3</v>
@@ -3596,8 +3563,8 @@
       <c r="B133">
         <v>2010</v>
       </c>
-      <c r="C133" t="s">
-        <v>13</v>
+      <c r="C133">
+        <v>8</v>
       </c>
       <c r="D133">
         <v>4</v>
@@ -3622,8 +3589,8 @@
       <c r="B134">
         <v>2010</v>
       </c>
-      <c r="C134" t="s">
-        <v>13</v>
+      <c r="C134">
+        <v>8</v>
       </c>
       <c r="D134">
         <v>5</v>
@@ -3648,8 +3615,8 @@
       <c r="B135">
         <v>2010</v>
       </c>
-      <c r="C135" t="s">
-        <v>13</v>
+      <c r="C135">
+        <v>8</v>
       </c>
       <c r="D135">
         <v>6</v>
@@ -3674,8 +3641,8 @@
       <c r="B136">
         <v>2010</v>
       </c>
-      <c r="C136" t="s">
-        <v>13</v>
+      <c r="C136">
+        <v>8</v>
       </c>
       <c r="D136">
         <v>7</v>
@@ -3700,8 +3667,8 @@
       <c r="B137">
         <v>2010</v>
       </c>
-      <c r="C137" t="s">
-        <v>13</v>
+      <c r="C137">
+        <v>8</v>
       </c>
       <c r="D137">
         <v>8</v>
@@ -3726,8 +3693,8 @@
       <c r="B138">
         <v>2010</v>
       </c>
-      <c r="C138" t="s">
-        <v>13</v>
+      <c r="C138">
+        <v>8</v>
       </c>
       <c r="D138">
         <v>9</v>
@@ -3752,8 +3719,8 @@
       <c r="B139">
         <v>2010</v>
       </c>
-      <c r="C139" t="s">
-        <v>13</v>
+      <c r="C139">
+        <v>8</v>
       </c>
       <c r="D139">
         <v>10</v>
@@ -3778,8 +3745,8 @@
       <c r="B140">
         <v>2010</v>
       </c>
-      <c r="C140" t="s">
-        <v>13</v>
+      <c r="C140">
+        <v>8</v>
       </c>
       <c r="D140">
         <v>11</v>
@@ -3804,8 +3771,8 @@
       <c r="B141">
         <v>2010</v>
       </c>
-      <c r="C141" t="s">
-        <v>13</v>
+      <c r="C141">
+        <v>8</v>
       </c>
       <c r="D141">
         <v>12</v>
@@ -3830,8 +3797,8 @@
       <c r="B142">
         <v>2010</v>
       </c>
-      <c r="C142" t="s">
-        <v>13</v>
+      <c r="C142">
+        <v>8</v>
       </c>
       <c r="D142">
         <v>13</v>
@@ -3856,8 +3823,8 @@
       <c r="B143">
         <v>2010</v>
       </c>
-      <c r="C143" t="s">
-        <v>13</v>
+      <c r="C143">
+        <v>8</v>
       </c>
       <c r="D143">
         <v>14</v>
@@ -3882,8 +3849,8 @@
       <c r="B144">
         <v>2010</v>
       </c>
-      <c r="C144" t="s">
-        <v>13</v>
+      <c r="C144">
+        <v>8</v>
       </c>
       <c r="D144">
         <v>15</v>
@@ -3908,8 +3875,8 @@
       <c r="B145">
         <v>2010</v>
       </c>
-      <c r="C145" t="s">
-        <v>13</v>
+      <c r="C145">
+        <v>8</v>
       </c>
       <c r="D145">
         <v>16</v>
@@ -3934,8 +3901,8 @@
       <c r="B146">
         <v>2010</v>
       </c>
-      <c r="C146" t="s">
-        <v>13</v>
+      <c r="C146">
+        <v>8</v>
       </c>
       <c r="D146">
         <v>17</v>
@@ -3960,8 +3927,8 @@
       <c r="B147">
         <v>2010</v>
       </c>
-      <c r="C147" t="s">
-        <v>13</v>
+      <c r="C147">
+        <v>8</v>
       </c>
       <c r="D147">
         <v>18</v>
@@ -3986,8 +3953,8 @@
       <c r="B148">
         <v>2010</v>
       </c>
-      <c r="C148" t="s">
-        <v>13</v>
+      <c r="C148">
+        <v>8</v>
       </c>
       <c r="D148">
         <v>19</v>
@@ -4012,8 +3979,8 @@
       <c r="B149">
         <v>2010</v>
       </c>
-      <c r="C149" t="s">
-        <v>13</v>
+      <c r="C149">
+        <v>8</v>
       </c>
       <c r="D149">
         <v>20</v>
@@ -4038,8 +4005,8 @@
       <c r="B150">
         <v>2010</v>
       </c>
-      <c r="C150" t="s">
-        <v>13</v>
+      <c r="C150">
+        <v>8</v>
       </c>
       <c r="D150">
         <v>21</v>
@@ -4064,8 +4031,8 @@
       <c r="B151">
         <v>2010</v>
       </c>
-      <c r="C151" t="s">
-        <v>13</v>
+      <c r="C151">
+        <v>8</v>
       </c>
       <c r="D151">
         <v>22</v>
@@ -4090,8 +4057,8 @@
       <c r="B152">
         <v>2010</v>
       </c>
-      <c r="C152" t="s">
-        <v>13</v>
+      <c r="C152">
+        <v>8</v>
       </c>
       <c r="D152">
         <v>23</v>
@@ -4116,8 +4083,8 @@
       <c r="B153">
         <v>2010</v>
       </c>
-      <c r="C153" t="s">
-        <v>13</v>
+      <c r="C153">
+        <v>8</v>
       </c>
       <c r="D153">
         <v>24</v>
@@ -4142,8 +4109,8 @@
       <c r="B154">
         <v>2010</v>
       </c>
-      <c r="C154" t="s">
-        <v>13</v>
+      <c r="C154">
+        <v>8</v>
       </c>
       <c r="D154">
         <v>25</v>
@@ -4168,8 +4135,8 @@
       <c r="B155">
         <v>2010</v>
       </c>
-      <c r="C155" t="s">
-        <v>13</v>
+      <c r="C155">
+        <v>8</v>
       </c>
       <c r="D155">
         <v>26</v>
@@ -4194,8 +4161,8 @@
       <c r="B156">
         <v>2010</v>
       </c>
-      <c r="C156" t="s">
-        <v>13</v>
+      <c r="C156">
+        <v>8</v>
       </c>
       <c r="D156">
         <v>27</v>
@@ -4220,8 +4187,8 @@
       <c r="B157">
         <v>2010</v>
       </c>
-      <c r="C157" t="s">
-        <v>13</v>
+      <c r="C157">
+        <v>8</v>
       </c>
       <c r="D157">
         <v>28</v>
@@ -4246,8 +4213,8 @@
       <c r="B158">
         <v>2010</v>
       </c>
-      <c r="C158" t="s">
-        <v>13</v>
+      <c r="C158">
+        <v>8</v>
       </c>
       <c r="D158">
         <v>29</v>
@@ -4272,8 +4239,8 @@
       <c r="B159">
         <v>2010</v>
       </c>
-      <c r="C159" t="s">
-        <v>13</v>
+      <c r="C159">
+        <v>8</v>
       </c>
       <c r="D159">
         <v>30</v>
@@ -4298,8 +4265,8 @@
       <c r="B160">
         <v>2010</v>
       </c>
-      <c r="C160" t="s">
-        <v>13</v>
+      <c r="C160">
+        <v>8</v>
       </c>
       <c r="D160">
         <v>31</v>
@@ -4324,8 +4291,8 @@
       <c r="B161">
         <v>2010</v>
       </c>
-      <c r="C161" t="s">
-        <v>14</v>
+      <c r="C161">
+        <v>9</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -4350,8 +4317,8 @@
       <c r="B162">
         <v>2010</v>
       </c>
-      <c r="C162" t="s">
-        <v>14</v>
+      <c r="C162">
+        <v>9</v>
       </c>
       <c r="D162">
         <v>2</v>
@@ -4376,8 +4343,8 @@
       <c r="B163">
         <v>2010</v>
       </c>
-      <c r="C163" t="s">
-        <v>14</v>
+      <c r="C163">
+        <v>9</v>
       </c>
       <c r="D163">
         <v>3</v>
@@ -4402,8 +4369,8 @@
       <c r="B164">
         <v>2010</v>
       </c>
-      <c r="C164" t="s">
-        <v>14</v>
+      <c r="C164">
+        <v>9</v>
       </c>
       <c r="D164">
         <v>4</v>
@@ -4428,8 +4395,8 @@
       <c r="B165">
         <v>2010</v>
       </c>
-      <c r="C165" t="s">
-        <v>14</v>
+      <c r="C165">
+        <v>9</v>
       </c>
       <c r="D165">
         <v>5</v>
@@ -4454,8 +4421,8 @@
       <c r="B166">
         <v>2010</v>
       </c>
-      <c r="C166" t="s">
-        <v>14</v>
+      <c r="C166">
+        <v>9</v>
       </c>
       <c r="D166">
         <v>6</v>
@@ -4480,8 +4447,8 @@
       <c r="B167">
         <v>2010</v>
       </c>
-      <c r="C167" t="s">
-        <v>14</v>
+      <c r="C167">
+        <v>9</v>
       </c>
       <c r="D167">
         <v>7</v>
@@ -4506,8 +4473,8 @@
       <c r="B168">
         <v>2010</v>
       </c>
-      <c r="C168" t="s">
-        <v>14</v>
+      <c r="C168">
+        <v>9</v>
       </c>
       <c r="D168">
         <v>8</v>
@@ -4532,8 +4499,8 @@
       <c r="B169">
         <v>2010</v>
       </c>
-      <c r="C169" t="s">
-        <v>14</v>
+      <c r="C169">
+        <v>9</v>
       </c>
       <c r="D169">
         <v>9</v>
@@ -4558,8 +4525,8 @@
       <c r="B170">
         <v>2010</v>
       </c>
-      <c r="C170" t="s">
-        <v>14</v>
+      <c r="C170">
+        <v>9</v>
       </c>
       <c r="D170">
         <v>10</v>
@@ -4584,8 +4551,8 @@
       <c r="B171">
         <v>2010</v>
       </c>
-      <c r="C171" t="s">
-        <v>14</v>
+      <c r="C171">
+        <v>9</v>
       </c>
       <c r="D171">
         <v>11</v>
@@ -4610,8 +4577,8 @@
       <c r="B172">
         <v>2010</v>
       </c>
-      <c r="C172" t="s">
-        <v>14</v>
+      <c r="C172">
+        <v>9</v>
       </c>
       <c r="D172">
         <v>12</v>
@@ -4636,8 +4603,8 @@
       <c r="B173">
         <v>2010</v>
       </c>
-      <c r="C173" t="s">
-        <v>14</v>
+      <c r="C173">
+        <v>9</v>
       </c>
       <c r="D173">
         <v>13</v>
@@ -4662,8 +4629,8 @@
       <c r="B174">
         <v>2010</v>
       </c>
-      <c r="C174" t="s">
-        <v>14</v>
+      <c r="C174">
+        <v>9</v>
       </c>
       <c r="D174">
         <v>14</v>
@@ -4688,8 +4655,8 @@
       <c r="B175">
         <v>2010</v>
       </c>
-      <c r="C175" t="s">
-        <v>14</v>
+      <c r="C175">
+        <v>9</v>
       </c>
       <c r="D175">
         <v>15</v>
@@ -4714,8 +4681,8 @@
       <c r="B176">
         <v>2010</v>
       </c>
-      <c r="C176" t="s">
-        <v>14</v>
+      <c r="C176">
+        <v>9</v>
       </c>
       <c r="D176">
         <v>16</v>
@@ -4740,8 +4707,8 @@
       <c r="B177">
         <v>2010</v>
       </c>
-      <c r="C177" t="s">
-        <v>14</v>
+      <c r="C177">
+        <v>9</v>
       </c>
       <c r="D177">
         <v>17</v>
@@ -4766,8 +4733,8 @@
       <c r="B178">
         <v>2010</v>
       </c>
-      <c r="C178" t="s">
-        <v>14</v>
+      <c r="C178">
+        <v>9</v>
       </c>
       <c r="D178">
         <v>18</v>
@@ -4792,8 +4759,8 @@
       <c r="B179">
         <v>2010</v>
       </c>
-      <c r="C179" t="s">
-        <v>14</v>
+      <c r="C179">
+        <v>9</v>
       </c>
       <c r="D179">
         <v>19</v>
@@ -4818,8 +4785,8 @@
       <c r="B180">
         <v>2010</v>
       </c>
-      <c r="C180" t="s">
-        <v>14</v>
+      <c r="C180">
+        <v>9</v>
       </c>
       <c r="D180">
         <v>20</v>
@@ -4844,8 +4811,8 @@
       <c r="B181">
         <v>2010</v>
       </c>
-      <c r="C181" t="s">
-        <v>14</v>
+      <c r="C181">
+        <v>9</v>
       </c>
       <c r="D181">
         <v>21</v>
@@ -4870,8 +4837,8 @@
       <c r="B182">
         <v>2010</v>
       </c>
-      <c r="C182" t="s">
-        <v>14</v>
+      <c r="C182">
+        <v>9</v>
       </c>
       <c r="D182">
         <v>22</v>
@@ -4896,8 +4863,8 @@
       <c r="B183">
         <v>2010</v>
       </c>
-      <c r="C183" t="s">
-        <v>14</v>
+      <c r="C183">
+        <v>9</v>
       </c>
       <c r="D183">
         <v>23</v>
@@ -4922,8 +4889,8 @@
       <c r="B184">
         <v>2010</v>
       </c>
-      <c r="C184" t="s">
-        <v>14</v>
+      <c r="C184">
+        <v>9</v>
       </c>
       <c r="D184">
         <v>24</v>
@@ -4945,8 +4912,8 @@
       <c r="B185">
         <v>2010</v>
       </c>
-      <c r="C185" t="s">
-        <v>14</v>
+      <c r="C185">
+        <v>9</v>
       </c>
       <c r="D185">
         <v>25</v>
@@ -4968,8 +4935,8 @@
       <c r="B186">
         <v>2010</v>
       </c>
-      <c r="C186" t="s">
-        <v>14</v>
+      <c r="C186">
+        <v>9</v>
       </c>
       <c r="D186">
         <v>26</v>
@@ -4991,8 +4958,8 @@
       <c r="B187">
         <v>2010</v>
       </c>
-      <c r="C187" t="s">
-        <v>14</v>
+      <c r="C187">
+        <v>9</v>
       </c>
       <c r="D187">
         <v>27</v>
@@ -5014,8 +4981,8 @@
       <c r="B188">
         <v>2010</v>
       </c>
-      <c r="C188" t="s">
-        <v>14</v>
+      <c r="C188">
+        <v>9</v>
       </c>
       <c r="D188">
         <v>28</v>
@@ -5040,8 +5007,8 @@
       <c r="B189">
         <v>2010</v>
       </c>
-      <c r="C189" t="s">
-        <v>14</v>
+      <c r="C189">
+        <v>9</v>
       </c>
       <c r="D189">
         <v>29</v>
@@ -5063,8 +5030,8 @@
       <c r="B190">
         <v>2010</v>
       </c>
-      <c r="C190" t="s">
-        <v>14</v>
+      <c r="C190">
+        <v>9</v>
       </c>
       <c r="D190">
         <v>30</v>
@@ -5089,8 +5056,8 @@
       <c r="B191">
         <v>2010</v>
       </c>
-      <c r="C191" t="s">
-        <v>9</v>
+      <c r="C191">
+        <v>10</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -5115,8 +5082,8 @@
       <c r="B192">
         <v>2010</v>
       </c>
-      <c r="C192" t="s">
-        <v>9</v>
+      <c r="C192">
+        <v>10</v>
       </c>
       <c r="D192">
         <v>2</v>
@@ -5141,8 +5108,8 @@
       <c r="B193">
         <v>2010</v>
       </c>
-      <c r="C193" t="s">
-        <v>9</v>
+      <c r="C193">
+        <v>10</v>
       </c>
       <c r="D193">
         <v>3</v>
@@ -5167,8 +5134,8 @@
       <c r="B194">
         <v>2010</v>
       </c>
-      <c r="C194" t="s">
-        <v>9</v>
+      <c r="C194">
+        <v>10</v>
       </c>
       <c r="D194">
         <v>4</v>
@@ -5193,8 +5160,8 @@
       <c r="B195">
         <v>2010</v>
       </c>
-      <c r="C195" t="s">
-        <v>9</v>
+      <c r="C195">
+        <v>10</v>
       </c>
       <c r="D195">
         <v>5</v>
@@ -5219,8 +5186,8 @@
       <c r="B196">
         <v>2010</v>
       </c>
-      <c r="C196" t="s">
-        <v>9</v>
+      <c r="C196">
+        <v>10</v>
       </c>
       <c r="D196">
         <v>6</v>
@@ -5245,8 +5212,8 @@
       <c r="B197">
         <v>2010</v>
       </c>
-      <c r="C197" t="s">
-        <v>9</v>
+      <c r="C197">
+        <v>10</v>
       </c>
       <c r="D197">
         <v>7</v>
@@ -5271,8 +5238,8 @@
       <c r="B198">
         <v>2010</v>
       </c>
-      <c r="C198" t="s">
-        <v>9</v>
+      <c r="C198">
+        <v>10</v>
       </c>
       <c r="D198">
         <v>8</v>
@@ -5297,8 +5264,8 @@
       <c r="B199">
         <v>2010</v>
       </c>
-      <c r="C199" t="s">
-        <v>9</v>
+      <c r="C199">
+        <v>10</v>
       </c>
       <c r="D199">
         <v>9</v>
@@ -5323,8 +5290,8 @@
       <c r="B200">
         <v>2010</v>
       </c>
-      <c r="C200" t="s">
-        <v>9</v>
+      <c r="C200">
+        <v>10</v>
       </c>
       <c r="D200">
         <v>10</v>
@@ -5349,8 +5316,8 @@
       <c r="B201">
         <v>2010</v>
       </c>
-      <c r="C201" t="s">
-        <v>9</v>
+      <c r="C201">
+        <v>10</v>
       </c>
       <c r="D201">
         <v>11</v>
@@ -5375,8 +5342,8 @@
       <c r="B202">
         <v>2010</v>
       </c>
-      <c r="C202" t="s">
-        <v>9</v>
+      <c r="C202">
+        <v>10</v>
       </c>
       <c r="D202">
         <v>12</v>
@@ -5401,8 +5368,8 @@
       <c r="B203">
         <v>2010</v>
       </c>
-      <c r="C203" t="s">
-        <v>9</v>
+      <c r="C203">
+        <v>10</v>
       </c>
       <c r="D203">
         <v>13</v>
@@ -5427,8 +5394,8 @@
       <c r="B204">
         <v>2010</v>
       </c>
-      <c r="C204" t="s">
-        <v>9</v>
+      <c r="C204">
+        <v>10</v>
       </c>
       <c r="D204">
         <v>14</v>
@@ -5453,8 +5420,8 @@
       <c r="B205">
         <v>2010</v>
       </c>
-      <c r="C205" t="s">
-        <v>9</v>
+      <c r="C205">
+        <v>10</v>
       </c>
       <c r="D205">
         <v>15</v>
@@ -5479,8 +5446,8 @@
       <c r="B206">
         <v>2010</v>
       </c>
-      <c r="C206" t="s">
-        <v>9</v>
+      <c r="C206">
+        <v>10</v>
       </c>
       <c r="D206">
         <v>16</v>
@@ -5505,8 +5472,8 @@
       <c r="B207">
         <v>2010</v>
       </c>
-      <c r="C207" t="s">
-        <v>9</v>
+      <c r="C207">
+        <v>10</v>
       </c>
       <c r="D207">
         <v>17</v>
@@ -5531,8 +5498,8 @@
       <c r="B208">
         <v>2010</v>
       </c>
-      <c r="C208" t="s">
-        <v>9</v>
+      <c r="C208">
+        <v>10</v>
       </c>
       <c r="D208">
         <v>18</v>
@@ -5557,8 +5524,8 @@
       <c r="B209">
         <v>2010</v>
       </c>
-      <c r="C209" t="s">
-        <v>9</v>
+      <c r="C209">
+        <v>10</v>
       </c>
       <c r="D209">
         <v>19</v>
@@ -5583,8 +5550,8 @@
       <c r="B210">
         <v>2010</v>
       </c>
-      <c r="C210" t="s">
-        <v>9</v>
+      <c r="C210">
+        <v>10</v>
       </c>
       <c r="D210">
         <v>20</v>
@@ -5609,8 +5576,8 @@
       <c r="B211">
         <v>2010</v>
       </c>
-      <c r="C211" t="s">
-        <v>9</v>
+      <c r="C211">
+        <v>10</v>
       </c>
       <c r="D211">
         <v>21</v>
@@ -5635,8 +5602,8 @@
       <c r="B212">
         <v>2010</v>
       </c>
-      <c r="C212" t="s">
-        <v>9</v>
+      <c r="C212">
+        <v>10</v>
       </c>
       <c r="D212">
         <v>22</v>
@@ -5661,8 +5628,8 @@
       <c r="B213">
         <v>2010</v>
       </c>
-      <c r="C213" t="s">
-        <v>9</v>
+      <c r="C213">
+        <v>10</v>
       </c>
       <c r="D213">
         <v>23</v>
@@ -5687,8 +5654,8 @@
       <c r="B214">
         <v>2010</v>
       </c>
-      <c r="C214" t="s">
-        <v>9</v>
+      <c r="C214">
+        <v>10</v>
       </c>
       <c r="D214">
         <v>24</v>
@@ -5710,8 +5677,8 @@
       <c r="B215">
         <v>2010</v>
       </c>
-      <c r="C215" t="s">
-        <v>9</v>
+      <c r="C215">
+        <v>10</v>
       </c>
       <c r="D215">
         <v>25</v>
@@ -5736,8 +5703,8 @@
       <c r="B216">
         <v>2010</v>
       </c>
-      <c r="C216" t="s">
-        <v>9</v>
+      <c r="C216">
+        <v>10</v>
       </c>
       <c r="D216">
         <v>26</v>
@@ -5762,8 +5729,8 @@
       <c r="B217">
         <v>2010</v>
       </c>
-      <c r="C217" t="s">
-        <v>9</v>
+      <c r="C217">
+        <v>10</v>
       </c>
       <c r="D217">
         <v>27</v>
@@ -5785,8 +5752,8 @@
       <c r="B218">
         <v>2010</v>
       </c>
-      <c r="C218" t="s">
-        <v>9</v>
+      <c r="C218">
+        <v>10</v>
       </c>
       <c r="D218">
         <v>28</v>
@@ -5811,8 +5778,8 @@
       <c r="B219">
         <v>2010</v>
       </c>
-      <c r="C219" t="s">
-        <v>9</v>
+      <c r="C219">
+        <v>10</v>
       </c>
       <c r="D219">
         <v>29</v>
@@ -5837,8 +5804,8 @@
       <c r="B220">
         <v>2010</v>
       </c>
-      <c r="C220" t="s">
-        <v>9</v>
+      <c r="C220">
+        <v>10</v>
       </c>
       <c r="D220">
         <v>30</v>
@@ -5863,8 +5830,8 @@
       <c r="B221">
         <v>2010</v>
       </c>
-      <c r="C221" t="s">
-        <v>9</v>
+      <c r="C221">
+        <v>10</v>
       </c>
       <c r="D221">
         <v>31</v>
@@ -5889,8 +5856,8 @@
       <c r="B222">
         <v>2010</v>
       </c>
-      <c r="C222" t="s">
-        <v>8</v>
+      <c r="C222">
+        <v>11</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -5915,8 +5882,8 @@
       <c r="B223">
         <v>2010</v>
       </c>
-      <c r="C223" t="s">
-        <v>8</v>
+      <c r="C223">
+        <v>11</v>
       </c>
       <c r="D223">
         <v>2</v>
@@ -5938,8 +5905,8 @@
       <c r="B224">
         <v>2010</v>
       </c>
-      <c r="C224" t="s">
-        <v>8</v>
+      <c r="C224">
+        <v>11</v>
       </c>
       <c r="D224">
         <v>3</v>
@@ -5961,8 +5928,8 @@
       <c r="B225">
         <v>2010</v>
       </c>
-      <c r="C225" t="s">
-        <v>8</v>
+      <c r="C225">
+        <v>11</v>
       </c>
       <c r="D225">
         <v>4</v>
@@ -5987,8 +5954,8 @@
       <c r="B226">
         <v>2010</v>
       </c>
-      <c r="C226" t="s">
-        <v>8</v>
+      <c r="C226">
+        <v>11</v>
       </c>
       <c r="D226">
         <v>5</v>
@@ -6013,8 +5980,8 @@
       <c r="B227">
         <v>2010</v>
       </c>
-      <c r="C227" t="s">
-        <v>8</v>
+      <c r="C227">
+        <v>11</v>
       </c>
       <c r="D227">
         <v>6</v>
@@ -6039,8 +6006,8 @@
       <c r="B228">
         <v>2010</v>
       </c>
-      <c r="C228" t="s">
-        <v>8</v>
+      <c r="C228">
+        <v>11</v>
       </c>
       <c r="D228">
         <v>7</v>
@@ -6065,8 +6032,8 @@
       <c r="B229">
         <v>2010</v>
       </c>
-      <c r="C229" t="s">
-        <v>8</v>
+      <c r="C229">
+        <v>11</v>
       </c>
       <c r="D229">
         <v>8</v>
@@ -6091,8 +6058,8 @@
       <c r="B230">
         <v>2010</v>
       </c>
-      <c r="C230" t="s">
-        <v>8</v>
+      <c r="C230">
+        <v>11</v>
       </c>
       <c r="D230">
         <v>9</v>
@@ -6114,8 +6081,8 @@
       <c r="B231">
         <v>2010</v>
       </c>
-      <c r="C231" t="s">
-        <v>8</v>
+      <c r="C231">
+        <v>11</v>
       </c>
       <c r="D231">
         <v>10</v>
@@ -6140,8 +6107,8 @@
       <c r="B232">
         <v>2010</v>
       </c>
-      <c r="C232" t="s">
-        <v>8</v>
+      <c r="C232">
+        <v>11</v>
       </c>
       <c r="D232">
         <v>11</v>
@@ -6163,8 +6130,8 @@
       <c r="B233">
         <v>2010</v>
       </c>
-      <c r="C233" t="s">
-        <v>8</v>
+      <c r="C233">
+        <v>11</v>
       </c>
       <c r="D233">
         <v>12</v>
@@ -6186,8 +6153,8 @@
       <c r="B234">
         <v>2010</v>
       </c>
-      <c r="C234" t="s">
-        <v>8</v>
+      <c r="C234">
+        <v>11</v>
       </c>
       <c r="D234">
         <v>13</v>
@@ -6209,8 +6176,8 @@
       <c r="B235">
         <v>2010</v>
       </c>
-      <c r="C235" t="s">
-        <v>8</v>
+      <c r="C235">
+        <v>11</v>
       </c>
       <c r="D235">
         <v>14</v>
@@ -6235,8 +6202,8 @@
       <c r="B236">
         <v>2010</v>
       </c>
-      <c r="C236" t="s">
-        <v>8</v>
+      <c r="C236">
+        <v>11</v>
       </c>
       <c r="D236">
         <v>15</v>
@@ -6261,8 +6228,8 @@
       <c r="B237">
         <v>2010</v>
       </c>
-      <c r="C237" t="s">
-        <v>8</v>
+      <c r="C237">
+        <v>11</v>
       </c>
       <c r="D237">
         <v>16</v>
@@ -6284,8 +6251,8 @@
       <c r="B238">
         <v>2010</v>
       </c>
-      <c r="C238" t="s">
-        <v>8</v>
+      <c r="C238">
+        <v>11</v>
       </c>
       <c r="D238">
         <v>17</v>
@@ -6304,8 +6271,8 @@
       <c r="B239">
         <v>2010</v>
       </c>
-      <c r="C239" t="s">
-        <v>8</v>
+      <c r="C239">
+        <v>11</v>
       </c>
       <c r="D239">
         <v>18</v>
@@ -6327,8 +6294,8 @@
       <c r="B240">
         <v>2010</v>
       </c>
-      <c r="C240" t="s">
-        <v>8</v>
+      <c r="C240">
+        <v>11</v>
       </c>
       <c r="D240">
         <v>19</v>
@@ -6350,8 +6317,8 @@
       <c r="B241">
         <v>2010</v>
       </c>
-      <c r="C241" t="s">
-        <v>8</v>
+      <c r="C241">
+        <v>11</v>
       </c>
       <c r="D241">
         <v>20</v>
@@ -6376,8 +6343,8 @@
       <c r="B242">
         <v>2010</v>
       </c>
-      <c r="C242" t="s">
-        <v>8</v>
+      <c r="C242">
+        <v>11</v>
       </c>
       <c r="D242">
         <v>21</v>
@@ -6399,8 +6366,8 @@
       <c r="B243">
         <v>2010</v>
       </c>
-      <c r="C243" t="s">
-        <v>8</v>
+      <c r="C243">
+        <v>11</v>
       </c>
       <c r="D243">
         <v>22</v>
@@ -6425,8 +6392,8 @@
       <c r="B244">
         <v>2010</v>
       </c>
-      <c r="C244" t="s">
-        <v>8</v>
+      <c r="C244">
+        <v>11</v>
       </c>
       <c r="D244">
         <v>23</v>
@@ -6448,8 +6415,8 @@
       <c r="B245">
         <v>2010</v>
       </c>
-      <c r="C245" t="s">
-        <v>8</v>
+      <c r="C245">
+        <v>11</v>
       </c>
       <c r="D245">
         <v>24</v>
@@ -6474,8 +6441,8 @@
       <c r="B246">
         <v>2010</v>
       </c>
-      <c r="C246" t="s">
-        <v>8</v>
+      <c r="C246">
+        <v>11</v>
       </c>
       <c r="D246">
         <v>25</v>
@@ -6500,8 +6467,8 @@
       <c r="B247">
         <v>2010</v>
       </c>
-      <c r="C247" t="s">
-        <v>8</v>
+      <c r="C247">
+        <v>11</v>
       </c>
       <c r="D247">
         <v>26</v>
@@ -6523,8 +6490,8 @@
       <c r="B248">
         <v>2010</v>
       </c>
-      <c r="C248" t="s">
-        <v>8</v>
+      <c r="C248">
+        <v>11</v>
       </c>
       <c r="D248">
         <v>27</v>
@@ -6546,8 +6513,8 @@
       <c r="B249">
         <v>2010</v>
       </c>
-      <c r="C249" t="s">
-        <v>8</v>
+      <c r="C249">
+        <v>11</v>
       </c>
       <c r="D249">
         <v>28</v>
@@ -6569,8 +6536,8 @@
       <c r="B250">
         <v>2010</v>
       </c>
-      <c r="C250" t="s">
-        <v>8</v>
+      <c r="C250">
+        <v>11</v>
       </c>
       <c r="D250">
         <v>29</v>
@@ -6589,8 +6556,8 @@
       <c r="B251">
         <v>2010</v>
       </c>
-      <c r="C251" t="s">
-        <v>8</v>
+      <c r="C251">
+        <v>11</v>
       </c>
       <c r="D251">
         <v>30</v>
@@ -6612,8 +6579,8 @@
       <c r="B252">
         <v>2010</v>
       </c>
-      <c r="C252" t="s">
-        <v>10</v>
+      <c r="C252">
+        <v>12</v>
       </c>
       <c r="D252">
         <v>1</v>
@@ -6635,8 +6602,8 @@
       <c r="B253">
         <v>2010</v>
       </c>
-      <c r="C253" t="s">
-        <v>10</v>
+      <c r="C253">
+        <v>12</v>
       </c>
       <c r="D253">
         <v>2</v>
@@ -6658,8 +6625,8 @@
       <c r="B254">
         <v>2010</v>
       </c>
-      <c r="C254" t="s">
-        <v>10</v>
+      <c r="C254">
+        <v>12</v>
       </c>
       <c r="D254">
         <v>3</v>
@@ -6684,8 +6651,8 @@
       <c r="B255">
         <v>2010</v>
       </c>
-      <c r="C255" t="s">
-        <v>10</v>
+      <c r="C255">
+        <v>12</v>
       </c>
       <c r="D255">
         <v>4</v>
@@ -6710,8 +6677,8 @@
       <c r="B256">
         <v>2010</v>
       </c>
-      <c r="C256" t="s">
-        <v>10</v>
+      <c r="C256">
+        <v>12</v>
       </c>
       <c r="D256">
         <v>5</v>
@@ -6736,8 +6703,8 @@
       <c r="B257">
         <v>2010</v>
       </c>
-      <c r="C257" t="s">
-        <v>10</v>
+      <c r="C257">
+        <v>12</v>
       </c>
       <c r="D257">
         <v>6</v>
@@ -6762,8 +6729,8 @@
       <c r="B258">
         <v>2010</v>
       </c>
-      <c r="C258" t="s">
-        <v>10</v>
+      <c r="C258">
+        <v>12</v>
       </c>
       <c r="D258">
         <v>7</v>
@@ -6788,8 +6755,8 @@
       <c r="B259">
         <v>2010</v>
       </c>
-      <c r="C259" t="s">
-        <v>10</v>
+      <c r="C259">
+        <v>12</v>
       </c>
       <c r="D259">
         <v>8</v>
@@ -6811,8 +6778,8 @@
       <c r="B260">
         <v>2010</v>
       </c>
-      <c r="C260" t="s">
-        <v>10</v>
+      <c r="C260">
+        <v>12</v>
       </c>
       <c r="D260">
         <v>9</v>
@@ -6837,8 +6804,8 @@
       <c r="B261">
         <v>2010</v>
       </c>
-      <c r="C261" t="s">
-        <v>10</v>
+      <c r="C261">
+        <v>12</v>
       </c>
       <c r="D261">
         <v>10</v>
@@ -6863,8 +6830,8 @@
       <c r="B262">
         <v>2010</v>
       </c>
-      <c r="C262" t="s">
-        <v>10</v>
+      <c r="C262">
+        <v>12</v>
       </c>
       <c r="D262">
         <v>11</v>
@@ -6886,8 +6853,8 @@
       <c r="B263">
         <v>2010</v>
       </c>
-      <c r="C263" t="s">
-        <v>10</v>
+      <c r="C263">
+        <v>12</v>
       </c>
       <c r="D263">
         <v>12</v>
@@ -6912,8 +6879,8 @@
       <c r="B264">
         <v>2010</v>
       </c>
-      <c r="C264" t="s">
-        <v>10</v>
+      <c r="C264">
+        <v>12</v>
       </c>
       <c r="D264">
         <v>13</v>
@@ -6935,8 +6902,8 @@
       <c r="B265">
         <v>2010</v>
       </c>
-      <c r="C265" t="s">
-        <v>10</v>
+      <c r="C265">
+        <v>12</v>
       </c>
       <c r="D265">
         <v>14</v>
@@ -6955,8 +6922,8 @@
       <c r="B266">
         <v>2010</v>
       </c>
-      <c r="C266" t="s">
-        <v>10</v>
+      <c r="C266">
+        <v>12</v>
       </c>
       <c r="D266">
         <v>15</v>
@@ -6978,8 +6945,8 @@
       <c r="B267">
         <v>2010</v>
       </c>
-      <c r="C267" t="s">
-        <v>10</v>
+      <c r="C267">
+        <v>12</v>
       </c>
       <c r="D267">
         <v>16</v>
@@ -7001,8 +6968,8 @@
       <c r="B268">
         <v>2010</v>
       </c>
-      <c r="C268" t="s">
-        <v>10</v>
+      <c r="C268">
+        <v>12</v>
       </c>
       <c r="D268">
         <v>17</v>
@@ -7021,8 +6988,8 @@
       <c r="B269">
         <v>2010</v>
       </c>
-      <c r="C269" t="s">
-        <v>10</v>
+      <c r="C269">
+        <v>12</v>
       </c>
       <c r="D269">
         <v>18</v>
@@ -7041,8 +7008,8 @@
       <c r="B270">
         <v>2010</v>
       </c>
-      <c r="C270" t="s">
-        <v>10</v>
+      <c r="C270">
+        <v>12</v>
       </c>
       <c r="D270">
         <v>19</v>
@@ -7061,8 +7028,8 @@
       <c r="B271">
         <v>2010</v>
       </c>
-      <c r="C271" t="s">
-        <v>10</v>
+      <c r="C271">
+        <v>12</v>
       </c>
       <c r="D271">
         <v>20</v>
@@ -7084,8 +7051,8 @@
       <c r="B272">
         <v>2010</v>
       </c>
-      <c r="C272" t="s">
-        <v>10</v>
+      <c r="C272">
+        <v>12</v>
       </c>
       <c r="D272">
         <v>21</v>
@@ -7104,8 +7071,8 @@
       <c r="B273">
         <v>2010</v>
       </c>
-      <c r="C273" t="s">
-        <v>10</v>
+      <c r="C273">
+        <v>12</v>
       </c>
       <c r="D273">
         <v>22</v>
@@ -7124,8 +7091,8 @@
       <c r="B274">
         <v>2010</v>
       </c>
-      <c r="C274" t="s">
-        <v>10</v>
+      <c r="C274">
+        <v>12</v>
       </c>
       <c r="D274">
         <v>23</v>
@@ -7147,8 +7114,8 @@
       <c r="B275">
         <v>2010</v>
       </c>
-      <c r="C275" t="s">
-        <v>10</v>
+      <c r="C275">
+        <v>12</v>
       </c>
       <c r="D275">
         <v>24</v>
@@ -7173,8 +7140,8 @@
       <c r="B276">
         <v>2010</v>
       </c>
-      <c r="C276" t="s">
-        <v>10</v>
+      <c r="C276">
+        <v>12</v>
       </c>
       <c r="D276">
         <v>25</v>
@@ -7196,8 +7163,8 @@
       <c r="B277">
         <v>2010</v>
       </c>
-      <c r="C277" t="s">
-        <v>10</v>
+      <c r="C277">
+        <v>12</v>
       </c>
       <c r="D277">
         <v>26</v>
@@ -7222,8 +7189,8 @@
       <c r="B278">
         <v>2010</v>
       </c>
-      <c r="C278" t="s">
-        <v>10</v>
+      <c r="C278">
+        <v>12</v>
       </c>
       <c r="D278">
         <v>27</v>
@@ -7245,8 +7212,8 @@
       <c r="B279">
         <v>2010</v>
       </c>
-      <c r="C279" t="s">
-        <v>10</v>
+      <c r="C279">
+        <v>12</v>
       </c>
       <c r="D279">
         <v>28</v>
@@ -7268,8 +7235,8 @@
       <c r="B280">
         <v>2010</v>
       </c>
-      <c r="C280" t="s">
-        <v>10</v>
+      <c r="C280">
+        <v>12</v>
       </c>
       <c r="D280">
         <v>29</v>
@@ -7291,8 +7258,8 @@
       <c r="B281">
         <v>2010</v>
       </c>
-      <c r="C281" t="s">
-        <v>10</v>
+      <c r="C281">
+        <v>12</v>
       </c>
       <c r="D281">
         <v>30</v>
@@ -7314,8 +7281,8 @@
       <c r="B282">
         <v>2010</v>
       </c>
-      <c r="C282" t="s">
-        <v>10</v>
+      <c r="C282">
+        <v>12</v>
       </c>
       <c r="D282">
         <v>31</v>
@@ -7337,8 +7304,8 @@
       <c r="B283">
         <v>2011</v>
       </c>
-      <c r="C283" t="s">
-        <v>11</v>
+      <c r="C283">
+        <v>1</v>
       </c>
       <c r="D283">
         <v>1</v>
@@ -7360,8 +7327,8 @@
       <c r="B284">
         <v>2011</v>
       </c>
-      <c r="C284" t="s">
-        <v>11</v>
+      <c r="C284">
+        <v>1</v>
       </c>
       <c r="D284">
         <v>2</v>
@@ -7383,8 +7350,8 @@
       <c r="B285">
         <v>2011</v>
       </c>
-      <c r="C285" t="s">
-        <v>11</v>
+      <c r="C285">
+        <v>1</v>
       </c>
       <c r="D285">
         <v>3</v>
@@ -7406,8 +7373,8 @@
       <c r="B286">
         <v>2011</v>
       </c>
-      <c r="C286" t="s">
-        <v>11</v>
+      <c r="C286">
+        <v>1</v>
       </c>
       <c r="D286">
         <v>4</v>
@@ -7429,8 +7396,8 @@
       <c r="B287">
         <v>2011</v>
       </c>
-      <c r="C287" t="s">
-        <v>11</v>
+      <c r="C287">
+        <v>1</v>
       </c>
       <c r="D287">
         <v>5</v>
@@ -7452,8 +7419,8 @@
       <c r="B288">
         <v>2011</v>
       </c>
-      <c r="C288" t="s">
-        <v>11</v>
+      <c r="C288">
+        <v>1</v>
       </c>
       <c r="D288">
         <v>6</v>
@@ -7478,8 +7445,8 @@
       <c r="B289">
         <v>2011</v>
       </c>
-      <c r="C289" t="s">
-        <v>11</v>
+      <c r="C289">
+        <v>1</v>
       </c>
       <c r="D289">
         <v>7</v>
@@ -7504,8 +7471,8 @@
       <c r="B290">
         <v>2011</v>
       </c>
-      <c r="C290" t="s">
-        <v>11</v>
+      <c r="C290">
+        <v>1</v>
       </c>
       <c r="D290">
         <v>8</v>
@@ -7530,8 +7497,8 @@
       <c r="B291">
         <v>2011</v>
       </c>
-      <c r="C291" t="s">
-        <v>11</v>
+      <c r="C291">
+        <v>1</v>
       </c>
       <c r="D291">
         <v>9</v>
@@ -7556,8 +7523,8 @@
       <c r="B292">
         <v>2011</v>
       </c>
-      <c r="C292" t="s">
-        <v>11</v>
+      <c r="C292">
+        <v>1</v>
       </c>
       <c r="D292">
         <v>10</v>
@@ -7582,8 +7549,8 @@
       <c r="B293">
         <v>2011</v>
       </c>
-      <c r="C293" t="s">
-        <v>11</v>
+      <c r="C293">
+        <v>1</v>
       </c>
       <c r="D293">
         <v>11</v>
@@ -7608,8 +7575,8 @@
       <c r="B294">
         <v>2011</v>
       </c>
-      <c r="C294" t="s">
-        <v>11</v>
+      <c r="C294">
+        <v>1</v>
       </c>
       <c r="D294">
         <v>12</v>
@@ -7631,8 +7598,8 @@
       <c r="B295">
         <v>2011</v>
       </c>
-      <c r="C295" t="s">
-        <v>11</v>
+      <c r="C295">
+        <v>1</v>
       </c>
       <c r="D295">
         <v>13</v>
@@ -7654,8 +7621,8 @@
       <c r="B296">
         <v>2011</v>
       </c>
-      <c r="C296" t="s">
-        <v>11</v>
+      <c r="C296">
+        <v>1</v>
       </c>
       <c r="D296">
         <v>14</v>
@@ -7674,8 +7641,8 @@
       <c r="B297">
         <v>2011</v>
       </c>
-      <c r="C297" t="s">
-        <v>11</v>
+      <c r="C297">
+        <v>1</v>
       </c>
       <c r="D297">
         <v>15</v>
@@ -7694,8 +7661,8 @@
       <c r="B298">
         <v>2011</v>
       </c>
-      <c r="C298" t="s">
-        <v>11</v>
+      <c r="C298">
+        <v>1</v>
       </c>
       <c r="D298">
         <v>16</v>
@@ -7720,8 +7687,8 @@
       <c r="B299">
         <v>2011</v>
       </c>
-      <c r="C299" t="s">
-        <v>11</v>
+      <c r="C299">
+        <v>1</v>
       </c>
       <c r="D299">
         <v>17</v>
@@ -7740,8 +7707,8 @@
       <c r="B300">
         <v>2011</v>
       </c>
-      <c r="C300" t="s">
-        <v>11</v>
+      <c r="C300">
+        <v>1</v>
       </c>
       <c r="D300">
         <v>18</v>
@@ -7760,8 +7727,8 @@
       <c r="B301">
         <v>2011</v>
       </c>
-      <c r="C301" t="s">
-        <v>11</v>
+      <c r="C301">
+        <v>1</v>
       </c>
       <c r="D301">
         <v>19</v>
@@ -7780,8 +7747,8 @@
       <c r="B302">
         <v>2011</v>
       </c>
-      <c r="C302" t="s">
-        <v>11</v>
+      <c r="C302">
+        <v>1</v>
       </c>
       <c r="D302">
         <v>20</v>
@@ -7800,8 +7767,8 @@
       <c r="B303">
         <v>2011</v>
       </c>
-      <c r="C303" t="s">
-        <v>11</v>
+      <c r="C303">
+        <v>1</v>
       </c>
       <c r="D303">
         <v>21</v>
@@ -7820,8 +7787,8 @@
       <c r="B304">
         <v>2011</v>
       </c>
-      <c r="C304" t="s">
-        <v>11</v>
+      <c r="C304">
+        <v>1</v>
       </c>
       <c r="D304">
         <v>22</v>
@@ -7840,8 +7807,8 @@
       <c r="B305">
         <v>2011</v>
       </c>
-      <c r="C305" t="s">
-        <v>11</v>
+      <c r="C305">
+        <v>1</v>
       </c>
       <c r="D305">
         <v>23</v>
@@ -7860,8 +7827,8 @@
       <c r="B306">
         <v>2011</v>
       </c>
-      <c r="C306" t="s">
-        <v>11</v>
+      <c r="C306">
+        <v>1</v>
       </c>
       <c r="D306">
         <v>24</v>
@@ -7880,8 +7847,8 @@
       <c r="B307">
         <v>2011</v>
       </c>
-      <c r="C307" t="s">
-        <v>11</v>
+      <c r="C307">
+        <v>1</v>
       </c>
       <c r="D307">
         <v>25</v>
@@ -7900,8 +7867,8 @@
       <c r="B308">
         <v>2011</v>
       </c>
-      <c r="C308" t="s">
-        <v>11</v>
+      <c r="C308">
+        <v>1</v>
       </c>
       <c r="D308">
         <v>26</v>
@@ -7920,8 +7887,8 @@
       <c r="B309">
         <v>2011</v>
       </c>
-      <c r="C309" t="s">
-        <v>11</v>
+      <c r="C309">
+        <v>1</v>
       </c>
       <c r="D309">
         <v>27</v>
@@ -7943,8 +7910,8 @@
       <c r="B310">
         <v>2011</v>
       </c>
-      <c r="C310" t="s">
-        <v>15</v>
+      <c r="C310">
+        <v>6</v>
       </c>
       <c r="D310">
         <v>6</v>
@@ -7969,8 +7936,8 @@
       <c r="B311">
         <v>2011</v>
       </c>
-      <c r="C311" t="s">
-        <v>15</v>
+      <c r="C311">
+        <v>6</v>
       </c>
       <c r="D311">
         <v>7</v>
@@ -7995,8 +7962,8 @@
       <c r="B312">
         <v>2011</v>
       </c>
-      <c r="C312" t="s">
-        <v>15</v>
+      <c r="C312">
+        <v>6</v>
       </c>
       <c r="D312">
         <v>8</v>
@@ -8021,8 +7988,8 @@
       <c r="B313">
         <v>2011</v>
       </c>
-      <c r="C313" t="s">
-        <v>15</v>
+      <c r="C313">
+        <v>6</v>
       </c>
       <c r="D313">
         <v>9</v>
@@ -8047,8 +8014,8 @@
       <c r="B314">
         <v>2011</v>
       </c>
-      <c r="C314" t="s">
-        <v>15</v>
+      <c r="C314">
+        <v>6</v>
       </c>
       <c r="D314">
         <v>10</v>
@@ -8073,8 +8040,8 @@
       <c r="B315">
         <v>2011</v>
       </c>
-      <c r="C315" t="s">
-        <v>15</v>
+      <c r="C315">
+        <v>6</v>
       </c>
       <c r="D315">
         <v>11</v>
@@ -8099,8 +8066,8 @@
       <c r="B316">
         <v>2011</v>
       </c>
-      <c r="C316" t="s">
-        <v>15</v>
+      <c r="C316">
+        <v>6</v>
       </c>
       <c r="D316">
         <v>12</v>
@@ -8125,8 +8092,8 @@
       <c r="B317">
         <v>2011</v>
       </c>
-      <c r="C317" t="s">
-        <v>15</v>
+      <c r="C317">
+        <v>6</v>
       </c>
       <c r="D317">
         <v>13</v>
@@ -8151,8 +8118,8 @@
       <c r="B318">
         <v>2011</v>
       </c>
-      <c r="C318" t="s">
-        <v>15</v>
+      <c r="C318">
+        <v>6</v>
       </c>
       <c r="D318">
         <v>14</v>
@@ -8177,8 +8144,8 @@
       <c r="B319">
         <v>2011</v>
       </c>
-      <c r="C319" t="s">
-        <v>15</v>
+      <c r="C319">
+        <v>6</v>
       </c>
       <c r="D319">
         <v>15</v>
@@ -8203,8 +8170,8 @@
       <c r="B320">
         <v>2011</v>
       </c>
-      <c r="C320" t="s">
-        <v>15</v>
+      <c r="C320">
+        <v>6</v>
       </c>
       <c r="D320">
         <v>16</v>
@@ -8229,8 +8196,8 @@
       <c r="B321">
         <v>2011</v>
       </c>
-      <c r="C321" t="s">
-        <v>15</v>
+      <c r="C321">
+        <v>6</v>
       </c>
       <c r="D321">
         <v>17</v>
@@ -8255,8 +8222,8 @@
       <c r="B322">
         <v>2011</v>
       </c>
-      <c r="C322" t="s">
-        <v>15</v>
+      <c r="C322">
+        <v>6</v>
       </c>
       <c r="D322">
         <v>18</v>
@@ -8281,8 +8248,8 @@
       <c r="B323">
         <v>2011</v>
       </c>
-      <c r="C323" t="s">
-        <v>15</v>
+      <c r="C323">
+        <v>6</v>
       </c>
       <c r="D323">
         <v>19</v>
@@ -8307,8 +8274,8 @@
       <c r="B324">
         <v>2011</v>
       </c>
-      <c r="C324" t="s">
-        <v>15</v>
+      <c r="C324">
+        <v>6</v>
       </c>
       <c r="D324">
         <v>20</v>
@@ -8333,8 +8300,8 @@
       <c r="B325">
         <v>2011</v>
       </c>
-      <c r="C325" t="s">
-        <v>15</v>
+      <c r="C325">
+        <v>6</v>
       </c>
       <c r="D325">
         <v>21</v>
@@ -8359,8 +8326,8 @@
       <c r="B326">
         <v>2011</v>
       </c>
-      <c r="C326" t="s">
-        <v>15</v>
+      <c r="C326">
+        <v>6</v>
       </c>
       <c r="D326">
         <v>22</v>
@@ -8385,8 +8352,8 @@
       <c r="B327">
         <v>2011</v>
       </c>
-      <c r="C327" t="s">
-        <v>15</v>
+      <c r="C327">
+        <v>6</v>
       </c>
       <c r="D327">
         <v>23</v>
@@ -8411,8 +8378,8 @@
       <c r="B328">
         <v>2011</v>
       </c>
-      <c r="C328" t="s">
-        <v>15</v>
+      <c r="C328">
+        <v>6</v>
       </c>
       <c r="D328">
         <v>24</v>
@@ -8437,8 +8404,8 @@
       <c r="B329">
         <v>2011</v>
       </c>
-      <c r="C329" t="s">
-        <v>15</v>
+      <c r="C329">
+        <v>6</v>
       </c>
       <c r="D329">
         <v>25</v>
@@ -8463,8 +8430,8 @@
       <c r="B330">
         <v>2011</v>
       </c>
-      <c r="C330" t="s">
-        <v>15</v>
+      <c r="C330">
+        <v>6</v>
       </c>
       <c r="D330">
         <v>26</v>
@@ -8489,8 +8456,8 @@
       <c r="B331">
         <v>2011</v>
       </c>
-      <c r="C331" t="s">
-        <v>15</v>
+      <c r="C331">
+        <v>6</v>
       </c>
       <c r="D331">
         <v>27</v>
@@ -8515,8 +8482,8 @@
       <c r="B332">
         <v>2011</v>
       </c>
-      <c r="C332" t="s">
-        <v>15</v>
+      <c r="C332">
+        <v>6</v>
       </c>
       <c r="D332">
         <v>28</v>
@@ -8541,8 +8508,8 @@
       <c r="B333">
         <v>2011</v>
       </c>
-      <c r="C333" t="s">
-        <v>15</v>
+      <c r="C333">
+        <v>6</v>
       </c>
       <c r="D333">
         <v>29</v>
@@ -8567,8 +8534,8 @@
       <c r="B334">
         <v>2011</v>
       </c>
-      <c r="C334" t="s">
-        <v>15</v>
+      <c r="C334">
+        <v>6</v>
       </c>
       <c r="D334">
         <v>30</v>
@@ -8593,8 +8560,8 @@
       <c r="B335">
         <v>2011</v>
       </c>
-      <c r="C335" t="s">
-        <v>12</v>
+      <c r="C335">
+        <v>7</v>
       </c>
       <c r="D335">
         <v>1</v>
@@ -8619,8 +8586,8 @@
       <c r="B336">
         <v>2011</v>
       </c>
-      <c r="C336" t="s">
-        <v>12</v>
+      <c r="C336">
+        <v>7</v>
       </c>
       <c r="D336">
         <v>2</v>
@@ -8645,8 +8612,8 @@
       <c r="B337">
         <v>2011</v>
       </c>
-      <c r="C337" t="s">
-        <v>12</v>
+      <c r="C337">
+        <v>7</v>
       </c>
       <c r="D337">
         <v>3</v>
@@ -8671,8 +8638,8 @@
       <c r="B338">
         <v>2011</v>
       </c>
-      <c r="C338" t="s">
-        <v>12</v>
+      <c r="C338">
+        <v>7</v>
       </c>
       <c r="D338">
         <v>4</v>
@@ -8697,8 +8664,8 @@
       <c r="B339">
         <v>2011</v>
       </c>
-      <c r="C339" t="s">
-        <v>12</v>
+      <c r="C339">
+        <v>7</v>
       </c>
       <c r="D339">
         <v>5</v>
@@ -8723,8 +8690,8 @@
       <c r="B340">
         <v>2011</v>
       </c>
-      <c r="C340" t="s">
-        <v>12</v>
+      <c r="C340">
+        <v>7</v>
       </c>
       <c r="D340">
         <v>6</v>
@@ -8749,8 +8716,8 @@
       <c r="B341">
         <v>2011</v>
       </c>
-      <c r="C341" t="s">
-        <v>12</v>
+      <c r="C341">
+        <v>7</v>
       </c>
       <c r="D341">
         <v>7</v>
@@ -8772,8 +8739,8 @@
       <c r="B342">
         <v>2011</v>
       </c>
-      <c r="C342" t="s">
-        <v>12</v>
+      <c r="C342">
+        <v>7</v>
       </c>
       <c r="D342">
         <v>8</v>
@@ -8795,8 +8762,8 @@
       <c r="B343">
         <v>2011</v>
       </c>
-      <c r="C343" t="s">
-        <v>12</v>
+      <c r="C343">
+        <v>7</v>
       </c>
       <c r="D343">
         <v>9</v>
@@ -8821,8 +8788,8 @@
       <c r="B344">
         <v>2011</v>
       </c>
-      <c r="C344" t="s">
-        <v>12</v>
+      <c r="C344">
+        <v>7</v>
       </c>
       <c r="D344">
         <v>10</v>
@@ -8847,8 +8814,8 @@
       <c r="B345">
         <v>2011</v>
       </c>
-      <c r="C345" t="s">
-        <v>12</v>
+      <c r="C345">
+        <v>7</v>
       </c>
       <c r="D345">
         <v>11</v>
@@ -8873,8 +8840,8 @@
       <c r="B346">
         <v>2011</v>
       </c>
-      <c r="C346" t="s">
-        <v>12</v>
+      <c r="C346">
+        <v>7</v>
       </c>
       <c r="D346">
         <v>12</v>
@@ -8899,8 +8866,8 @@
       <c r="B347">
         <v>2011</v>
       </c>
-      <c r="C347" t="s">
-        <v>12</v>
+      <c r="C347">
+        <v>7</v>
       </c>
       <c r="D347">
         <v>13</v>
@@ -8925,8 +8892,8 @@
       <c r="B348">
         <v>2011</v>
       </c>
-      <c r="C348" t="s">
-        <v>12</v>
+      <c r="C348">
+        <v>7</v>
       </c>
       <c r="D348">
         <v>14</v>
@@ -8951,8 +8918,8 @@
       <c r="B349">
         <v>2011</v>
       </c>
-      <c r="C349" t="s">
-        <v>12</v>
+      <c r="C349">
+        <v>7</v>
       </c>
       <c r="D349">
         <v>15</v>
@@ -8977,8 +8944,8 @@
       <c r="B350">
         <v>2011</v>
       </c>
-      <c r="C350" t="s">
-        <v>12</v>
+      <c r="C350">
+        <v>7</v>
       </c>
       <c r="D350">
         <v>16</v>
@@ -9003,8 +8970,8 @@
       <c r="B351">
         <v>2011</v>
       </c>
-      <c r="C351" t="s">
-        <v>12</v>
+      <c r="C351">
+        <v>7</v>
       </c>
       <c r="D351">
         <v>17</v>
@@ -9026,8 +8993,8 @@
       <c r="B352">
         <v>2011</v>
       </c>
-      <c r="C352" t="s">
-        <v>12</v>
+      <c r="C352">
+        <v>7</v>
       </c>
       <c r="D352">
         <v>18</v>
@@ -9049,8 +9016,8 @@
       <c r="B353">
         <v>2011</v>
       </c>
-      <c r="C353" t="s">
-        <v>12</v>
+      <c r="C353">
+        <v>7</v>
       </c>
       <c r="D353">
         <v>19</v>
@@ -9072,8 +9039,8 @@
       <c r="B354">
         <v>2011</v>
       </c>
-      <c r="C354" t="s">
-        <v>12</v>
+      <c r="C354">
+        <v>7</v>
       </c>
       <c r="D354">
         <v>20</v>
@@ -9098,8 +9065,8 @@
       <c r="B355">
         <v>2011</v>
       </c>
-      <c r="C355" t="s">
-        <v>12</v>
+      <c r="C355">
+        <v>7</v>
       </c>
       <c r="D355">
         <v>21</v>
@@ -9124,8 +9091,8 @@
       <c r="B356">
         <v>2011</v>
       </c>
-      <c r="C356" t="s">
-        <v>12</v>
+      <c r="C356">
+        <v>7</v>
       </c>
       <c r="D356">
         <v>22</v>
@@ -9150,8 +9117,8 @@
       <c r="B357">
         <v>2011</v>
       </c>
-      <c r="C357" t="s">
-        <v>12</v>
+      <c r="C357">
+        <v>7</v>
       </c>
       <c r="D357">
         <v>23</v>
@@ -9176,8 +9143,8 @@
       <c r="B358">
         <v>2011</v>
       </c>
-      <c r="C358" t="s">
-        <v>12</v>
+      <c r="C358">
+        <v>7</v>
       </c>
       <c r="D358">
         <v>24</v>
@@ -9202,8 +9169,8 @@
       <c r="B359">
         <v>2011</v>
       </c>
-      <c r="C359" t="s">
-        <v>12</v>
+      <c r="C359">
+        <v>7</v>
       </c>
       <c r="D359">
         <v>25</v>
@@ -9228,8 +9195,8 @@
       <c r="B360">
         <v>2011</v>
       </c>
-      <c r="C360" t="s">
-        <v>12</v>
+      <c r="C360">
+        <v>7</v>
       </c>
       <c r="D360">
         <v>26</v>
@@ -9254,8 +9221,8 @@
       <c r="B361">
         <v>2011</v>
       </c>
-      <c r="C361" t="s">
-        <v>12</v>
+      <c r="C361">
+        <v>7</v>
       </c>
       <c r="D361">
         <v>27</v>
@@ -9280,8 +9247,8 @@
       <c r="B362">
         <v>2011</v>
       </c>
-      <c r="C362" t="s">
-        <v>12</v>
+      <c r="C362">
+        <v>7</v>
       </c>
       <c r="D362">
         <v>28</v>
@@ -9306,8 +9273,8 @@
       <c r="B363">
         <v>2011</v>
       </c>
-      <c r="C363" t="s">
-        <v>12</v>
+      <c r="C363">
+        <v>7</v>
       </c>
       <c r="D363">
         <v>29</v>
@@ -9332,8 +9299,8 @@
       <c r="B364">
         <v>2011</v>
       </c>
-      <c r="C364" t="s">
-        <v>12</v>
+      <c r="C364">
+        <v>7</v>
       </c>
       <c r="D364">
         <v>30</v>
@@ -9358,8 +9325,8 @@
       <c r="B365">
         <v>2011</v>
       </c>
-      <c r="C365" t="s">
-        <v>12</v>
+      <c r="C365">
+        <v>7</v>
       </c>
       <c r="D365">
         <v>31</v>
@@ -9384,8 +9351,8 @@
       <c r="B366">
         <v>2011</v>
       </c>
-      <c r="C366" t="s">
-        <v>13</v>
+      <c r="C366">
+        <v>8</v>
       </c>
       <c r="D366">
         <v>1</v>
@@ -9410,8 +9377,8 @@
       <c r="B367">
         <v>2011</v>
       </c>
-      <c r="C367" t="s">
-        <v>13</v>
+      <c r="C367">
+        <v>8</v>
       </c>
       <c r="D367">
         <v>2</v>
@@ -9436,8 +9403,8 @@
       <c r="B368">
         <v>2011</v>
       </c>
-      <c r="C368" t="s">
-        <v>13</v>
+      <c r="C368">
+        <v>8</v>
       </c>
       <c r="D368">
         <v>3</v>
@@ -9462,8 +9429,8 @@
       <c r="B369">
         <v>2011</v>
       </c>
-      <c r="C369" t="s">
-        <v>13</v>
+      <c r="C369">
+        <v>8</v>
       </c>
       <c r="D369">
         <v>4</v>
@@ -9485,8 +9452,8 @@
       <c r="B370">
         <v>2011</v>
       </c>
-      <c r="C370" t="s">
-        <v>13</v>
+      <c r="C370">
+        <v>8</v>
       </c>
       <c r="D370">
         <v>5</v>
@@ -9508,8 +9475,8 @@
       <c r="B371">
         <v>2011</v>
       </c>
-      <c r="C371" t="s">
-        <v>13</v>
+      <c r="C371">
+        <v>8</v>
       </c>
       <c r="D371">
         <v>6</v>
@@ -9534,8 +9501,8 @@
       <c r="B372">
         <v>2011</v>
       </c>
-      <c r="C372" t="s">
-        <v>13</v>
+      <c r="C372">
+        <v>8</v>
       </c>
       <c r="D372">
         <v>7</v>
@@ -9560,8 +9527,8 @@
       <c r="B373">
         <v>2011</v>
       </c>
-      <c r="C373" t="s">
-        <v>13</v>
+      <c r="C373">
+        <v>8</v>
       </c>
       <c r="D373">
         <v>8</v>
@@ -9586,8 +9553,8 @@
       <c r="B374">
         <v>2011</v>
       </c>
-      <c r="C374" t="s">
-        <v>13</v>
+      <c r="C374">
+        <v>8</v>
       </c>
       <c r="D374">
         <v>9</v>
@@ -9612,8 +9579,8 @@
       <c r="B375">
         <v>2011</v>
       </c>
-      <c r="C375" t="s">
-        <v>13</v>
+      <c r="C375">
+        <v>8</v>
       </c>
       <c r="D375">
         <v>10</v>
@@ -9638,8 +9605,8 @@
       <c r="B376">
         <v>2011</v>
       </c>
-      <c r="C376" t="s">
-        <v>13</v>
+      <c r="C376">
+        <v>8</v>
       </c>
       <c r="D376">
         <v>11</v>
@@ -9664,8 +9631,8 @@
       <c r="B377">
         <v>2011</v>
       </c>
-      <c r="C377" t="s">
-        <v>13</v>
+      <c r="C377">
+        <v>8</v>
       </c>
       <c r="D377">
         <v>12</v>
@@ -9690,8 +9657,8 @@
       <c r="B378">
         <v>2011</v>
       </c>
-      <c r="C378" t="s">
-        <v>13</v>
+      <c r="C378">
+        <v>8</v>
       </c>
       <c r="D378">
         <v>13</v>
@@ -9716,8 +9683,8 @@
       <c r="B379">
         <v>2011</v>
       </c>
-      <c r="C379" t="s">
-        <v>13</v>
+      <c r="C379">
+        <v>8</v>
       </c>
       <c r="D379">
         <v>14</v>
@@ -9742,8 +9709,8 @@
       <c r="B380">
         <v>2011</v>
       </c>
-      <c r="C380" t="s">
-        <v>13</v>
+      <c r="C380">
+        <v>8</v>
       </c>
       <c r="D380">
         <v>15</v>
@@ -9768,8 +9735,8 @@
       <c r="B381">
         <v>2011</v>
       </c>
-      <c r="C381" t="s">
-        <v>13</v>
+      <c r="C381">
+        <v>8</v>
       </c>
       <c r="D381">
         <v>16</v>
@@ -9794,8 +9761,8 @@
       <c r="B382">
         <v>2011</v>
       </c>
-      <c r="C382" t="s">
-        <v>13</v>
+      <c r="C382">
+        <v>8</v>
       </c>
       <c r="D382">
         <v>17</v>
@@ -9817,8 +9784,8 @@
       <c r="B383">
         <v>2011</v>
       </c>
-      <c r="C383" t="s">
-        <v>13</v>
+      <c r="C383">
+        <v>8</v>
       </c>
       <c r="D383">
         <v>18</v>
@@ -9843,8 +9810,8 @@
       <c r="B384">
         <v>2011</v>
       </c>
-      <c r="C384" t="s">
-        <v>13</v>
+      <c r="C384">
+        <v>8</v>
       </c>
       <c r="D384">
         <v>19</v>
@@ -9869,8 +9836,8 @@
       <c r="B385">
         <v>2011</v>
       </c>
-      <c r="C385" t="s">
-        <v>13</v>
+      <c r="C385">
+        <v>8</v>
       </c>
       <c r="D385">
         <v>20</v>
@@ -9895,8 +9862,8 @@
       <c r="B386">
         <v>2011</v>
       </c>
-      <c r="C386" t="s">
-        <v>13</v>
+      <c r="C386">
+        <v>8</v>
       </c>
       <c r="D386">
         <v>21</v>
@@ -9921,8 +9888,8 @@
       <c r="B387">
         <v>2011</v>
       </c>
-      <c r="C387" t="s">
-        <v>13</v>
+      <c r="C387">
+        <v>8</v>
       </c>
       <c r="D387">
         <v>22</v>
@@ -9947,8 +9914,8 @@
       <c r="B388">
         <v>2011</v>
       </c>
-      <c r="C388" t="s">
-        <v>13</v>
+      <c r="C388">
+        <v>8</v>
       </c>
       <c r="D388">
         <v>23</v>
@@ -9973,8 +9940,8 @@
       <c r="B389">
         <v>2011</v>
       </c>
-      <c r="C389" t="s">
-        <v>13</v>
+      <c r="C389">
+        <v>8</v>
       </c>
       <c r="D389">
         <v>24</v>
@@ -9999,8 +9966,8 @@
       <c r="B390">
         <v>2011</v>
       </c>
-      <c r="C390" t="s">
-        <v>13</v>
+      <c r="C390">
+        <v>8</v>
       </c>
       <c r="D390">
         <v>25</v>
@@ -10022,8 +9989,8 @@
       <c r="B391">
         <v>2011</v>
       </c>
-      <c r="C391" t="s">
-        <v>13</v>
+      <c r="C391">
+        <v>8</v>
       </c>
       <c r="D391">
         <v>26</v>
@@ -10048,8 +10015,8 @@
       <c r="B392">
         <v>2011</v>
       </c>
-      <c r="C392" t="s">
-        <v>13</v>
+      <c r="C392">
+        <v>8</v>
       </c>
       <c r="D392">
         <v>27</v>
@@ -10074,8 +10041,8 @@
       <c r="B393">
         <v>2011</v>
       </c>
-      <c r="C393" t="s">
-        <v>13</v>
+      <c r="C393">
+        <v>8</v>
       </c>
       <c r="D393">
         <v>28</v>
@@ -10100,8 +10067,8 @@
       <c r="B394">
         <v>2011</v>
       </c>
-      <c r="C394" t="s">
-        <v>13</v>
+      <c r="C394">
+        <v>8</v>
       </c>
       <c r="D394">
         <v>29</v>
@@ -10126,8 +10093,8 @@
       <c r="B395">
         <v>2011</v>
       </c>
-      <c r="C395" t="s">
-        <v>13</v>
+      <c r="C395">
+        <v>8</v>
       </c>
       <c r="D395">
         <v>30</v>
@@ -10149,8 +10116,8 @@
       <c r="B396">
         <v>2011</v>
       </c>
-      <c r="C396" t="s">
-        <v>13</v>
+      <c r="C396">
+        <v>8</v>
       </c>
       <c r="D396">
         <v>31</v>
@@ -10172,8 +10139,8 @@
       <c r="B397">
         <v>2011</v>
       </c>
-      <c r="C397" t="s">
-        <v>14</v>
+      <c r="C397">
+        <v>9</v>
       </c>
       <c r="D397">
         <v>1</v>
@@ -10195,8 +10162,8 @@
       <c r="B398">
         <v>2011</v>
       </c>
-      <c r="C398" t="s">
-        <v>14</v>
+      <c r="C398">
+        <v>9</v>
       </c>
       <c r="D398">
         <v>2</v>
@@ -10218,8 +10185,8 @@
       <c r="B399">
         <v>2011</v>
       </c>
-      <c r="C399" t="s">
-        <v>14</v>
+      <c r="C399">
+        <v>9</v>
       </c>
       <c r="D399">
         <v>3</v>
@@ -10241,8 +10208,8 @@
       <c r="B400">
         <v>2011</v>
       </c>
-      <c r="C400" t="s">
-        <v>14</v>
+      <c r="C400">
+        <v>9</v>
       </c>
       <c r="D400">
         <v>4</v>
@@ -10264,8 +10231,8 @@
       <c r="B401">
         <v>2011</v>
       </c>
-      <c r="C401" t="s">
-        <v>14</v>
+      <c r="C401">
+        <v>9</v>
       </c>
       <c r="D401">
         <v>5</v>
@@ -10287,8 +10254,8 @@
       <c r="B402">
         <v>2011</v>
       </c>
-      <c r="C402" t="s">
-        <v>14</v>
+      <c r="C402">
+        <v>9</v>
       </c>
       <c r="D402">
         <v>6</v>
@@ -10313,8 +10280,8 @@
       <c r="B403">
         <v>2011</v>
       </c>
-      <c r="C403" t="s">
-        <v>14</v>
+      <c r="C403">
+        <v>9</v>
       </c>
       <c r="D403">
         <v>7</v>
@@ -10339,8 +10306,8 @@
       <c r="B404">
         <v>2011</v>
       </c>
-      <c r="C404" t="s">
-        <v>14</v>
+      <c r="C404">
+        <v>9</v>
       </c>
       <c r="D404">
         <v>8</v>
@@ -10365,8 +10332,8 @@
       <c r="B405">
         <v>2011</v>
       </c>
-      <c r="C405" t="s">
-        <v>14</v>
+      <c r="C405">
+        <v>9</v>
       </c>
       <c r="D405">
         <v>9</v>
@@ -10391,8 +10358,8 @@
       <c r="B406">
         <v>2011</v>
       </c>
-      <c r="C406" t="s">
-        <v>14</v>
+      <c r="C406">
+        <v>9</v>
       </c>
       <c r="D406">
         <v>10</v>
@@ -10417,8 +10384,8 @@
       <c r="B407">
         <v>2011</v>
       </c>
-      <c r="C407" t="s">
-        <v>14</v>
+      <c r="C407">
+        <v>9</v>
       </c>
       <c r="D407">
         <v>11</v>
@@ -10443,8 +10410,8 @@
       <c r="B408">
         <v>2011</v>
       </c>
-      <c r="C408" t="s">
-        <v>14</v>
+      <c r="C408">
+        <v>9</v>
       </c>
       <c r="D408">
         <v>12</v>
@@ -10469,8 +10436,8 @@
       <c r="B409">
         <v>2011</v>
       </c>
-      <c r="C409" t="s">
-        <v>14</v>
+      <c r="C409">
+        <v>9</v>
       </c>
       <c r="D409">
         <v>13</v>
@@ -10495,8 +10462,8 @@
       <c r="B410">
         <v>2011</v>
       </c>
-      <c r="C410" t="s">
-        <v>14</v>
+      <c r="C410">
+        <v>9</v>
       </c>
       <c r="D410">
         <v>14</v>
@@ -10521,8 +10488,8 @@
       <c r="B411">
         <v>2011</v>
       </c>
-      <c r="C411" t="s">
-        <v>14</v>
+      <c r="C411">
+        <v>9</v>
       </c>
       <c r="D411">
         <v>15</v>
@@ -10547,8 +10514,8 @@
       <c r="B412">
         <v>2011</v>
       </c>
-      <c r="C412" t="s">
-        <v>14</v>
+      <c r="C412">
+        <v>9</v>
       </c>
       <c r="D412">
         <v>16</v>
@@ -10573,8 +10540,8 @@
       <c r="B413">
         <v>2011</v>
       </c>
-      <c r="C413" t="s">
-        <v>14</v>
+      <c r="C413">
+        <v>9</v>
       </c>
       <c r="D413">
         <v>17</v>
@@ -10599,8 +10566,8 @@
       <c r="B414">
         <v>2011</v>
       </c>
-      <c r="C414" t="s">
-        <v>14</v>
+      <c r="C414">
+        <v>9</v>
       </c>
       <c r="D414">
         <v>18</v>
@@ -10625,8 +10592,8 @@
       <c r="B415">
         <v>2011</v>
       </c>
-      <c r="C415" t="s">
-        <v>14</v>
+      <c r="C415">
+        <v>9</v>
       </c>
       <c r="D415">
         <v>19</v>
@@ -10651,8 +10618,8 @@
       <c r="B416">
         <v>2011</v>
       </c>
-      <c r="C416" t="s">
-        <v>14</v>
+      <c r="C416">
+        <v>9</v>
       </c>
       <c r="D416">
         <v>20</v>
@@ -10677,8 +10644,8 @@
       <c r="B417">
         <v>2011</v>
       </c>
-      <c r="C417" t="s">
-        <v>14</v>
+      <c r="C417">
+        <v>9</v>
       </c>
       <c r="D417">
         <v>21</v>
@@ -10703,8 +10670,8 @@
       <c r="B418">
         <v>2011</v>
       </c>
-      <c r="C418" t="s">
-        <v>14</v>
+      <c r="C418">
+        <v>9</v>
       </c>
       <c r="D418">
         <v>22</v>
@@ -10729,8 +10696,8 @@
       <c r="B419">
         <v>2011</v>
       </c>
-      <c r="C419" t="s">
-        <v>14</v>
+      <c r="C419">
+        <v>9</v>
       </c>
       <c r="D419">
         <v>23</v>
@@ -10755,8 +10722,8 @@
       <c r="B420">
         <v>2011</v>
       </c>
-      <c r="C420" t="s">
-        <v>14</v>
+      <c r="C420">
+        <v>9</v>
       </c>
       <c r="D420">
         <v>24</v>
@@ -10778,8 +10745,8 @@
       <c r="B421">
         <v>2011</v>
       </c>
-      <c r="C421" t="s">
-        <v>14</v>
+      <c r="C421">
+        <v>9</v>
       </c>
       <c r="D421">
         <v>25</v>
@@ -10804,8 +10771,8 @@
       <c r="B422">
         <v>2011</v>
       </c>
-      <c r="C422" t="s">
-        <v>14</v>
+      <c r="C422">
+        <v>9</v>
       </c>
       <c r="D422">
         <v>26</v>
@@ -10830,8 +10797,8 @@
       <c r="B423">
         <v>2011</v>
       </c>
-      <c r="C423" t="s">
-        <v>14</v>
+      <c r="C423">
+        <v>9</v>
       </c>
       <c r="D423">
         <v>27</v>
@@ -10856,8 +10823,8 @@
       <c r="B424">
         <v>2011</v>
       </c>
-      <c r="C424" t="s">
-        <v>14</v>
+      <c r="C424">
+        <v>9</v>
       </c>
       <c r="D424">
         <v>28</v>
@@ -10882,8 +10849,8 @@
       <c r="B425">
         <v>2011</v>
       </c>
-      <c r="C425" t="s">
-        <v>14</v>
+      <c r="C425">
+        <v>9</v>
       </c>
       <c r="D425">
         <v>29</v>
@@ -10908,8 +10875,8 @@
       <c r="B426">
         <v>2011</v>
       </c>
-      <c r="C426" t="s">
-        <v>14</v>
+      <c r="C426">
+        <v>9</v>
       </c>
       <c r="D426">
         <v>30</v>
@@ -10934,8 +10901,8 @@
       <c r="B427">
         <v>2011</v>
       </c>
-      <c r="C427" t="s">
-        <v>9</v>
+      <c r="C427">
+        <v>10</v>
       </c>
       <c r="D427">
         <v>1</v>
@@ -10960,8 +10927,8 @@
       <c r="B428">
         <v>2011</v>
       </c>
-      <c r="C428" t="s">
-        <v>9</v>
+      <c r="C428">
+        <v>10</v>
       </c>
       <c r="D428">
         <v>2</v>
@@ -10986,8 +10953,8 @@
       <c r="B429">
         <v>2011</v>
       </c>
-      <c r="C429" t="s">
-        <v>9</v>
+      <c r="C429">
+        <v>10</v>
       </c>
       <c r="D429">
         <v>3</v>
@@ -11012,8 +10979,8 @@
       <c r="B430">
         <v>2011</v>
       </c>
-      <c r="C430" t="s">
-        <v>9</v>
+      <c r="C430">
+        <v>10</v>
       </c>
       <c r="D430">
         <v>4</v>
@@ -11038,8 +11005,8 @@
       <c r="B431">
         <v>2011</v>
       </c>
-      <c r="C431" t="s">
-        <v>9</v>
+      <c r="C431">
+        <v>10</v>
       </c>
       <c r="D431">
         <v>5</v>
@@ -11064,8 +11031,8 @@
       <c r="B432">
         <v>2011</v>
       </c>
-      <c r="C432" t="s">
-        <v>9</v>
+      <c r="C432">
+        <v>10</v>
       </c>
       <c r="D432">
         <v>6</v>
@@ -11090,8 +11057,8 @@
       <c r="B433">
         <v>2011</v>
       </c>
-      <c r="C433" t="s">
-        <v>9</v>
+      <c r="C433">
+        <v>10</v>
       </c>
       <c r="D433">
         <v>7</v>
@@ -11116,8 +11083,8 @@
       <c r="B434">
         <v>2011</v>
       </c>
-      <c r="C434" t="s">
-        <v>9</v>
+      <c r="C434">
+        <v>10</v>
       </c>
       <c r="D434">
         <v>8</v>
@@ -11142,8 +11109,8 @@
       <c r="B435">
         <v>2011</v>
       </c>
-      <c r="C435" t="s">
-        <v>9</v>
+      <c r="C435">
+        <v>10</v>
       </c>
       <c r="D435">
         <v>9</v>
@@ -11168,8 +11135,8 @@
       <c r="B436">
         <v>2011</v>
       </c>
-      <c r="C436" t="s">
-        <v>9</v>
+      <c r="C436">
+        <v>10</v>
       </c>
       <c r="D436">
         <v>10</v>
@@ -11194,8 +11161,8 @@
       <c r="B437">
         <v>2011</v>
       </c>
-      <c r="C437" t="s">
-        <v>9</v>
+      <c r="C437">
+        <v>10</v>
       </c>
       <c r="D437">
         <v>11</v>
@@ -11220,8 +11187,8 @@
       <c r="B438">
         <v>2011</v>
       </c>
-      <c r="C438" t="s">
-        <v>9</v>
+      <c r="C438">
+        <v>10</v>
       </c>
       <c r="D438">
         <v>12</v>
@@ -11246,8 +11213,8 @@
       <c r="B439">
         <v>2011</v>
       </c>
-      <c r="C439" t="s">
-        <v>9</v>
+      <c r="C439">
+        <v>10</v>
       </c>
       <c r="D439">
         <v>13</v>
@@ -11272,8 +11239,8 @@
       <c r="B440">
         <v>2011</v>
       </c>
-      <c r="C440" t="s">
-        <v>9</v>
+      <c r="C440">
+        <v>10</v>
       </c>
       <c r="D440">
         <v>14</v>
@@ -11298,8 +11265,8 @@
       <c r="B441">
         <v>2011</v>
       </c>
-      <c r="C441" t="s">
-        <v>9</v>
+      <c r="C441">
+        <v>10</v>
       </c>
       <c r="D441">
         <v>15</v>
@@ -11321,8 +11288,8 @@
       <c r="B442">
         <v>2011</v>
       </c>
-      <c r="C442" t="s">
-        <v>9</v>
+      <c r="C442">
+        <v>10</v>
       </c>
       <c r="D442">
         <v>16</v>
@@ -11341,8 +11308,8 @@
       <c r="B443">
         <v>2011</v>
       </c>
-      <c r="C443" t="s">
-        <v>9</v>
+      <c r="C443">
+        <v>10</v>
       </c>
       <c r="D443">
         <v>17</v>
@@ -11367,8 +11334,8 @@
       <c r="B444">
         <v>2011</v>
       </c>
-      <c r="C444" t="s">
-        <v>9</v>
+      <c r="C444">
+        <v>10</v>
       </c>
       <c r="D444">
         <v>18</v>
@@ -11390,8 +11357,8 @@
       <c r="B445">
         <v>2011</v>
       </c>
-      <c r="C445" t="s">
-        <v>9</v>
+      <c r="C445">
+        <v>10</v>
       </c>
       <c r="D445">
         <v>19</v>
@@ -11410,8 +11377,8 @@
       <c r="B446">
         <v>2011</v>
       </c>
-      <c r="C446" t="s">
-        <v>9</v>
+      <c r="C446">
+        <v>10</v>
       </c>
       <c r="D446">
         <v>20</v>
@@ -11433,8 +11400,8 @@
       <c r="B447">
         <v>2011</v>
       </c>
-      <c r="C447" t="s">
-        <v>9</v>
+      <c r="C447">
+        <v>10</v>
       </c>
       <c r="D447">
         <v>21</v>
@@ -11456,8 +11423,8 @@
       <c r="B448">
         <v>2011</v>
       </c>
-      <c r="C448" t="s">
-        <v>9</v>
+      <c r="C448">
+        <v>10</v>
       </c>
       <c r="D448">
         <v>22</v>
@@ -11479,8 +11446,8 @@
       <c r="B449">
         <v>2011</v>
       </c>
-      <c r="C449" t="s">
-        <v>9</v>
+      <c r="C449">
+        <v>10</v>
       </c>
       <c r="D449">
         <v>23</v>
@@ -11505,8 +11472,8 @@
       <c r="B450">
         <v>2011</v>
       </c>
-      <c r="C450" t="s">
-        <v>9</v>
+      <c r="C450">
+        <v>10</v>
       </c>
       <c r="D450">
         <v>24</v>
@@ -11531,8 +11498,8 @@
       <c r="B451">
         <v>2011</v>
       </c>
-      <c r="C451" t="s">
-        <v>9</v>
+      <c r="C451">
+        <v>10</v>
       </c>
       <c r="D451">
         <v>25</v>
@@ -11554,8 +11521,8 @@
       <c r="B452">
         <v>2011</v>
       </c>
-      <c r="C452" t="s">
-        <v>9</v>
+      <c r="C452">
+        <v>10</v>
       </c>
       <c r="D452">
         <v>26</v>
@@ -11574,8 +11541,8 @@
       <c r="B453">
         <v>2011</v>
       </c>
-      <c r="C453" t="s">
-        <v>9</v>
+      <c r="C453">
+        <v>10</v>
       </c>
       <c r="D453">
         <v>27</v>
@@ -11594,8 +11561,8 @@
       <c r="B454">
         <v>2011</v>
       </c>
-      <c r="C454" t="s">
-        <v>9</v>
+      <c r="C454">
+        <v>10</v>
       </c>
       <c r="D454">
         <v>28</v>
@@ -11617,8 +11584,8 @@
       <c r="B455">
         <v>2014</v>
       </c>
-      <c r="C455" t="s">
-        <v>10</v>
+      <c r="C455">
+        <v>12</v>
       </c>
       <c r="D455">
         <v>1</v>
@@ -11643,8 +11610,8 @@
       <c r="B456">
         <v>2014</v>
       </c>
-      <c r="C456" t="s">
-        <v>10</v>
+      <c r="C456">
+        <v>12</v>
       </c>
       <c r="D456">
         <v>2</v>
@@ -11669,8 +11636,8 @@
       <c r="B457">
         <v>2014</v>
       </c>
-      <c r="C457" t="s">
-        <v>10</v>
+      <c r="C457">
+        <v>12</v>
       </c>
       <c r="D457">
         <v>3</v>
@@ -11689,8 +11656,8 @@
       <c r="B458">
         <v>2014</v>
       </c>
-      <c r="C458" t="s">
-        <v>10</v>
+      <c r="C458">
+        <v>12</v>
       </c>
       <c r="D458">
         <v>4</v>
@@ -11712,8 +11679,8 @@
       <c r="B459">
         <v>2014</v>
       </c>
-      <c r="C459" t="s">
-        <v>10</v>
+      <c r="C459">
+        <v>12</v>
       </c>
       <c r="D459">
         <v>5</v>
@@ -11735,8 +11702,8 @@
       <c r="B460">
         <v>2014</v>
       </c>
-      <c r="C460" t="s">
-        <v>10</v>
+      <c r="C460">
+        <v>12</v>
       </c>
       <c r="D460">
         <v>6</v>
@@ -11758,8 +11725,8 @@
       <c r="B461">
         <v>2014</v>
       </c>
-      <c r="C461" t="s">
-        <v>10</v>
+      <c r="C461">
+        <v>12</v>
       </c>
       <c r="D461">
         <v>7</v>
@@ -11784,8 +11751,8 @@
       <c r="B462">
         <v>2014</v>
       </c>
-      <c r="C462" t="s">
-        <v>10</v>
+      <c r="C462">
+        <v>12</v>
       </c>
       <c r="D462">
         <v>8</v>
@@ -11804,8 +11771,8 @@
       <c r="B463">
         <v>2014</v>
       </c>
-      <c r="C463" t="s">
-        <v>10</v>
+      <c r="C463">
+        <v>12</v>
       </c>
       <c r="D463">
         <v>9</v>
@@ -11824,8 +11791,8 @@
       <c r="B464">
         <v>2014</v>
       </c>
-      <c r="C464" t="s">
-        <v>10</v>
+      <c r="C464">
+        <v>12</v>
       </c>
       <c r="D464">
         <v>10</v>
@@ -11844,8 +11811,8 @@
       <c r="B465">
         <v>2014</v>
       </c>
-      <c r="C465" t="s">
-        <v>10</v>
+      <c r="C465">
+        <v>12</v>
       </c>
       <c r="D465">
         <v>11</v>
@@ -11864,8 +11831,8 @@
       <c r="B466">
         <v>2014</v>
       </c>
-      <c r="C466" t="s">
-        <v>10</v>
+      <c r="C466">
+        <v>12</v>
       </c>
       <c r="D466">
         <v>12</v>
@@ -11884,8 +11851,8 @@
       <c r="B467">
         <v>2014</v>
       </c>
-      <c r="C467" t="s">
-        <v>10</v>
+      <c r="C467">
+        <v>12</v>
       </c>
       <c r="D467">
         <v>13</v>
@@ -11904,8 +11871,8 @@
       <c r="B468">
         <v>2014</v>
       </c>
-      <c r="C468" t="s">
-        <v>10</v>
+      <c r="C468">
+        <v>12</v>
       </c>
       <c r="D468">
         <v>14</v>
@@ -11924,8 +11891,8 @@
       <c r="B469">
         <v>2014</v>
       </c>
-      <c r="C469" t="s">
-        <v>10</v>
+      <c r="C469">
+        <v>12</v>
       </c>
       <c r="D469">
         <v>15</v>
@@ -11947,8 +11914,8 @@
       <c r="B470">
         <v>2014</v>
       </c>
-      <c r="C470" t="s">
-        <v>10</v>
+      <c r="C470">
+        <v>12</v>
       </c>
       <c r="D470">
         <v>16</v>
@@ -11967,8 +11934,8 @@
       <c r="B471">
         <v>2014</v>
       </c>
-      <c r="C471" t="s">
-        <v>10</v>
+      <c r="C471">
+        <v>12</v>
       </c>
       <c r="D471">
         <v>17</v>
@@ -11987,8 +11954,8 @@
       <c r="B472">
         <v>2014</v>
       </c>
-      <c r="C472" t="s">
-        <v>10</v>
+      <c r="C472">
+        <v>12</v>
       </c>
       <c r="D472">
         <v>18</v>
@@ -12010,8 +11977,8 @@
       <c r="B473">
         <v>2014</v>
       </c>
-      <c r="C473" t="s">
-        <v>10</v>
+      <c r="C473">
+        <v>12</v>
       </c>
       <c r="D473">
         <v>19</v>
@@ -12033,8 +12000,8 @@
       <c r="B474">
         <v>2014</v>
       </c>
-      <c r="C474" t="s">
-        <v>10</v>
+      <c r="C474">
+        <v>12</v>
       </c>
       <c r="D474">
         <v>20</v>
@@ -12059,8 +12026,8 @@
       <c r="B475">
         <v>2014</v>
       </c>
-      <c r="C475" t="s">
-        <v>10</v>
+      <c r="C475">
+        <v>12</v>
       </c>
       <c r="D475">
         <v>21</v>
@@ -12085,8 +12052,8 @@
       <c r="B476">
         <v>2014</v>
       </c>
-      <c r="C476" t="s">
-        <v>10</v>
+      <c r="C476">
+        <v>12</v>
       </c>
       <c r="D476">
         <v>22</v>
@@ -12105,8 +12072,8 @@
       <c r="B477">
         <v>2014</v>
       </c>
-      <c r="C477" t="s">
-        <v>10</v>
+      <c r="C477">
+        <v>12</v>
       </c>
       <c r="D477">
         <v>23</v>
@@ -12125,8 +12092,8 @@
       <c r="B478">
         <v>2014</v>
       </c>
-      <c r="C478" t="s">
-        <v>10</v>
+      <c r="C478">
+        <v>12</v>
       </c>
       <c r="D478">
         <v>24</v>
@@ -12148,8 +12115,8 @@
       <c r="B479">
         <v>2014</v>
       </c>
-      <c r="C479" t="s">
-        <v>10</v>
+      <c r="C479">
+        <v>12</v>
       </c>
       <c r="D479">
         <v>25</v>
@@ -12171,8 +12138,8 @@
       <c r="B480">
         <v>2014</v>
       </c>
-      <c r="C480" t="s">
-        <v>10</v>
+      <c r="C480">
+        <v>12</v>
       </c>
       <c r="D480">
         <v>26</v>
@@ -12197,8 +12164,8 @@
       <c r="B481">
         <v>2014</v>
       </c>
-      <c r="C481" t="s">
-        <v>10</v>
+      <c r="C481">
+        <v>12</v>
       </c>
       <c r="D481">
         <v>27</v>
@@ -12223,8 +12190,8 @@
       <c r="B482">
         <v>2014</v>
       </c>
-      <c r="C482" t="s">
-        <v>10</v>
+      <c r="C482">
+        <v>12</v>
       </c>
       <c r="D482">
         <v>28</v>
@@ -12249,8 +12216,8 @@
       <c r="B483">
         <v>2014</v>
       </c>
-      <c r="C483" t="s">
-        <v>10</v>
+      <c r="C483">
+        <v>12</v>
       </c>
       <c r="D483">
         <v>29</v>
@@ -12272,8 +12239,8 @@
       <c r="B484">
         <v>2014</v>
       </c>
-      <c r="C484" t="s">
-        <v>10</v>
+      <c r="C484">
+        <v>12</v>
       </c>
       <c r="D484">
         <v>30</v>
@@ -12298,8 +12265,8 @@
       <c r="B485">
         <v>2014</v>
       </c>
-      <c r="C485" t="s">
-        <v>10</v>
+      <c r="C485">
+        <v>12</v>
       </c>
       <c r="D485">
         <v>31</v>
@@ -12324,8 +12291,8 @@
       <c r="B486">
         <v>2015</v>
       </c>
-      <c r="C486" t="s">
-        <v>11</v>
+      <c r="C486">
+        <v>1</v>
       </c>
       <c r="D486">
         <v>1</v>
@@ -12350,8 +12317,8 @@
       <c r="B487">
         <v>2015</v>
       </c>
-      <c r="C487" t="s">
-        <v>11</v>
+      <c r="C487">
+        <v>1</v>
       </c>
       <c r="D487">
         <v>2</v>
@@ -12373,8 +12340,8 @@
       <c r="B488">
         <v>2015</v>
       </c>
-      <c r="C488" t="s">
-        <v>11</v>
+      <c r="C488">
+        <v>1</v>
       </c>
       <c r="D488">
         <v>3</v>
@@ -12393,8 +12360,8 @@
       <c r="B489">
         <v>2015</v>
       </c>
-      <c r="C489" t="s">
-        <v>11</v>
+      <c r="C489">
+        <v>1</v>
       </c>
       <c r="D489">
         <v>4</v>
@@ -12413,8 +12380,8 @@
       <c r="B490">
         <v>2015</v>
       </c>
-      <c r="C490" t="s">
-        <v>11</v>
+      <c r="C490">
+        <v>1</v>
       </c>
       <c r="D490">
         <v>5</v>
@@ -12436,8 +12403,8 @@
       <c r="B491">
         <v>2015</v>
       </c>
-      <c r="C491" t="s">
-        <v>11</v>
+      <c r="C491">
+        <v>1</v>
       </c>
       <c r="D491">
         <v>6</v>
@@ -12459,8 +12426,8 @@
       <c r="B492">
         <v>2015</v>
       </c>
-      <c r="C492" t="s">
-        <v>11</v>
+      <c r="C492">
+        <v>1</v>
       </c>
       <c r="D492">
         <v>7</v>
@@ -12479,8 +12446,8 @@
       <c r="B493">
         <v>2015</v>
       </c>
-      <c r="C493" t="s">
-        <v>11</v>
+      <c r="C493">
+        <v>1</v>
       </c>
       <c r="D493">
         <v>8</v>
@@ -12499,8 +12466,8 @@
       <c r="B494">
         <v>2015</v>
       </c>
-      <c r="C494" t="s">
-        <v>11</v>
+      <c r="C494">
+        <v>1</v>
       </c>
       <c r="D494">
         <v>9</v>
@@ -12522,8 +12489,8 @@
       <c r="B495">
         <v>2015</v>
       </c>
-      <c r="C495" t="s">
-        <v>11</v>
+      <c r="C495">
+        <v>1</v>
       </c>
       <c r="D495">
         <v>10</v>
@@ -12545,8 +12512,8 @@
       <c r="B496">
         <v>2015</v>
       </c>
-      <c r="C496" t="s">
-        <v>11</v>
+      <c r="C496">
+        <v>1</v>
       </c>
       <c r="D496">
         <v>11</v>
@@ -12565,8 +12532,8 @@
       <c r="B497">
         <v>2015</v>
       </c>
-      <c r="C497" t="s">
-        <v>11</v>
+      <c r="C497">
+        <v>1</v>
       </c>
       <c r="D497">
         <v>12</v>
@@ -12585,8 +12552,8 @@
       <c r="B498">
         <v>2015</v>
       </c>
-      <c r="C498" t="s">
-        <v>11</v>
+      <c r="C498">
+        <v>1</v>
       </c>
       <c r="D498">
         <v>13</v>
@@ -12608,8 +12575,8 @@
       <c r="B499">
         <v>2015</v>
       </c>
-      <c r="C499" t="s">
-        <v>11</v>
+      <c r="C499">
+        <v>1</v>
       </c>
       <c r="D499">
         <v>14</v>
@@ -12628,8 +12595,8 @@
       <c r="B500">
         <v>2015</v>
       </c>
-      <c r="C500" t="s">
-        <v>11</v>
+      <c r="C500">
+        <v>1</v>
       </c>
       <c r="D500">
         <v>15</v>
@@ -12648,8 +12615,8 @@
       <c r="B501">
         <v>2015</v>
       </c>
-      <c r="C501" t="s">
-        <v>11</v>
+      <c r="C501">
+        <v>1</v>
       </c>
       <c r="D501">
         <v>16</v>
@@ -12668,8 +12635,8 @@
       <c r="B502">
         <v>2015</v>
       </c>
-      <c r="C502" t="s">
-        <v>11</v>
+      <c r="C502">
+        <v>1</v>
       </c>
       <c r="D502">
         <v>17</v>
@@ -12688,8 +12655,8 @@
       <c r="B503">
         <v>2015</v>
       </c>
-      <c r="C503" t="s">
-        <v>11</v>
+      <c r="C503">
+        <v>1</v>
       </c>
       <c r="D503">
         <v>18</v>
@@ -12708,8 +12675,8 @@
       <c r="B504">
         <v>2015</v>
       </c>
-      <c r="C504" t="s">
-        <v>11</v>
+      <c r="C504">
+        <v>1</v>
       </c>
       <c r="D504">
         <v>19</v>
@@ -12728,8 +12695,8 @@
       <c r="B505">
         <v>2015</v>
       </c>
-      <c r="C505" t="s">
-        <v>11</v>
+      <c r="C505">
+        <v>1</v>
       </c>
       <c r="D505">
         <v>20</v>
@@ -12748,8 +12715,8 @@
       <c r="B506">
         <v>2015</v>
       </c>
-      <c r="C506" t="s">
-        <v>11</v>
+      <c r="C506">
+        <v>1</v>
       </c>
       <c r="D506">
         <v>21</v>
@@ -12768,8 +12735,8 @@
       <c r="B507">
         <v>2015</v>
       </c>
-      <c r="C507" t="s">
-        <v>11</v>
+      <c r="C507">
+        <v>1</v>
       </c>
       <c r="D507">
         <v>22</v>
@@ -12788,8 +12755,8 @@
       <c r="B508">
         <v>2015</v>
       </c>
-      <c r="C508" t="s">
-        <v>11</v>
+      <c r="C508">
+        <v>1</v>
       </c>
       <c r="D508">
         <v>23</v>
@@ -12808,8 +12775,8 @@
       <c r="B509">
         <v>2015</v>
       </c>
-      <c r="C509" t="s">
-        <v>11</v>
+      <c r="C509">
+        <v>1</v>
       </c>
       <c r="D509">
         <v>24</v>
@@ -12828,8 +12795,8 @@
       <c r="B510">
         <v>2015</v>
       </c>
-      <c r="C510" t="s">
-        <v>16</v>
+      <c r="C510">
+        <v>5</v>
       </c>
       <c r="D510">
         <v>10</v>
@@ -12854,8 +12821,8 @@
       <c r="B511">
         <v>2015</v>
       </c>
-      <c r="C511" t="s">
-        <v>16</v>
+      <c r="C511">
+        <v>5</v>
       </c>
       <c r="D511">
         <v>11</v>
@@ -12880,8 +12847,8 @@
       <c r="B512">
         <v>2015</v>
       </c>
-      <c r="C512" t="s">
-        <v>16</v>
+      <c r="C512">
+        <v>5</v>
       </c>
       <c r="D512">
         <v>12</v>
@@ -12906,8 +12873,8 @@
       <c r="B513">
         <v>2015</v>
       </c>
-      <c r="C513" t="s">
-        <v>16</v>
+      <c r="C513">
+        <v>5</v>
       </c>
       <c r="D513">
         <v>13</v>
@@ -12932,8 +12899,8 @@
       <c r="B514">
         <v>2015</v>
       </c>
-      <c r="C514" t="s">
-        <v>16</v>
+      <c r="C514">
+        <v>5</v>
       </c>
       <c r="D514">
         <v>14</v>
@@ -12955,8 +12922,8 @@
       <c r="B515">
         <v>2015</v>
       </c>
-      <c r="C515" t="s">
-        <v>16</v>
+      <c r="C515">
+        <v>5</v>
       </c>
       <c r="D515">
         <v>15</v>
@@ -12981,8 +12948,8 @@
       <c r="B516">
         <v>2015</v>
       </c>
-      <c r="C516" t="s">
-        <v>16</v>
+      <c r="C516">
+        <v>5</v>
       </c>
       <c r="D516">
         <v>16</v>
@@ -13007,8 +12974,8 @@
       <c r="B517">
         <v>2015</v>
       </c>
-      <c r="C517" t="s">
-        <v>16</v>
+      <c r="C517">
+        <v>5</v>
       </c>
       <c r="D517">
         <v>17</v>
@@ -13033,8 +13000,8 @@
       <c r="B518">
         <v>2015</v>
       </c>
-      <c r="C518" t="s">
-        <v>16</v>
+      <c r="C518">
+        <v>5</v>
       </c>
       <c r="D518">
         <v>18</v>
@@ -13059,8 +13026,8 @@
       <c r="B519">
         <v>2015</v>
       </c>
-      <c r="C519" t="s">
-        <v>16</v>
+      <c r="C519">
+        <v>5</v>
       </c>
       <c r="D519">
         <v>19</v>
@@ -13085,8 +13052,8 @@
       <c r="B520">
         <v>2015</v>
       </c>
-      <c r="C520" t="s">
-        <v>16</v>
+      <c r="C520">
+        <v>5</v>
       </c>
       <c r="D520">
         <v>20</v>
@@ -13111,8 +13078,8 @@
       <c r="B521">
         <v>2015</v>
       </c>
-      <c r="C521" t="s">
-        <v>16</v>
+      <c r="C521">
+        <v>5</v>
       </c>
       <c r="D521">
         <v>21</v>
@@ -13137,8 +13104,8 @@
       <c r="B522">
         <v>2015</v>
       </c>
-      <c r="C522" t="s">
-        <v>16</v>
+      <c r="C522">
+        <v>5</v>
       </c>
       <c r="D522">
         <v>22</v>
@@ -13163,8 +13130,8 @@
       <c r="B523">
         <v>2015</v>
       </c>
-      <c r="C523" t="s">
-        <v>16</v>
+      <c r="C523">
+        <v>5</v>
       </c>
       <c r="D523">
         <v>23</v>
@@ -13189,8 +13156,8 @@
       <c r="B524">
         <v>2015</v>
       </c>
-      <c r="C524" t="s">
-        <v>16</v>
+      <c r="C524">
+        <v>5</v>
       </c>
       <c r="D524">
         <v>24</v>
@@ -13215,8 +13182,8 @@
       <c r="B525">
         <v>2015</v>
       </c>
-      <c r="C525" t="s">
-        <v>16</v>
+      <c r="C525">
+        <v>5</v>
       </c>
       <c r="D525">
         <v>25</v>
@@ -13241,8 +13208,8 @@
       <c r="B526">
         <v>2015</v>
       </c>
-      <c r="C526" t="s">
-        <v>16</v>
+      <c r="C526">
+        <v>5</v>
       </c>
       <c r="D526">
         <v>26</v>
@@ -13267,8 +13234,8 @@
       <c r="B527">
         <v>2015</v>
       </c>
-      <c r="C527" t="s">
-        <v>16</v>
+      <c r="C527">
+        <v>5</v>
       </c>
       <c r="D527">
         <v>27</v>
@@ -13293,8 +13260,8 @@
       <c r="B528">
         <v>2015</v>
       </c>
-      <c r="C528" t="s">
-        <v>16</v>
+      <c r="C528">
+        <v>5</v>
       </c>
       <c r="D528">
         <v>28</v>
@@ -13319,8 +13286,8 @@
       <c r="B529">
         <v>2015</v>
       </c>
-      <c r="C529" t="s">
-        <v>16</v>
+      <c r="C529">
+        <v>5</v>
       </c>
       <c r="D529">
         <v>29</v>
@@ -13345,8 +13312,8 @@
       <c r="B530">
         <v>2015</v>
       </c>
-      <c r="C530" t="s">
-        <v>16</v>
+      <c r="C530">
+        <v>5</v>
       </c>
       <c r="D530">
         <v>30</v>
@@ -13371,8 +13338,8 @@
       <c r="B531">
         <v>2015</v>
       </c>
-      <c r="C531" t="s">
-        <v>16</v>
+      <c r="C531">
+        <v>5</v>
       </c>
       <c r="D531">
         <v>31</v>
@@ -13397,8 +13364,8 @@
       <c r="B532">
         <v>2015</v>
       </c>
-      <c r="C532" t="s">
-        <v>15</v>
+      <c r="C532">
+        <v>6</v>
       </c>
       <c r="D532">
         <v>1</v>
@@ -13423,8 +13390,8 @@
       <c r="B533">
         <v>2015</v>
       </c>
-      <c r="C533" t="s">
-        <v>15</v>
+      <c r="C533">
+        <v>6</v>
       </c>
       <c r="D533">
         <v>2</v>
@@ -13446,8 +13413,8 @@
       <c r="B534">
         <v>2015</v>
       </c>
-      <c r="C534" t="s">
-        <v>15</v>
+      <c r="C534">
+        <v>6</v>
       </c>
       <c r="D534">
         <v>3</v>
@@ -13469,8 +13436,8 @@
       <c r="B535">
         <v>2015</v>
       </c>
-      <c r="C535" t="s">
-        <v>15</v>
+      <c r="C535">
+        <v>6</v>
       </c>
       <c r="D535">
         <v>4</v>
@@ -13492,8 +13459,8 @@
       <c r="B536">
         <v>2015</v>
       </c>
-      <c r="C536" t="s">
-        <v>15</v>
+      <c r="C536">
+        <v>6</v>
       </c>
       <c r="D536">
         <v>5</v>
@@ -13515,8 +13482,8 @@
       <c r="B537">
         <v>2015</v>
       </c>
-      <c r="C537" t="s">
-        <v>15</v>
+      <c r="C537">
+        <v>6</v>
       </c>
       <c r="D537">
         <v>6</v>
@@ -13538,8 +13505,8 @@
       <c r="B538">
         <v>2015</v>
       </c>
-      <c r="C538" t="s">
-        <v>15</v>
+      <c r="C538">
+        <v>6</v>
       </c>
       <c r="D538">
         <v>7</v>
@@ -13564,8 +13531,8 @@
       <c r="B539">
         <v>2015</v>
       </c>
-      <c r="C539" t="s">
-        <v>15</v>
+      <c r="C539">
+        <v>6</v>
       </c>
       <c r="D539">
         <v>8</v>
@@ -13590,8 +13557,8 @@
       <c r="B540">
         <v>2015</v>
       </c>
-      <c r="C540" t="s">
-        <v>15</v>
+      <c r="C540">
+        <v>6</v>
       </c>
       <c r="D540">
         <v>9</v>
@@ -13613,8 +13580,8 @@
       <c r="B541">
         <v>2015</v>
       </c>
-      <c r="C541" t="s">
-        <v>15</v>
+      <c r="C541">
+        <v>6</v>
       </c>
       <c r="D541">
         <v>10</v>
@@ -13639,8 +13606,8 @@
       <c r="B542">
         <v>2015</v>
       </c>
-      <c r="C542" t="s">
-        <v>15</v>
+      <c r="C542">
+        <v>6</v>
       </c>
       <c r="D542">
         <v>11</v>
@@ -13665,8 +13632,8 @@
       <c r="B543">
         <v>2015</v>
       </c>
-      <c r="C543" t="s">
-        <v>15</v>
+      <c r="C543">
+        <v>6</v>
       </c>
       <c r="D543">
         <v>12</v>
@@ -13688,8 +13655,8 @@
       <c r="B544">
         <v>2015</v>
       </c>
-      <c r="C544" t="s">
-        <v>15</v>
+      <c r="C544">
+        <v>6</v>
       </c>
       <c r="D544">
         <v>13</v>
@@ -13711,8 +13678,8 @@
       <c r="B545">
         <v>2015</v>
       </c>
-      <c r="C545" t="s">
-        <v>15</v>
+      <c r="C545">
+        <v>6</v>
       </c>
       <c r="D545">
         <v>14</v>
@@ -13737,8 +13704,8 @@
       <c r="B546">
         <v>2015</v>
       </c>
-      <c r="C546" t="s">
-        <v>15</v>
+      <c r="C546">
+        <v>6</v>
       </c>
       <c r="D546">
         <v>15</v>
@@ -13763,8 +13730,8 @@
       <c r="B547">
         <v>2015</v>
       </c>
-      <c r="C547" t="s">
-        <v>15</v>
+      <c r="C547">
+        <v>6</v>
       </c>
       <c r="D547">
         <v>16</v>
@@ -13789,8 +13756,8 @@
       <c r="B548">
         <v>2015</v>
       </c>
-      <c r="C548" t="s">
-        <v>15</v>
+      <c r="C548">
+        <v>6</v>
       </c>
       <c r="D548">
         <v>17</v>
@@ -13815,8 +13782,8 @@
       <c r="B549">
         <v>2015</v>
       </c>
-      <c r="C549" t="s">
-        <v>15</v>
+      <c r="C549">
+        <v>6</v>
       </c>
       <c r="D549">
         <v>18</v>
@@ -13841,8 +13808,8 @@
       <c r="B550">
         <v>2015</v>
       </c>
-      <c r="C550" t="s">
-        <v>15</v>
+      <c r="C550">
+        <v>6</v>
       </c>
       <c r="D550">
         <v>19</v>
@@ -13867,8 +13834,8 @@
       <c r="B551">
         <v>2015</v>
       </c>
-      <c r="C551" t="s">
-        <v>15</v>
+      <c r="C551">
+        <v>6</v>
       </c>
       <c r="D551">
         <v>20</v>
@@ -13893,8 +13860,8 @@
       <c r="B552">
         <v>2015</v>
       </c>
-      <c r="C552" t="s">
-        <v>15</v>
+      <c r="C552">
+        <v>6</v>
       </c>
       <c r="D552">
         <v>21</v>
@@ -13919,8 +13886,8 @@
       <c r="B553">
         <v>2015</v>
       </c>
-      <c r="C553" t="s">
-        <v>15</v>
+      <c r="C553">
+        <v>6</v>
       </c>
       <c r="D553">
         <v>22</v>
@@ -13942,8 +13909,8 @@
       <c r="B554">
         <v>2015</v>
       </c>
-      <c r="C554" t="s">
-        <v>15</v>
+      <c r="C554">
+        <v>6</v>
       </c>
       <c r="D554">
         <v>23</v>
@@ -13968,8 +13935,8 @@
       <c r="B555">
         <v>2015</v>
       </c>
-      <c r="C555" t="s">
-        <v>15</v>
+      <c r="C555">
+        <v>6</v>
       </c>
       <c r="D555">
         <v>24</v>
@@ -13994,8 +13961,8 @@
       <c r="B556">
         <v>2015</v>
       </c>
-      <c r="C556" t="s">
-        <v>15</v>
+      <c r="C556">
+        <v>6</v>
       </c>
       <c r="D556">
         <v>25</v>
@@ -14020,8 +13987,8 @@
       <c r="B557">
         <v>2015</v>
       </c>
-      <c r="C557" t="s">
-        <v>15</v>
+      <c r="C557">
+        <v>6</v>
       </c>
       <c r="D557">
         <v>26</v>
@@ -14046,8 +14013,8 @@
       <c r="B558">
         <v>2015</v>
       </c>
-      <c r="C558" t="s">
-        <v>15</v>
+      <c r="C558">
+        <v>6</v>
       </c>
       <c r="D558">
         <v>27</v>
@@ -14072,8 +14039,8 @@
       <c r="B559">
         <v>2015</v>
       </c>
-      <c r="C559" t="s">
-        <v>15</v>
+      <c r="C559">
+        <v>6</v>
       </c>
       <c r="D559">
         <v>28</v>
@@ -14098,8 +14065,8 @@
       <c r="B560">
         <v>2015</v>
       </c>
-      <c r="C560" t="s">
-        <v>15</v>
+      <c r="C560">
+        <v>6</v>
       </c>
       <c r="D560">
         <v>29</v>
@@ -14124,8 +14091,8 @@
       <c r="B561">
         <v>2015</v>
       </c>
-      <c r="C561" t="s">
-        <v>15</v>
+      <c r="C561">
+        <v>6</v>
       </c>
       <c r="D561">
         <v>30</v>
@@ -14150,8 +14117,8 @@
       <c r="B562">
         <v>2015</v>
       </c>
-      <c r="C562" t="s">
-        <v>12</v>
+      <c r="C562">
+        <v>7</v>
       </c>
       <c r="D562">
         <v>1</v>
@@ -14176,8 +14143,8 @@
       <c r="B563">
         <v>2015</v>
       </c>
-      <c r="C563" t="s">
-        <v>12</v>
+      <c r="C563">
+        <v>7</v>
       </c>
       <c r="D563">
         <v>2</v>
@@ -14202,8 +14169,8 @@
       <c r="B564">
         <v>2015</v>
       </c>
-      <c r="C564" t="s">
-        <v>12</v>
+      <c r="C564">
+        <v>7</v>
       </c>
       <c r="D564">
         <v>3</v>
@@ -14228,8 +14195,8 @@
       <c r="B565">
         <v>2015</v>
       </c>
-      <c r="C565" t="s">
-        <v>12</v>
+      <c r="C565">
+        <v>7</v>
       </c>
       <c r="D565">
         <v>4</v>
@@ -14254,8 +14221,8 @@
       <c r="B566">
         <v>2015</v>
       </c>
-      <c r="C566" t="s">
-        <v>12</v>
+      <c r="C566">
+        <v>7</v>
       </c>
       <c r="D566">
         <v>5</v>
@@ -14280,8 +14247,8 @@
       <c r="B567">
         <v>2015</v>
       </c>
-      <c r="C567" t="s">
-        <v>12</v>
+      <c r="C567">
+        <v>7</v>
       </c>
       <c r="D567">
         <v>6</v>
@@ -14306,8 +14273,8 @@
       <c r="B568">
         <v>2015</v>
       </c>
-      <c r="C568" t="s">
-        <v>12</v>
+      <c r="C568">
+        <v>7</v>
       </c>
       <c r="D568">
         <v>7</v>
@@ -14332,8 +14299,8 @@
       <c r="B569">
         <v>2015</v>
       </c>
-      <c r="C569" t="s">
-        <v>12</v>
+      <c r="C569">
+        <v>7</v>
       </c>
       <c r="D569">
         <v>8</v>
@@ -14358,8 +14325,8 @@
       <c r="B570">
         <v>2015</v>
       </c>
-      <c r="C570" t="s">
-        <v>12</v>
+      <c r="C570">
+        <v>7</v>
       </c>
       <c r="D570">
         <v>9</v>
@@ -14384,8 +14351,8 @@
       <c r="B571">
         <v>2015</v>
       </c>
-      <c r="C571" t="s">
-        <v>12</v>
+      <c r="C571">
+        <v>7</v>
       </c>
       <c r="D571">
         <v>10</v>
@@ -14410,8 +14377,8 @@
       <c r="B572">
         <v>2015</v>
       </c>
-      <c r="C572" t="s">
-        <v>12</v>
+      <c r="C572">
+        <v>7</v>
       </c>
       <c r="D572">
         <v>11</v>
@@ -14436,8 +14403,8 @@
       <c r="B573">
         <v>2015</v>
       </c>
-      <c r="C573" t="s">
-        <v>12</v>
+      <c r="C573">
+        <v>7</v>
       </c>
       <c r="D573">
         <v>12</v>
@@ -14462,8 +14429,8 @@
       <c r="B574">
         <v>2015</v>
       </c>
-      <c r="C574" t="s">
-        <v>12</v>
+      <c r="C574">
+        <v>7</v>
       </c>
       <c r="D574">
         <v>13</v>
@@ -14488,8 +14455,8 @@
       <c r="B575">
         <v>2015</v>
       </c>
-      <c r="C575" t="s">
-        <v>12</v>
+      <c r="C575">
+        <v>7</v>
       </c>
       <c r="D575">
         <v>14</v>
@@ -14514,8 +14481,8 @@
       <c r="B576">
         <v>2015</v>
       </c>
-      <c r="C576" t="s">
-        <v>12</v>
+      <c r="C576">
+        <v>7</v>
       </c>
       <c r="D576">
         <v>15</v>
@@ -14540,8 +14507,8 @@
       <c r="B577">
         <v>2015</v>
       </c>
-      <c r="C577" t="s">
-        <v>12</v>
+      <c r="C577">
+        <v>7</v>
       </c>
       <c r="D577">
         <v>16</v>
@@ -14566,8 +14533,8 @@
       <c r="B578">
         <v>2015</v>
       </c>
-      <c r="C578" t="s">
-        <v>12</v>
+      <c r="C578">
+        <v>7</v>
       </c>
       <c r="D578">
         <v>17</v>
@@ -14592,8 +14559,8 @@
       <c r="B579">
         <v>2015</v>
       </c>
-      <c r="C579" t="s">
-        <v>12</v>
+      <c r="C579">
+        <v>7</v>
       </c>
       <c r="D579">
         <v>18</v>
@@ -14618,8 +14585,8 @@
       <c r="B580">
         <v>2015</v>
       </c>
-      <c r="C580" t="s">
-        <v>12</v>
+      <c r="C580">
+        <v>7</v>
       </c>
       <c r="D580">
         <v>19</v>
@@ -14644,8 +14611,8 @@
       <c r="B581">
         <v>2015</v>
       </c>
-      <c r="C581" t="s">
-        <v>12</v>
+      <c r="C581">
+        <v>7</v>
       </c>
       <c r="D581">
         <v>20</v>
@@ -14670,8 +14637,8 @@
       <c r="B582">
         <v>2015</v>
       </c>
-      <c r="C582" t="s">
-        <v>12</v>
+      <c r="C582">
+        <v>7</v>
       </c>
       <c r="D582">
         <v>21</v>
@@ -14696,8 +14663,8 @@
       <c r="B583">
         <v>2015</v>
       </c>
-      <c r="C583" t="s">
-        <v>12</v>
+      <c r="C583">
+        <v>7</v>
       </c>
       <c r="D583">
         <v>22</v>
@@ -14722,8 +14689,8 @@
       <c r="B584">
         <v>2015</v>
       </c>
-      <c r="C584" t="s">
-        <v>12</v>
+      <c r="C584">
+        <v>7</v>
       </c>
       <c r="D584">
         <v>23</v>
@@ -14748,8 +14715,8 @@
       <c r="B585">
         <v>2015</v>
       </c>
-      <c r="C585" t="s">
-        <v>12</v>
+      <c r="C585">
+        <v>7</v>
       </c>
       <c r="D585">
         <v>24</v>
@@ -14774,8 +14741,8 @@
       <c r="B586">
         <v>2015</v>
       </c>
-      <c r="C586" t="s">
-        <v>12</v>
+      <c r="C586">
+        <v>7</v>
       </c>
       <c r="D586">
         <v>25</v>
@@ -14800,8 +14767,8 @@
       <c r="B587">
         <v>2015</v>
       </c>
-      <c r="C587" t="s">
-        <v>12</v>
+      <c r="C587">
+        <v>7</v>
       </c>
       <c r="D587">
         <v>26</v>
@@ -14826,8 +14793,8 @@
       <c r="B588">
         <v>2015</v>
       </c>
-      <c r="C588" t="s">
-        <v>12</v>
+      <c r="C588">
+        <v>7</v>
       </c>
       <c r="D588">
         <v>27</v>
@@ -14852,8 +14819,8 @@
       <c r="B589">
         <v>2015</v>
       </c>
-      <c r="C589" t="s">
-        <v>12</v>
+      <c r="C589">
+        <v>7</v>
       </c>
       <c r="D589">
         <v>28</v>
@@ -14878,8 +14845,8 @@
       <c r="B590">
         <v>2015</v>
       </c>
-      <c r="C590" t="s">
-        <v>12</v>
+      <c r="C590">
+        <v>7</v>
       </c>
       <c r="D590">
         <v>29</v>
@@ -14904,8 +14871,8 @@
       <c r="B591">
         <v>2015</v>
       </c>
-      <c r="C591" t="s">
-        <v>12</v>
+      <c r="C591">
+        <v>7</v>
       </c>
       <c r="D591">
         <v>30</v>
@@ -14930,8 +14897,8 @@
       <c r="B592">
         <v>2015</v>
       </c>
-      <c r="C592" t="s">
-        <v>12</v>
+      <c r="C592">
+        <v>7</v>
       </c>
       <c r="D592">
         <v>31</v>
@@ -14956,8 +14923,8 @@
       <c r="B593">
         <v>2015</v>
       </c>
-      <c r="C593" t="s">
-        <v>13</v>
+      <c r="C593">
+        <v>8</v>
       </c>
       <c r="D593">
         <v>1</v>
@@ -14982,8 +14949,8 @@
       <c r="B594">
         <v>2015</v>
       </c>
-      <c r="C594" t="s">
-        <v>13</v>
+      <c r="C594">
+        <v>8</v>
       </c>
       <c r="D594">
         <v>2</v>
@@ -15008,8 +14975,8 @@
       <c r="B595">
         <v>2015</v>
       </c>
-      <c r="C595" t="s">
-        <v>13</v>
+      <c r="C595">
+        <v>8</v>
       </c>
       <c r="D595">
         <v>3</v>
@@ -15034,8 +15001,8 @@
       <c r="B596">
         <v>2015</v>
       </c>
-      <c r="C596" t="s">
-        <v>13</v>
+      <c r="C596">
+        <v>8</v>
       </c>
       <c r="D596">
         <v>4</v>
@@ -15060,8 +15027,8 @@
       <c r="B597">
         <v>2015</v>
       </c>
-      <c r="C597" t="s">
-        <v>13</v>
+      <c r="C597">
+        <v>8</v>
       </c>
       <c r="D597">
         <v>5</v>
@@ -15086,8 +15053,8 @@
       <c r="B598">
         <v>2015</v>
       </c>
-      <c r="C598" t="s">
-        <v>13</v>
+      <c r="C598">
+        <v>8</v>
       </c>
       <c r="D598">
         <v>6</v>
@@ -15112,8 +15079,8 @@
       <c r="B599">
         <v>2015</v>
       </c>
-      <c r="C599" t="s">
-        <v>13</v>
+      <c r="C599">
+        <v>8</v>
       </c>
       <c r="D599">
         <v>7</v>
@@ -15138,8 +15105,8 @@
       <c r="B600">
         <v>2015</v>
       </c>
-      <c r="C600" t="s">
-        <v>13</v>
+      <c r="C600">
+        <v>8</v>
       </c>
       <c r="D600">
         <v>8</v>
@@ -15164,8 +15131,8 @@
       <c r="B601">
         <v>2015</v>
       </c>
-      <c r="C601" t="s">
-        <v>13</v>
+      <c r="C601">
+        <v>8</v>
       </c>
       <c r="D601">
         <v>9</v>
@@ -15190,8 +15157,8 @@
       <c r="B602">
         <v>2015</v>
       </c>
-      <c r="C602" t="s">
-        <v>13</v>
+      <c r="C602">
+        <v>8</v>
       </c>
       <c r="D602">
         <v>10</v>
@@ -15216,8 +15183,8 @@
       <c r="B603">
         <v>2015</v>
       </c>
-      <c r="C603" t="s">
-        <v>13</v>
+      <c r="C603">
+        <v>8</v>
       </c>
       <c r="D603">
         <v>11</v>
@@ -15242,8 +15209,8 @@
       <c r="B604">
         <v>2015</v>
       </c>
-      <c r="C604" t="s">
-        <v>13</v>
+      <c r="C604">
+        <v>8</v>
       </c>
       <c r="D604">
         <v>12</v>
@@ -15268,8 +15235,8 @@
       <c r="B605">
         <v>2015</v>
       </c>
-      <c r="C605" t="s">
-        <v>13</v>
+      <c r="C605">
+        <v>8</v>
       </c>
       <c r="D605">
         <v>13</v>
@@ -15294,8 +15261,8 @@
       <c r="B606">
         <v>2015</v>
       </c>
-      <c r="C606" t="s">
-        <v>13</v>
+      <c r="C606">
+        <v>8</v>
       </c>
       <c r="D606">
         <v>14</v>
@@ -15320,8 +15287,8 @@
       <c r="B607">
         <v>2015</v>
       </c>
-      <c r="C607" t="s">
-        <v>13</v>
+      <c r="C607">
+        <v>8</v>
       </c>
       <c r="D607">
         <v>15</v>
@@ -15346,8 +15313,8 @@
       <c r="B608">
         <v>2015</v>
       </c>
-      <c r="C608" t="s">
-        <v>13</v>
+      <c r="C608">
+        <v>8</v>
       </c>
       <c r="D608">
         <v>16</v>
@@ -15372,8 +15339,8 @@
       <c r="B609">
         <v>2015</v>
       </c>
-      <c r="C609" t="s">
-        <v>13</v>
+      <c r="C609">
+        <v>8</v>
       </c>
       <c r="D609">
         <v>17</v>
@@ -15398,8 +15365,8 @@
       <c r="B610">
         <v>2015</v>
       </c>
-      <c r="C610" t="s">
-        <v>13</v>
+      <c r="C610">
+        <v>8</v>
       </c>
       <c r="D610">
         <v>18</v>
@@ -15424,8 +15391,8 @@
       <c r="B611">
         <v>2015</v>
       </c>
-      <c r="C611" t="s">
-        <v>13</v>
+      <c r="C611">
+        <v>8</v>
       </c>
       <c r="D611">
         <v>19</v>
@@ -15450,8 +15417,8 @@
       <c r="B612">
         <v>2015</v>
       </c>
-      <c r="C612" t="s">
-        <v>13</v>
+      <c r="C612">
+        <v>8</v>
       </c>
       <c r="D612">
         <v>20</v>
@@ -15476,8 +15443,8 @@
       <c r="B613">
         <v>2015</v>
       </c>
-      <c r="C613" t="s">
-        <v>13</v>
+      <c r="C613">
+        <v>8</v>
       </c>
       <c r="D613">
         <v>21</v>
@@ -15502,8 +15469,8 @@
       <c r="B614">
         <v>2015</v>
       </c>
-      <c r="C614" t="s">
-        <v>13</v>
+      <c r="C614">
+        <v>8</v>
       </c>
       <c r="D614">
         <v>22</v>
@@ -15528,8 +15495,8 @@
       <c r="B615">
         <v>2015</v>
       </c>
-      <c r="C615" t="s">
-        <v>13</v>
+      <c r="C615">
+        <v>8</v>
       </c>
       <c r="D615">
         <v>23</v>
@@ -15554,8 +15521,8 @@
       <c r="B616">
         <v>2015</v>
       </c>
-      <c r="C616" t="s">
-        <v>13</v>
+      <c r="C616">
+        <v>8</v>
       </c>
       <c r="D616">
         <v>24</v>
@@ -15580,8 +15547,8 @@
       <c r="B617">
         <v>2015</v>
       </c>
-      <c r="C617" t="s">
-        <v>13</v>
+      <c r="C617">
+        <v>8</v>
       </c>
       <c r="D617">
         <v>25</v>
@@ -15606,8 +15573,8 @@
       <c r="B618">
         <v>2015</v>
       </c>
-      <c r="C618" t="s">
-        <v>13</v>
+      <c r="C618">
+        <v>8</v>
       </c>
       <c r="D618">
         <v>26</v>
@@ -15632,8 +15599,8 @@
       <c r="B619">
         <v>2015</v>
       </c>
-      <c r="C619" t="s">
-        <v>13</v>
+      <c r="C619">
+        <v>8</v>
       </c>
       <c r="D619">
         <v>27</v>
@@ -15658,8 +15625,8 @@
       <c r="B620">
         <v>2015</v>
       </c>
-      <c r="C620" t="s">
-        <v>13</v>
+      <c r="C620">
+        <v>8</v>
       </c>
       <c r="D620">
         <v>28</v>
@@ -15684,8 +15651,8 @@
       <c r="B621">
         <v>2015</v>
       </c>
-      <c r="C621" t="s">
-        <v>13</v>
+      <c r="C621">
+        <v>8</v>
       </c>
       <c r="D621">
         <v>29</v>
@@ -15710,8 +15677,8 @@
       <c r="B622">
         <v>2015</v>
       </c>
-      <c r="C622" t="s">
-        <v>13</v>
+      <c r="C622">
+        <v>8</v>
       </c>
       <c r="D622">
         <v>30</v>
@@ -15736,8 +15703,8 @@
       <c r="B623">
         <v>2015</v>
       </c>
-      <c r="C623" t="s">
-        <v>13</v>
+      <c r="C623">
+        <v>8</v>
       </c>
       <c r="D623">
         <v>31</v>
@@ -15762,8 +15729,8 @@
       <c r="B624">
         <v>2015</v>
       </c>
-      <c r="C624" t="s">
-        <v>14</v>
+      <c r="C624">
+        <v>9</v>
       </c>
       <c r="D624">
         <v>1</v>
@@ -15788,8 +15755,8 @@
       <c r="B625">
         <v>2015</v>
       </c>
-      <c r="C625" t="s">
-        <v>14</v>
+      <c r="C625">
+        <v>9</v>
       </c>
       <c r="D625">
         <v>2</v>
@@ -15814,8 +15781,8 @@
       <c r="B626">
         <v>2015</v>
       </c>
-      <c r="C626" t="s">
-        <v>14</v>
+      <c r="C626">
+        <v>9</v>
       </c>
       <c r="D626">
         <v>3</v>
@@ -15840,8 +15807,8 @@
       <c r="B627">
         <v>2015</v>
       </c>
-      <c r="C627" t="s">
-        <v>14</v>
+      <c r="C627">
+        <v>9</v>
       </c>
       <c r="D627">
         <v>4</v>
@@ -15866,8 +15833,8 @@
       <c r="B628">
         <v>2015</v>
       </c>
-      <c r="C628" t="s">
-        <v>14</v>
+      <c r="C628">
+        <v>9</v>
       </c>
       <c r="D628">
         <v>5</v>
@@ -15889,8 +15856,8 @@
       <c r="B629">
         <v>2015</v>
       </c>
-      <c r="C629" t="s">
-        <v>14</v>
+      <c r="C629">
+        <v>9</v>
       </c>
       <c r="D629">
         <v>6</v>
@@ -15912,8 +15879,8 @@
       <c r="B630">
         <v>2015</v>
       </c>
-      <c r="C630" t="s">
-        <v>14</v>
+      <c r="C630">
+        <v>9</v>
       </c>
       <c r="D630">
         <v>7</v>
@@ -15938,8 +15905,8 @@
       <c r="B631">
         <v>2015</v>
       </c>
-      <c r="C631" t="s">
-        <v>14</v>
+      <c r="C631">
+        <v>9</v>
       </c>
       <c r="D631">
         <v>8</v>
@@ -15964,8 +15931,8 @@
       <c r="B632">
         <v>2015</v>
       </c>
-      <c r="C632" t="s">
-        <v>14</v>
+      <c r="C632">
+        <v>9</v>
       </c>
       <c r="D632">
         <v>9</v>
@@ -15990,8 +15957,8 @@
       <c r="B633">
         <v>2015</v>
       </c>
-      <c r="C633" t="s">
-        <v>14</v>
+      <c r="C633">
+        <v>9</v>
       </c>
       <c r="D633">
         <v>10</v>
@@ -16013,8 +15980,8 @@
       <c r="B634">
         <v>2015</v>
       </c>
-      <c r="C634" t="s">
-        <v>14</v>
+      <c r="C634">
+        <v>9</v>
       </c>
       <c r="D634">
         <v>11</v>
@@ -16036,8 +16003,8 @@
       <c r="B635">
         <v>2015</v>
       </c>
-      <c r="C635" t="s">
-        <v>14</v>
+      <c r="C635">
+        <v>9</v>
       </c>
       <c r="D635">
         <v>12</v>
@@ -16062,8 +16029,8 @@
       <c r="B636">
         <v>2015</v>
       </c>
-      <c r="C636" t="s">
-        <v>14</v>
+      <c r="C636">
+        <v>9</v>
       </c>
       <c r="D636">
         <v>13</v>
@@ -16088,8 +16055,8 @@
       <c r="B637">
         <v>2015</v>
       </c>
-      <c r="C637" t="s">
-        <v>14</v>
+      <c r="C637">
+        <v>9</v>
       </c>
       <c r="D637">
         <v>14</v>
@@ -16114,8 +16081,8 @@
       <c r="B638">
         <v>2015</v>
       </c>
-      <c r="C638" t="s">
-        <v>14</v>
+      <c r="C638">
+        <v>9</v>
       </c>
       <c r="D638">
         <v>15</v>
@@ -16140,8 +16107,8 @@
       <c r="B639">
         <v>2015</v>
       </c>
-      <c r="C639" t="s">
-        <v>14</v>
+      <c r="C639">
+        <v>9</v>
       </c>
       <c r="D639">
         <v>16</v>
@@ -16166,8 +16133,8 @@
       <c r="B640">
         <v>2015</v>
       </c>
-      <c r="C640" t="s">
-        <v>14</v>
+      <c r="C640">
+        <v>9</v>
       </c>
       <c r="D640">
         <v>17</v>
@@ -16192,8 +16159,8 @@
       <c r="B641">
         <v>2015</v>
       </c>
-      <c r="C641" t="s">
-        <v>14</v>
+      <c r="C641">
+        <v>9</v>
       </c>
       <c r="D641">
         <v>18</v>
@@ -16218,8 +16185,8 @@
       <c r="B642">
         <v>2015</v>
       </c>
-      <c r="C642" t="s">
-        <v>14</v>
+      <c r="C642">
+        <v>9</v>
       </c>
       <c r="D642">
         <v>19</v>
@@ -16241,8 +16208,8 @@
       <c r="B643">
         <v>2015</v>
       </c>
-      <c r="C643" t="s">
-        <v>14</v>
+      <c r="C643">
+        <v>9</v>
       </c>
       <c r="D643">
         <v>20</v>
@@ -16264,8 +16231,8 @@
       <c r="B644">
         <v>2015</v>
       </c>
-      <c r="C644" t="s">
-        <v>14</v>
+      <c r="C644">
+        <v>9</v>
       </c>
       <c r="D644">
         <v>21</v>
@@ -16290,8 +16257,8 @@
       <c r="B645">
         <v>2015</v>
       </c>
-      <c r="C645" t="s">
-        <v>14</v>
+      <c r="C645">
+        <v>9</v>
       </c>
       <c r="D645">
         <v>22</v>
@@ -16316,8 +16283,8 @@
       <c r="B646">
         <v>2015</v>
       </c>
-      <c r="C646" t="s">
-        <v>14</v>
+      <c r="C646">
+        <v>9</v>
       </c>
       <c r="D646">
         <v>23</v>
@@ -16342,8 +16309,8 @@
       <c r="B647">
         <v>2015</v>
       </c>
-      <c r="C647" t="s">
-        <v>14</v>
+      <c r="C647">
+        <v>9</v>
       </c>
       <c r="D647">
         <v>24</v>
@@ -16368,8 +16335,8 @@
       <c r="B648">
         <v>2015</v>
       </c>
-      <c r="C648" t="s">
-        <v>14</v>
+      <c r="C648">
+        <v>9</v>
       </c>
       <c r="D648">
         <v>25</v>
@@ -16394,8 +16361,8 @@
       <c r="B649">
         <v>2015</v>
       </c>
-      <c r="C649" t="s">
-        <v>14</v>
+      <c r="C649">
+        <v>9</v>
       </c>
       <c r="D649">
         <v>26</v>
@@ -16420,8 +16387,8 @@
       <c r="B650">
         <v>2015</v>
       </c>
-      <c r="C650" t="s">
-        <v>14</v>
+      <c r="C650">
+        <v>9</v>
       </c>
       <c r="D650">
         <v>27</v>
@@ -16446,8 +16413,8 @@
       <c r="B651">
         <v>2015</v>
       </c>
-      <c r="C651" t="s">
-        <v>14</v>
+      <c r="C651">
+        <v>9</v>
       </c>
       <c r="D651">
         <v>28</v>
@@ -16472,8 +16439,8 @@
       <c r="B652">
         <v>2015</v>
       </c>
-      <c r="C652" t="s">
-        <v>14</v>
+      <c r="C652">
+        <v>9</v>
       </c>
       <c r="D652">
         <v>29</v>
@@ -16495,8 +16462,8 @@
       <c r="B653">
         <v>2015</v>
       </c>
-      <c r="C653" t="s">
-        <v>14</v>
+      <c r="C653">
+        <v>9</v>
       </c>
       <c r="D653">
         <v>30</v>
@@ -16515,8 +16482,8 @@
       <c r="B654">
         <v>2015</v>
       </c>
-      <c r="C654" t="s">
-        <v>9</v>
+      <c r="C654">
+        <v>10</v>
       </c>
       <c r="D654">
         <v>1</v>
@@ -16535,8 +16502,8 @@
       <c r="B655">
         <v>2015</v>
       </c>
-      <c r="C655" t="s">
-        <v>9</v>
+      <c r="C655">
+        <v>10</v>
       </c>
       <c r="D655">
         <v>2</v>
@@ -16558,8 +16525,8 @@
       <c r="B656">
         <v>2015</v>
       </c>
-      <c r="C656" t="s">
-        <v>9</v>
+      <c r="C656">
+        <v>10</v>
       </c>
       <c r="D656">
         <v>3</v>
@@ -16581,8 +16548,8 @@
       <c r="B657">
         <v>2015</v>
       </c>
-      <c r="C657" t="s">
-        <v>9</v>
+      <c r="C657">
+        <v>10</v>
       </c>
       <c r="D657">
         <v>4</v>
@@ -16607,8 +16574,8 @@
       <c r="B658">
         <v>2015</v>
       </c>
-      <c r="C658" t="s">
-        <v>9</v>
+      <c r="C658">
+        <v>10</v>
       </c>
       <c r="D658">
         <v>5</v>
@@ -16633,8 +16600,8 @@
       <c r="B659">
         <v>2015</v>
       </c>
-      <c r="C659" t="s">
-        <v>9</v>
+      <c r="C659">
+        <v>10</v>
       </c>
       <c r="D659">
         <v>6</v>
@@ -16659,8 +16626,8 @@
       <c r="B660">
         <v>2015</v>
       </c>
-      <c r="C660" t="s">
-        <v>9</v>
+      <c r="C660">
+        <v>10</v>
       </c>
       <c r="D660">
         <v>7</v>
@@ -16682,8 +16649,8 @@
       <c r="B661">
         <v>2015</v>
       </c>
-      <c r="C661" t="s">
-        <v>9</v>
+      <c r="C661">
+        <v>10</v>
       </c>
       <c r="D661">
         <v>8</v>
@@ -16705,8 +16672,8 @@
       <c r="B662">
         <v>2015</v>
       </c>
-      <c r="C662" t="s">
-        <v>9</v>
+      <c r="C662">
+        <v>10</v>
       </c>
       <c r="D662">
         <v>9</v>
@@ -16728,8 +16695,8 @@
       <c r="B663">
         <v>2015</v>
       </c>
-      <c r="C663" t="s">
-        <v>9</v>
+      <c r="C663">
+        <v>10</v>
       </c>
       <c r="D663">
         <v>10</v>
@@ -16751,8 +16718,8 @@
       <c r="B664">
         <v>2015</v>
       </c>
-      <c r="C664" t="s">
-        <v>9</v>
+      <c r="C664">
+        <v>10</v>
       </c>
       <c r="D664">
         <v>11</v>
@@ -16774,8 +16741,8 @@
       <c r="B665">
         <v>2015</v>
       </c>
-      <c r="C665" t="s">
-        <v>9</v>
+      <c r="C665">
+        <v>10</v>
       </c>
       <c r="D665">
         <v>12</v>
@@ -16797,8 +16764,8 @@
       <c r="B666">
         <v>2015</v>
       </c>
-      <c r="C666" t="s">
-        <v>9</v>
+      <c r="C666">
+        <v>10</v>
       </c>
       <c r="D666">
         <v>13</v>
@@ -16820,8 +16787,8 @@
       <c r="B667">
         <v>2015</v>
       </c>
-      <c r="C667" t="s">
-        <v>9</v>
+      <c r="C667">
+        <v>10</v>
       </c>
       <c r="D667">
         <v>14</v>
@@ -16843,8 +16810,8 @@
       <c r="B668">
         <v>2015</v>
       </c>
-      <c r="C668" t="s">
-        <v>9</v>
+      <c r="C668">
+        <v>10</v>
       </c>
       <c r="D668">
         <v>15</v>
@@ -16863,8 +16830,8 @@
       <c r="B669">
         <v>2015</v>
       </c>
-      <c r="C669" t="s">
-        <v>9</v>
+      <c r="C669">
+        <v>10</v>
       </c>
       <c r="D669">
         <v>16</v>
@@ -16889,8 +16856,8 @@
       <c r="B670">
         <v>2015</v>
       </c>
-      <c r="C670" t="s">
-        <v>9</v>
+      <c r="C670">
+        <v>10</v>
       </c>
       <c r="D670">
         <v>17</v>
@@ -16912,8 +16879,8 @@
       <c r="B671">
         <v>2015</v>
       </c>
-      <c r="C671" t="s">
-        <v>9</v>
+      <c r="C671">
+        <v>10</v>
       </c>
       <c r="D671">
         <v>18</v>
@@ -16935,8 +16902,8 @@
       <c r="B672">
         <v>2015</v>
       </c>
-      <c r="C672" t="s">
-        <v>9</v>
+      <c r="C672">
+        <v>10</v>
       </c>
       <c r="D672">
         <v>19</v>
@@ -16961,8 +16928,8 @@
       <c r="B673">
         <v>2015</v>
       </c>
-      <c r="C673" t="s">
-        <v>9</v>
+      <c r="C673">
+        <v>10</v>
       </c>
       <c r="D673">
         <v>20</v>
@@ -16987,8 +16954,8 @@
       <c r="B674">
         <v>2015</v>
       </c>
-      <c r="C674" t="s">
-        <v>9</v>
+      <c r="C674">
+        <v>10</v>
       </c>
       <c r="D674">
         <v>21</v>
@@ -17013,8 +16980,8 @@
       <c r="B675">
         <v>2015</v>
       </c>
-      <c r="C675" t="s">
-        <v>9</v>
+      <c r="C675">
+        <v>10</v>
       </c>
       <c r="D675">
         <v>22</v>
@@ -17039,8 +17006,8 @@
       <c r="B676">
         <v>2015</v>
       </c>
-      <c r="C676" t="s">
-        <v>9</v>
+      <c r="C676">
+        <v>10</v>
       </c>
       <c r="D676">
         <v>23</v>
@@ -17065,8 +17032,8 @@
       <c r="B677">
         <v>2015</v>
       </c>
-      <c r="C677" t="s">
-        <v>9</v>
+      <c r="C677">
+        <v>10</v>
       </c>
       <c r="D677">
         <v>24</v>
@@ -17091,8 +17058,8 @@
       <c r="B678">
         <v>2015</v>
       </c>
-      <c r="C678" t="s">
-        <v>9</v>
+      <c r="C678">
+        <v>10</v>
       </c>
       <c r="D678">
         <v>25</v>
@@ -17117,8 +17084,8 @@
       <c r="B679">
         <v>2015</v>
       </c>
-      <c r="C679" t="s">
-        <v>9</v>
+      <c r="C679">
+        <v>10</v>
       </c>
       <c r="D679">
         <v>26</v>
@@ -17143,8 +17110,8 @@
       <c r="B680">
         <v>2015</v>
       </c>
-      <c r="C680" t="s">
-        <v>9</v>
+      <c r="C680">
+        <v>10</v>
       </c>
       <c r="D680">
         <v>27</v>
@@ -17169,8 +17136,8 @@
       <c r="B681">
         <v>2015</v>
       </c>
-      <c r="C681" t="s">
-        <v>9</v>
+      <c r="C681">
+        <v>10</v>
       </c>
       <c r="D681">
         <v>28</v>
@@ -17192,8 +17159,8 @@
       <c r="B682">
         <v>2015</v>
       </c>
-      <c r="C682" t="s">
-        <v>9</v>
+      <c r="C682">
+        <v>10</v>
       </c>
       <c r="D682">
         <v>29</v>
@@ -17215,8 +17182,8 @@
       <c r="B683">
         <v>2015</v>
       </c>
-      <c r="C683" t="s">
-        <v>9</v>
+      <c r="C683">
+        <v>10</v>
       </c>
       <c r="D683">
         <v>30</v>
@@ -17235,8 +17202,8 @@
       <c r="B684">
         <v>2015</v>
       </c>
-      <c r="C684" t="s">
-        <v>9</v>
+      <c r="C684">
+        <v>10</v>
       </c>
       <c r="D684">
         <v>31</v>
@@ -17255,8 +17222,8 @@
       <c r="B685">
         <v>2015</v>
       </c>
-      <c r="C685" t="s">
-        <v>8</v>
+      <c r="C685">
+        <v>11</v>
       </c>
       <c r="D685">
         <v>1</v>
@@ -17281,8 +17248,8 @@
       <c r="B686">
         <v>2015</v>
       </c>
-      <c r="C686" t="s">
-        <v>8</v>
+      <c r="C686">
+        <v>11</v>
       </c>
       <c r="D686">
         <v>2</v>
@@ -17307,8 +17274,8 @@
       <c r="B687">
         <v>2015</v>
       </c>
-      <c r="C687" t="s">
-        <v>8</v>
+      <c r="C687">
+        <v>11</v>
       </c>
       <c r="D687">
         <v>3</v>
@@ -17333,8 +17300,8 @@
       <c r="B688">
         <v>2015</v>
       </c>
-      <c r="C688" t="s">
-        <v>8</v>
+      <c r="C688">
+        <v>11</v>
       </c>
       <c r="D688">
         <v>4</v>
@@ -17359,8 +17326,8 @@
       <c r="B689">
         <v>2015</v>
       </c>
-      <c r="C689" t="s">
-        <v>8</v>
+      <c r="C689">
+        <v>11</v>
       </c>
       <c r="D689">
         <v>5</v>
@@ -17385,8 +17352,8 @@
       <c r="B690">
         <v>2015</v>
       </c>
-      <c r="C690" t="s">
-        <v>8</v>
+      <c r="C690">
+        <v>11</v>
       </c>
       <c r="D690">
         <v>6</v>
@@ -17411,8 +17378,8 @@
       <c r="B691">
         <v>2015</v>
       </c>
-      <c r="C691" t="s">
-        <v>8</v>
+      <c r="C691">
+        <v>11</v>
       </c>
       <c r="D691">
         <v>7</v>
@@ -17434,8 +17401,8 @@
       <c r="B692">
         <v>2015</v>
       </c>
-      <c r="C692" t="s">
-        <v>8</v>
+      <c r="C692">
+        <v>11</v>
       </c>
       <c r="D692">
         <v>8</v>
@@ -17457,8 +17424,8 @@
       <c r="B693">
         <v>2015</v>
       </c>
-      <c r="C693" t="s">
-        <v>8</v>
+      <c r="C693">
+        <v>11</v>
       </c>
       <c r="D693">
         <v>9</v>
@@ -17480,8 +17447,8 @@
       <c r="B694">
         <v>2015</v>
       </c>
-      <c r="C694" t="s">
-        <v>8</v>
+      <c r="C694">
+        <v>11</v>
       </c>
       <c r="D694">
         <v>10</v>
@@ -17503,8 +17470,8 @@
       <c r="B695">
         <v>2015</v>
       </c>
-      <c r="C695" t="s">
-        <v>8</v>
+      <c r="C695">
+        <v>11</v>
       </c>
       <c r="D695">
         <v>11</v>
@@ -17526,8 +17493,8 @@
       <c r="B696">
         <v>2015</v>
       </c>
-      <c r="C696" t="s">
-        <v>8</v>
+      <c r="C696">
+        <v>11</v>
       </c>
       <c r="D696">
         <v>12</v>
@@ -17549,8 +17516,8 @@
       <c r="B697">
         <v>2015</v>
       </c>
-      <c r="C697" t="s">
-        <v>8</v>
+      <c r="C697">
+        <v>11</v>
       </c>
       <c r="D697">
         <v>13</v>
@@ -17575,8 +17542,8 @@
       <c r="B698">
         <v>2015</v>
       </c>
-      <c r="C698" t="s">
-        <v>8</v>
+      <c r="C698">
+        <v>11</v>
       </c>
       <c r="D698">
         <v>14</v>
@@ -17601,8 +17568,8 @@
       <c r="B699">
         <v>2015</v>
       </c>
-      <c r="C699" t="s">
-        <v>8</v>
+      <c r="C699">
+        <v>11</v>
       </c>
       <c r="D699">
         <v>15</v>
@@ -17627,8 +17594,8 @@
       <c r="B700">
         <v>2015</v>
       </c>
-      <c r="C700" t="s">
-        <v>8</v>
+      <c r="C700">
+        <v>11</v>
       </c>
       <c r="D700">
         <v>16</v>
@@ -17650,8 +17617,8 @@
       <c r="B701">
         <v>2015</v>
       </c>
-      <c r="C701" t="s">
-        <v>8</v>
+      <c r="C701">
+        <v>11</v>
       </c>
       <c r="D701">
         <v>17</v>
@@ -17670,8 +17637,8 @@
       <c r="B702">
         <v>2015</v>
       </c>
-      <c r="C702" t="s">
-        <v>8</v>
+      <c r="C702">
+        <v>11</v>
       </c>
       <c r="D702">
         <v>18</v>
@@ -17690,8 +17657,8 @@
       <c r="B703">
         <v>2015</v>
       </c>
-      <c r="C703" t="s">
-        <v>8</v>
+      <c r="C703">
+        <v>11</v>
       </c>
       <c r="D703">
         <v>19</v>
@@ -17713,8 +17680,8 @@
       <c r="B704">
         <v>2015</v>
       </c>
-      <c r="C704" t="s">
-        <v>8</v>
+      <c r="C704">
+        <v>11</v>
       </c>
       <c r="D704">
         <v>20</v>
@@ -17739,8 +17706,8 @@
       <c r="B705">
         <v>2015</v>
       </c>
-      <c r="C705" t="s">
-        <v>8</v>
+      <c r="C705">
+        <v>11</v>
       </c>
       <c r="D705">
         <v>21</v>
@@ -17765,8 +17732,8 @@
       <c r="B706">
         <v>2015</v>
       </c>
-      <c r="C706" t="s">
-        <v>8</v>
+      <c r="C706">
+        <v>11</v>
       </c>
       <c r="D706">
         <v>22</v>
@@ -17785,8 +17752,8 @@
       <c r="B707">
         <v>2015</v>
       </c>
-      <c r="C707" t="s">
-        <v>8</v>
+      <c r="C707">
+        <v>11</v>
       </c>
       <c r="D707">
         <v>23</v>
@@ -17805,8 +17772,8 @@
       <c r="B708">
         <v>2015</v>
       </c>
-      <c r="C708" t="s">
-        <v>8</v>
+      <c r="C708">
+        <v>11</v>
       </c>
       <c r="D708">
         <v>24</v>
@@ -17825,8 +17792,8 @@
       <c r="B709">
         <v>2015</v>
       </c>
-      <c r="C709" t="s">
-        <v>8</v>
+      <c r="C709">
+        <v>11</v>
       </c>
       <c r="D709">
         <v>25</v>
@@ -17845,8 +17812,8 @@
       <c r="B710">
         <v>2016</v>
       </c>
-      <c r="C710" t="s">
-        <v>17</v>
+      <c r="C710">
+        <v>3</v>
       </c>
       <c r="D710">
         <v>9</v>
@@ -17865,8 +17832,8 @@
       <c r="B711">
         <v>2016</v>
       </c>
-      <c r="C711" t="s">
-        <v>17</v>
+      <c r="C711">
+        <v>3</v>
       </c>
       <c r="D711">
         <v>10</v>
@@ -17885,8 +17852,8 @@
       <c r="B712">
         <v>2016</v>
       </c>
-      <c r="C712" t="s">
-        <v>17</v>
+      <c r="C712">
+        <v>3</v>
       </c>
       <c r="D712">
         <v>11</v>
@@ -17908,8 +17875,8 @@
       <c r="B713">
         <v>2016</v>
       </c>
-      <c r="C713" t="s">
-        <v>17</v>
+      <c r="C713">
+        <v>3</v>
       </c>
       <c r="D713">
         <v>12</v>
@@ -17931,8 +17898,8 @@
       <c r="B714">
         <v>2016</v>
       </c>
-      <c r="C714" t="s">
-        <v>17</v>
+      <c r="C714">
+        <v>3</v>
       </c>
       <c r="D714">
         <v>13</v>
@@ -17954,8 +17921,8 @@
       <c r="B715">
         <v>2016</v>
       </c>
-      <c r="C715" t="s">
-        <v>17</v>
+      <c r="C715">
+        <v>3</v>
       </c>
       <c r="D715">
         <v>14</v>
@@ -17977,8 +17944,8 @@
       <c r="B716">
         <v>2016</v>
       </c>
-      <c r="C716" t="s">
-        <v>17</v>
+      <c r="C716">
+        <v>3</v>
       </c>
       <c r="D716">
         <v>15</v>
@@ -17997,8 +17964,8 @@
       <c r="B717">
         <v>2016</v>
       </c>
-      <c r="C717" t="s">
-        <v>17</v>
+      <c r="C717">
+        <v>3</v>
       </c>
       <c r="D717">
         <v>16</v>
@@ -18017,8 +17984,8 @@
       <c r="B718">
         <v>2016</v>
       </c>
-      <c r="C718" t="s">
-        <v>17</v>
+      <c r="C718">
+        <v>3</v>
       </c>
       <c r="D718">
         <v>17</v>
@@ -18037,8 +18004,8 @@
       <c r="B719">
         <v>2016</v>
       </c>
-      <c r="C719" t="s">
-        <v>17</v>
+      <c r="C719">
+        <v>3</v>
       </c>
       <c r="D719">
         <v>18</v>
@@ -18057,8 +18024,8 @@
       <c r="B720">
         <v>2016</v>
       </c>
-      <c r="C720" t="s">
-        <v>17</v>
+      <c r="C720">
+        <v>3</v>
       </c>
       <c r="D720">
         <v>19</v>
@@ -18077,8 +18044,8 @@
       <c r="B721">
         <v>2016</v>
       </c>
-      <c r="C721" t="s">
-        <v>17</v>
+      <c r="C721">
+        <v>3</v>
       </c>
       <c r="D721">
         <v>20</v>
@@ -18097,8 +18064,8 @@
       <c r="B722">
         <v>2016</v>
       </c>
-      <c r="C722" t="s">
-        <v>17</v>
+      <c r="C722">
+        <v>3</v>
       </c>
       <c r="D722">
         <v>21</v>
@@ -18117,8 +18084,8 @@
       <c r="B723">
         <v>2016</v>
       </c>
-      <c r="C723" t="s">
-        <v>17</v>
+      <c r="C723">
+        <v>3</v>
       </c>
       <c r="D723">
         <v>22</v>
@@ -18137,8 +18104,8 @@
       <c r="B724">
         <v>2016</v>
       </c>
-      <c r="C724" t="s">
-        <v>17</v>
+      <c r="C724">
+        <v>3</v>
       </c>
       <c r="D724">
         <v>23</v>
@@ -18157,8 +18124,8 @@
       <c r="B725">
         <v>2016</v>
       </c>
-      <c r="C725" t="s">
-        <v>17</v>
+      <c r="C725">
+        <v>3</v>
       </c>
       <c r="D725">
         <v>24</v>
@@ -18177,8 +18144,8 @@
       <c r="B726">
         <v>2016</v>
       </c>
-      <c r="C726" t="s">
-        <v>17</v>
+      <c r="C726">
+        <v>3</v>
       </c>
       <c r="D726">
         <v>25</v>
@@ -18197,8 +18164,8 @@
       <c r="B727">
         <v>2016</v>
       </c>
-      <c r="C727" t="s">
-        <v>17</v>
+      <c r="C727">
+        <v>3</v>
       </c>
       <c r="D727">
         <v>26</v>
@@ -18220,8 +18187,8 @@
       <c r="B728">
         <v>2016</v>
       </c>
-      <c r="C728" t="s">
-        <v>17</v>
+      <c r="C728">
+        <v>3</v>
       </c>
       <c r="D728">
         <v>27</v>
@@ -18243,8 +18210,8 @@
       <c r="B729">
         <v>2016</v>
       </c>
-      <c r="C729" t="s">
-        <v>17</v>
+      <c r="C729">
+        <v>3</v>
       </c>
       <c r="D729">
         <v>28</v>
@@ -18266,8 +18233,8 @@
       <c r="B730">
         <v>2016</v>
       </c>
-      <c r="C730" t="s">
-        <v>17</v>
+      <c r="C730">
+        <v>3</v>
       </c>
       <c r="D730">
         <v>29</v>
@@ -18286,8 +18253,8 @@
       <c r="B731">
         <v>2016</v>
       </c>
-      <c r="C731" t="s">
-        <v>17</v>
+      <c r="C731">
+        <v>3</v>
       </c>
       <c r="D731">
         <v>30</v>
@@ -18306,8 +18273,8 @@
       <c r="B732">
         <v>2016</v>
       </c>
-      <c r="C732" t="s">
-        <v>17</v>
+      <c r="C732">
+        <v>3</v>
       </c>
       <c r="D732">
         <v>31</v>
@@ -18326,8 +18293,8 @@
       <c r="B733">
         <v>2016</v>
       </c>
-      <c r="C733" t="s">
-        <v>18</v>
+      <c r="C733">
+        <v>4</v>
       </c>
       <c r="D733">
         <v>1</v>
@@ -18346,8 +18313,8 @@
       <c r="B734">
         <v>2016</v>
       </c>
-      <c r="C734" t="s">
-        <v>18</v>
+      <c r="C734">
+        <v>4</v>
       </c>
       <c r="D734">
         <v>2</v>
@@ -18366,8 +18333,8 @@
       <c r="B735">
         <v>2016</v>
       </c>
-      <c r="C735" t="s">
-        <v>18</v>
+      <c r="C735">
+        <v>4</v>
       </c>
       <c r="D735">
         <v>3</v>
@@ -18386,8 +18353,8 @@
       <c r="B736">
         <v>2016</v>
       </c>
-      <c r="C736" t="s">
-        <v>18</v>
+      <c r="C736">
+        <v>4</v>
       </c>
       <c r="D736">
         <v>4</v>
@@ -18406,8 +18373,8 @@
       <c r="B737">
         <v>2016</v>
       </c>
-      <c r="C737" t="s">
-        <v>18</v>
+      <c r="C737">
+        <v>4</v>
       </c>
       <c r="D737">
         <v>5</v>
@@ -18429,8 +18396,8 @@
       <c r="B738">
         <v>2016</v>
       </c>
-      <c r="C738" t="s">
-        <v>18</v>
+      <c r="C738">
+        <v>4</v>
       </c>
       <c r="D738">
         <v>6</v>
@@ -18452,8 +18419,8 @@
       <c r="B739">
         <v>2017</v>
       </c>
-      <c r="C739" t="s">
-        <v>17</v>
+      <c r="C739">
+        <v>3</v>
       </c>
       <c r="D739">
         <v>5</v>
@@ -18475,8 +18442,8 @@
       <c r="B740">
         <v>2017</v>
       </c>
-      <c r="C740" t="s">
-        <v>17</v>
+      <c r="C740">
+        <v>3</v>
       </c>
       <c r="D740">
         <v>6</v>
@@ -18495,8 +18462,8 @@
       <c r="B741">
         <v>2017</v>
       </c>
-      <c r="C741" t="s">
-        <v>17</v>
+      <c r="C741">
+        <v>3</v>
       </c>
       <c r="D741">
         <v>7</v>
@@ -18515,8 +18482,8 @@
       <c r="B742">
         <v>2017</v>
       </c>
-      <c r="C742" t="s">
-        <v>17</v>
+      <c r="C742">
+        <v>3</v>
       </c>
       <c r="D742">
         <v>8</v>
@@ -18535,8 +18502,8 @@
       <c r="B743">
         <v>2017</v>
       </c>
-      <c r="C743" t="s">
-        <v>17</v>
+      <c r="C743">
+        <v>3</v>
       </c>
       <c r="D743">
         <v>9</v>
@@ -18558,8 +18525,8 @@
       <c r="B744">
         <v>2017</v>
       </c>
-      <c r="C744" t="s">
-        <v>17</v>
+      <c r="C744">
+        <v>3</v>
       </c>
       <c r="D744">
         <v>10</v>
@@ -18584,8 +18551,8 @@
       <c r="B745">
         <v>2017</v>
       </c>
-      <c r="C745" t="s">
-        <v>17</v>
+      <c r="C745">
+        <v>3</v>
       </c>
       <c r="D745">
         <v>11</v>
@@ -18610,8 +18577,8 @@
       <c r="B746">
         <v>2017</v>
       </c>
-      <c r="C746" t="s">
-        <v>17</v>
+      <c r="C746">
+        <v>3</v>
       </c>
       <c r="D746">
         <v>12</v>
@@ -18633,8 +18600,8 @@
       <c r="B747">
         <v>2017</v>
       </c>
-      <c r="C747" t="s">
-        <v>17</v>
+      <c r="C747">
+        <v>3</v>
       </c>
       <c r="D747">
         <v>13</v>
@@ -18653,8 +18620,8 @@
       <c r="B748">
         <v>2017</v>
       </c>
-      <c r="C748" t="s">
-        <v>17</v>
+      <c r="C748">
+        <v>3</v>
       </c>
       <c r="D748">
         <v>14</v>
@@ -18673,8 +18640,8 @@
       <c r="B749">
         <v>2017</v>
       </c>
-      <c r="C749" t="s">
-        <v>17</v>
+      <c r="C749">
+        <v>3</v>
       </c>
       <c r="D749">
         <v>15</v>
@@ -18693,8 +18660,8 @@
       <c r="B750">
         <v>2017</v>
       </c>
-      <c r="C750" t="s">
-        <v>17</v>
+      <c r="C750">
+        <v>3</v>
       </c>
       <c r="D750">
         <v>16</v>
@@ -18716,8 +18683,8 @@
       <c r="B751">
         <v>2017</v>
       </c>
-      <c r="C751" t="s">
-        <v>17</v>
+      <c r="C751">
+        <v>3</v>
       </c>
       <c r="D751">
         <v>17</v>
@@ -18736,8 +18703,8 @@
       <c r="B752">
         <v>2017</v>
       </c>
-      <c r="C752" t="s">
-        <v>17</v>
+      <c r="C752">
+        <v>3</v>
       </c>
       <c r="D752">
         <v>18</v>
@@ -18756,8 +18723,8 @@
       <c r="B753">
         <v>2017</v>
       </c>
-      <c r="C753" t="s">
-        <v>17</v>
+      <c r="C753">
+        <v>3</v>
       </c>
       <c r="D753">
         <v>19</v>
@@ -18779,8 +18746,8 @@
       <c r="B754">
         <v>2017</v>
       </c>
-      <c r="C754" t="s">
-        <v>17</v>
+      <c r="C754">
+        <v>3</v>
       </c>
       <c r="D754">
         <v>20</v>
@@ -18802,8 +18769,8 @@
       <c r="B755">
         <v>2017</v>
       </c>
-      <c r="C755" t="s">
-        <v>17</v>
+      <c r="C755">
+        <v>3</v>
       </c>
       <c r="D755">
         <v>21</v>
@@ -18825,8 +18792,8 @@
       <c r="B756">
         <v>2017</v>
       </c>
-      <c r="C756" t="s">
-        <v>17</v>
+      <c r="C756">
+        <v>3</v>
       </c>
       <c r="D756">
         <v>22</v>
@@ -18845,8 +18812,8 @@
       <c r="B757">
         <v>2018</v>
       </c>
-      <c r="C757" t="s">
-        <v>15</v>
+      <c r="C757">
+        <v>6</v>
       </c>
       <c r="D757">
         <v>4</v>
@@ -18871,8 +18838,8 @@
       <c r="B758">
         <v>2018</v>
       </c>
-      <c r="C758" t="s">
-        <v>15</v>
+      <c r="C758">
+        <v>6</v>
       </c>
       <c r="D758">
         <v>5</v>
@@ -18897,8 +18864,8 @@
       <c r="B759">
         <v>2018</v>
       </c>
-      <c r="C759" t="s">
-        <v>15</v>
+      <c r="C759">
+        <v>6</v>
       </c>
       <c r="D759">
         <v>6</v>
@@ -18923,8 +18890,8 @@
       <c r="B760">
         <v>2018</v>
       </c>
-      <c r="C760" t="s">
-        <v>15</v>
+      <c r="C760">
+        <v>6</v>
       </c>
       <c r="D760">
         <v>7</v>
@@ -18949,8 +18916,8 @@
       <c r="B761">
         <v>2018</v>
       </c>
-      <c r="C761" t="s">
-        <v>15</v>
+      <c r="C761">
+        <v>6</v>
       </c>
       <c r="D761">
         <v>8</v>
@@ -18975,8 +18942,8 @@
       <c r="B762">
         <v>2018</v>
       </c>
-      <c r="C762" t="s">
-        <v>15</v>
+      <c r="C762">
+        <v>6</v>
       </c>
       <c r="D762">
         <v>9</v>
@@ -19001,8 +18968,8 @@
       <c r="B763">
         <v>2018</v>
       </c>
-      <c r="C763" t="s">
-        <v>15</v>
+      <c r="C763">
+        <v>6</v>
       </c>
       <c r="D763">
         <v>10</v>
@@ -19027,8 +18994,8 @@
       <c r="B764">
         <v>2018</v>
       </c>
-      <c r="C764" t="s">
-        <v>15</v>
+      <c r="C764">
+        <v>6</v>
       </c>
       <c r="D764">
         <v>11</v>
@@ -19053,8 +19020,8 @@
       <c r="B765">
         <v>2018</v>
       </c>
-      <c r="C765" t="s">
-        <v>15</v>
+      <c r="C765">
+        <v>6</v>
       </c>
       <c r="D765">
         <v>12</v>
@@ -19079,8 +19046,8 @@
       <c r="B766">
         <v>2018</v>
       </c>
-      <c r="C766" t="s">
-        <v>15</v>
+      <c r="C766">
+        <v>6</v>
       </c>
       <c r="D766">
         <v>13</v>
@@ -19105,8 +19072,8 @@
       <c r="B767">
         <v>2018</v>
       </c>
-      <c r="C767" t="s">
-        <v>15</v>
+      <c r="C767">
+        <v>6</v>
       </c>
       <c r="D767">
         <v>14</v>
@@ -19131,8 +19098,8 @@
       <c r="B768">
         <v>2018</v>
       </c>
-      <c r="C768" t="s">
-        <v>15</v>
+      <c r="C768">
+        <v>6</v>
       </c>
       <c r="D768">
         <v>15</v>
@@ -19157,8 +19124,8 @@
       <c r="B769">
         <v>2018</v>
       </c>
-      <c r="C769" t="s">
-        <v>15</v>
+      <c r="C769">
+        <v>6</v>
       </c>
       <c r="D769">
         <v>16</v>
@@ -19183,8 +19150,8 @@
       <c r="B770">
         <v>2018</v>
       </c>
-      <c r="C770" t="s">
-        <v>15</v>
+      <c r="C770">
+        <v>6</v>
       </c>
       <c r="D770">
         <v>17</v>
@@ -19209,8 +19176,8 @@
       <c r="B771">
         <v>2018</v>
       </c>
-      <c r="C771" t="s">
-        <v>15</v>
+      <c r="C771">
+        <v>6</v>
       </c>
       <c r="D771">
         <v>18</v>
@@ -19235,8 +19202,8 @@
       <c r="B772">
         <v>2018</v>
       </c>
-      <c r="C772" t="s">
-        <v>15</v>
+      <c r="C772">
+        <v>6</v>
       </c>
       <c r="D772">
         <v>19</v>
@@ -19261,8 +19228,8 @@
       <c r="B773">
         <v>2018</v>
       </c>
-      <c r="C773" t="s">
-        <v>15</v>
+      <c r="C773">
+        <v>6</v>
       </c>
       <c r="D773">
         <v>20</v>
@@ -19287,8 +19254,8 @@
       <c r="B774">
         <v>2018</v>
       </c>
-      <c r="C774" t="s">
-        <v>15</v>
+      <c r="C774">
+        <v>6</v>
       </c>
       <c r="D774">
         <v>21</v>
@@ -19313,8 +19280,8 @@
       <c r="B775">
         <v>2018</v>
       </c>
-      <c r="C775" t="s">
-        <v>15</v>
+      <c r="C775">
+        <v>6</v>
       </c>
       <c r="D775">
         <v>22</v>
@@ -19339,8 +19306,8 @@
       <c r="B776">
         <v>2018</v>
       </c>
-      <c r="C776" t="s">
-        <v>15</v>
+      <c r="C776">
+        <v>6</v>
       </c>
       <c r="D776">
         <v>23</v>
@@ -19365,8 +19332,8 @@
       <c r="B777">
         <v>2018</v>
       </c>
-      <c r="C777" t="s">
-        <v>15</v>
+      <c r="C777">
+        <v>6</v>
       </c>
       <c r="D777">
         <v>24</v>
@@ -19391,8 +19358,8 @@
       <c r="B778">
         <v>2018</v>
       </c>
-      <c r="C778" t="s">
-        <v>15</v>
+      <c r="C778">
+        <v>6</v>
       </c>
       <c r="D778">
         <v>25</v>
@@ -19417,8 +19384,8 @@
       <c r="B779">
         <v>2018</v>
       </c>
-      <c r="C779" t="s">
-        <v>15</v>
+      <c r="C779">
+        <v>6</v>
       </c>
       <c r="D779">
         <v>26</v>
@@ -19443,8 +19410,8 @@
       <c r="B780">
         <v>2018</v>
       </c>
-      <c r="C780" t="s">
-        <v>15</v>
+      <c r="C780">
+        <v>6</v>
       </c>
       <c r="D780">
         <v>27</v>
@@ -19469,8 +19436,8 @@
       <c r="B781">
         <v>2018</v>
       </c>
-      <c r="C781" t="s">
-        <v>15</v>
+      <c r="C781">
+        <v>6</v>
       </c>
       <c r="D781">
         <v>28</v>
@@ -19495,8 +19462,8 @@
       <c r="B782">
         <v>2018</v>
       </c>
-      <c r="C782" t="s">
-        <v>15</v>
+      <c r="C782">
+        <v>6</v>
       </c>
       <c r="D782">
         <v>29</v>
@@ -19521,8 +19488,8 @@
       <c r="B783">
         <v>2018</v>
       </c>
-      <c r="C783" t="s">
-        <v>15</v>
+      <c r="C783">
+        <v>6</v>
       </c>
       <c r="D783">
         <v>30</v>
@@ -19547,8 +19514,8 @@
       <c r="B784">
         <v>2018</v>
       </c>
-      <c r="C784" t="s">
-        <v>12</v>
+      <c r="C784">
+        <v>7</v>
       </c>
       <c r="D784">
         <v>1</v>
@@ -19573,8 +19540,8 @@
       <c r="B785">
         <v>2018</v>
       </c>
-      <c r="C785" t="s">
-        <v>12</v>
+      <c r="C785">
+        <v>7</v>
       </c>
       <c r="D785">
         <v>2</v>
@@ -19599,8 +19566,8 @@
       <c r="B786">
         <v>2018</v>
       </c>
-      <c r="C786" t="s">
-        <v>12</v>
+      <c r="C786">
+        <v>7</v>
       </c>
       <c r="D786">
         <v>3</v>
@@ -19625,8 +19592,8 @@
       <c r="B787">
         <v>2018</v>
       </c>
-      <c r="C787" t="s">
-        <v>12</v>
+      <c r="C787">
+        <v>7</v>
       </c>
       <c r="D787">
         <v>4</v>
@@ -19651,8 +19618,8 @@
       <c r="B788">
         <v>2018</v>
       </c>
-      <c r="C788" t="s">
-        <v>12</v>
+      <c r="C788">
+        <v>7</v>
       </c>
       <c r="D788">
         <v>5</v>
@@ -19677,8 +19644,8 @@
       <c r="B789">
         <v>2018</v>
       </c>
-      <c r="C789" t="s">
-        <v>12</v>
+      <c r="C789">
+        <v>7</v>
       </c>
       <c r="D789">
         <v>6</v>
@@ -19703,8 +19670,8 @@
       <c r="B790">
         <v>2018</v>
       </c>
-      <c r="C790" t="s">
-        <v>12</v>
+      <c r="C790">
+        <v>7</v>
       </c>
       <c r="D790">
         <v>7</v>
@@ -19729,8 +19696,8 @@
       <c r="B791">
         <v>2018</v>
       </c>
-      <c r="C791" t="s">
-        <v>12</v>
+      <c r="C791">
+        <v>7</v>
       </c>
       <c r="D791">
         <v>8</v>
@@ -19755,8 +19722,8 @@
       <c r="B792">
         <v>2018</v>
       </c>
-      <c r="C792" t="s">
-        <v>12</v>
+      <c r="C792">
+        <v>7</v>
       </c>
       <c r="D792">
         <v>9</v>
@@ -19781,8 +19748,8 @@
       <c r="B793">
         <v>2018</v>
       </c>
-      <c r="C793" t="s">
-        <v>12</v>
+      <c r="C793">
+        <v>7</v>
       </c>
       <c r="D793">
         <v>10</v>
@@ -19807,8 +19774,8 @@
       <c r="B794">
         <v>2018</v>
       </c>
-      <c r="C794" t="s">
-        <v>12</v>
+      <c r="C794">
+        <v>7</v>
       </c>
       <c r="D794">
         <v>11</v>
@@ -19833,8 +19800,8 @@
       <c r="B795">
         <v>2018</v>
       </c>
-      <c r="C795" t="s">
-        <v>12</v>
+      <c r="C795">
+        <v>7</v>
       </c>
       <c r="D795">
         <v>12</v>
@@ -19859,8 +19826,8 @@
       <c r="B796">
         <v>2018</v>
       </c>
-      <c r="C796" t="s">
-        <v>12</v>
+      <c r="C796">
+        <v>7</v>
       </c>
       <c r="D796">
         <v>13</v>
@@ -19885,8 +19852,8 @@
       <c r="B797">
         <v>2018</v>
       </c>
-      <c r="C797" t="s">
-        <v>12</v>
+      <c r="C797">
+        <v>7</v>
       </c>
       <c r="D797">
         <v>14</v>
@@ -19911,8 +19878,8 @@
       <c r="B798">
         <v>2018</v>
       </c>
-      <c r="C798" t="s">
-        <v>12</v>
+      <c r="C798">
+        <v>7</v>
       </c>
       <c r="D798">
         <v>15</v>
@@ -19937,8 +19904,8 @@
       <c r="B799">
         <v>2018</v>
       </c>
-      <c r="C799" t="s">
-        <v>12</v>
+      <c r="C799">
+        <v>7</v>
       </c>
       <c r="D799">
         <v>16</v>
@@ -19963,8 +19930,8 @@
       <c r="B800">
         <v>2018</v>
       </c>
-      <c r="C800" t="s">
-        <v>12</v>
+      <c r="C800">
+        <v>7</v>
       </c>
       <c r="D800">
         <v>17</v>
@@ -19989,8 +19956,8 @@
       <c r="B801">
         <v>2018</v>
       </c>
-      <c r="C801" t="s">
-        <v>12</v>
+      <c r="C801">
+        <v>7</v>
       </c>
       <c r="D801">
         <v>18</v>
@@ -20015,8 +19982,8 @@
       <c r="B802">
         <v>2018</v>
       </c>
-      <c r="C802" t="s">
-        <v>12</v>
+      <c r="C802">
+        <v>7</v>
       </c>
       <c r="D802">
         <v>19</v>
@@ -20041,8 +20008,8 @@
       <c r="B803">
         <v>2018</v>
       </c>
-      <c r="C803" t="s">
-        <v>12</v>
+      <c r="C803">
+        <v>7</v>
       </c>
       <c r="D803">
         <v>20</v>
@@ -20067,8 +20034,8 @@
       <c r="B804">
         <v>2018</v>
       </c>
-      <c r="C804" t="s">
-        <v>12</v>
+      <c r="C804">
+        <v>7</v>
       </c>
       <c r="D804">
         <v>21</v>
@@ -20093,8 +20060,8 @@
       <c r="B805">
         <v>2018</v>
       </c>
-      <c r="C805" t="s">
-        <v>12</v>
+      <c r="C805">
+        <v>7</v>
       </c>
       <c r="D805">
         <v>22</v>
@@ -20119,8 +20086,8 @@
       <c r="B806">
         <v>2018</v>
       </c>
-      <c r="C806" t="s">
-        <v>12</v>
+      <c r="C806">
+        <v>7</v>
       </c>
       <c r="D806">
         <v>23</v>
@@ -20145,8 +20112,8 @@
       <c r="B807">
         <v>2018</v>
       </c>
-      <c r="C807" t="s">
-        <v>12</v>
+      <c r="C807">
+        <v>7</v>
       </c>
       <c r="D807">
         <v>24</v>
@@ -20171,8 +20138,8 @@
       <c r="B808">
         <v>2018</v>
       </c>
-      <c r="C808" t="s">
-        <v>12</v>
+      <c r="C808">
+        <v>7</v>
       </c>
       <c r="D808">
         <v>25</v>
@@ -20197,8 +20164,8 @@
       <c r="B809">
         <v>2018</v>
       </c>
-      <c r="C809" t="s">
-        <v>12</v>
+      <c r="C809">
+        <v>7</v>
       </c>
       <c r="D809">
         <v>26</v>
@@ -20223,8 +20190,8 @@
       <c r="B810">
         <v>2018</v>
       </c>
-      <c r="C810" t="s">
-        <v>12</v>
+      <c r="C810">
+        <v>7</v>
       </c>
       <c r="D810">
         <v>27</v>
@@ -20249,8 +20216,8 @@
       <c r="B811">
         <v>2018</v>
       </c>
-      <c r="C811" t="s">
-        <v>12</v>
+      <c r="C811">
+        <v>7</v>
       </c>
       <c r="D811">
         <v>28</v>
@@ -20275,8 +20242,8 @@
       <c r="B812">
         <v>2018</v>
       </c>
-      <c r="C812" t="s">
-        <v>12</v>
+      <c r="C812">
+        <v>7</v>
       </c>
       <c r="D812">
         <v>29</v>
@@ -20301,8 +20268,8 @@
       <c r="B813">
         <v>2018</v>
       </c>
-      <c r="C813" t="s">
-        <v>12</v>
+      <c r="C813">
+        <v>7</v>
       </c>
       <c r="D813">
         <v>30</v>
@@ -20327,8 +20294,8 @@
       <c r="B814">
         <v>2018</v>
       </c>
-      <c r="C814" t="s">
-        <v>12</v>
+      <c r="C814">
+        <v>7</v>
       </c>
       <c r="D814">
         <v>31</v>
